--- a/제품_20170414/전체상품_Update.xlsx
+++ b/제품_20170414/전체상품_Update.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="360" windowWidth="24165" windowHeight="11535" tabRatio="732" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="10950" yWindow="360" windowWidth="24165" windowHeight="11535" tabRatio="732" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴" sheetId="1" r:id="rId1"/>
@@ -4235,7 +4235,7 @@
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="179" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4697,7 +4697,7 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5448,11 +5448,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7125,7 +7128,7 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7141,7 +7144,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
@@ -7161,7 +7164,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -7215,7 +7218,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -7267,7 +7270,7 @@
       </c>
       <c r="R2" s="50"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -7319,7 +7322,7 @@
       </c>
       <c r="R3" s="50"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -7371,7 +7374,7 @@
       </c>
       <c r="R4" s="50"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -7423,7 +7426,7 @@
       </c>
       <c r="R5" s="50"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -7573,7 +7576,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -7623,7 +7626,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -7673,7 +7676,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="17.25" thickBot="1">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -7773,7 +7776,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="D14" s="139" t="s">
         <v>830</v>
       </c>
@@ -7802,7 +7805,7 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="72" customWidth="1"/>
     <col min="2" max="3" width="9" style="72"/>
@@ -7823,7 +7826,7 @@
     <col min="19" max="16384" width="9" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -7929,7 +7932,7 @@
       </c>
       <c r="R2" s="79"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -7981,7 +7984,7 @@
       </c>
       <c r="R3" s="109"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -8033,7 +8036,7 @@
       </c>
       <c r="R4" s="109"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -8085,7 +8088,7 @@
       </c>
       <c r="R5" s="109"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -8137,7 +8140,7 @@
       </c>
       <c r="R6" s="109"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -8189,7 +8192,7 @@
       </c>
       <c r="R7" s="112"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -8241,7 +8244,7 @@
       </c>
       <c r="R8" s="112"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -8293,7 +8296,7 @@
       </c>
       <c r="R9" s="112"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -8345,7 +8348,7 @@
       </c>
       <c r="R10" s="112"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -8397,7 +8400,7 @@
       </c>
       <c r="R11" s="112"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -8449,7 +8452,7 @@
       </c>
       <c r="R12" s="112"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -8501,7 +8504,7 @@
       </c>
       <c r="R13" s="112"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -8553,7 +8556,7 @@
       </c>
       <c r="R14" s="112"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -8605,7 +8608,7 @@
       </c>
       <c r="R15" s="112"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -8657,7 +8660,7 @@
       </c>
       <c r="R16" s="112"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -8711,7 +8714,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -8763,7 +8766,7 @@
       </c>
       <c r="R18" s="112"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -8815,7 +8818,7 @@
       </c>
       <c r="R19" s="112"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -8867,7 +8870,7 @@
       </c>
       <c r="R20" s="79"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -8919,7 +8922,7 @@
       </c>
       <c r="R21" s="79"/>
     </row>
-    <row r="22" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="17.25" thickBot="1">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -8971,137 +8974,137 @@
       </c>
       <c r="R22" s="92"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="D23" s="72">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="D24" s="139" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="D27" s="215"/>
       <c r="G27" s="128"/>
       <c r="H27" s="218"/>
       <c r="K27" s="128"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="D28" s="215"/>
       <c r="G28" s="128"/>
       <c r="H28" s="218"/>
       <c r="K28" s="128"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="D29" s="215"/>
       <c r="G29" s="128"/>
       <c r="H29" s="218"/>
       <c r="K29" s="128"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="D30" s="215"/>
       <c r="G30" s="128"/>
       <c r="H30" s="218"/>
       <c r="K30" s="128"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="D31" s="215"/>
       <c r="G31" s="128"/>
       <c r="H31" s="218"/>
       <c r="K31" s="128"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="D32" s="216"/>
       <c r="G32" s="128"/>
       <c r="H32" s="1"/>
       <c r="K32" s="128"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11">
       <c r="D33" s="216"/>
       <c r="G33" s="128"/>
       <c r="H33" s="1"/>
       <c r="K33" s="128"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11">
       <c r="D34" s="216"/>
       <c r="G34" s="128"/>
       <c r="H34" s="1"/>
       <c r="K34" s="128"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:11">
       <c r="D35" s="216"/>
       <c r="G35" s="128"/>
       <c r="H35" s="1"/>
       <c r="K35" s="128"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:11">
       <c r="D36" s="216"/>
       <c r="G36" s="128"/>
       <c r="H36" s="1"/>
       <c r="K36" s="128"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11">
       <c r="D37" s="216"/>
       <c r="G37" s="128"/>
       <c r="H37" s="1"/>
       <c r="K37" s="128"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11">
       <c r="D38" s="216"/>
       <c r="G38" s="128"/>
       <c r="H38" s="1"/>
       <c r="K38" s="128"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11">
       <c r="D39" s="217"/>
       <c r="G39" s="128"/>
       <c r="H39" s="218"/>
       <c r="K39" s="128"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11">
       <c r="D40" s="217"/>
       <c r="G40" s="128"/>
       <c r="H40" s="218"/>
       <c r="K40" s="128"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11">
       <c r="D41" s="217"/>
       <c r="G41" s="128"/>
       <c r="H41" s="218"/>
       <c r="K41" s="128"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11">
       <c r="D42" s="217"/>
       <c r="G42" s="128"/>
       <c r="H42" s="218"/>
       <c r="K42" s="128"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11">
       <c r="D43" s="217"/>
       <c r="G43" s="128"/>
       <c r="H43" s="218"/>
       <c r="K43" s="128"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11">
       <c r="D44" s="217"/>
       <c r="G44" s="128"/>
       <c r="H44" s="218"/>
       <c r="K44" s="128"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11">
       <c r="D45" s="217"/>
       <c r="G45" s="128"/>
       <c r="H45" s="218"/>
       <c r="K45" s="128"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11">
       <c r="D46" s="217"/>
       <c r="G46" s="128"/>
       <c r="H46" s="218"/>
       <c r="K46" s="128"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11">
       <c r="D47" s="217"/>
       <c r="G47" s="128"/>
       <c r="H47" s="218"/>
@@ -9131,7 +9134,7 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="9" style="72"/>
     <col min="4" max="4" width="43" customWidth="1"/>
@@ -9148,7 +9151,7 @@
     <col min="18" max="18" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -9202,7 +9205,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -9254,7 +9257,7 @@
       </c>
       <c r="R2" s="101"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -9306,7 +9309,7 @@
       </c>
       <c r="R3" s="101"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -9358,7 +9361,7 @@
       </c>
       <c r="R4" s="101"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -9410,7 +9413,7 @@
       </c>
       <c r="R5" s="101"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -9462,7 +9465,7 @@
       </c>
       <c r="R6" s="101"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -9514,7 +9517,7 @@
       </c>
       <c r="R7" s="101"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -9566,7 +9569,7 @@
       </c>
       <c r="R8" s="101"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -9618,7 +9621,7 @@
       </c>
       <c r="R9" s="101"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -9670,7 +9673,7 @@
       </c>
       <c r="R10" s="101"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -9722,7 +9725,7 @@
       </c>
       <c r="R11" s="101"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -9774,7 +9777,7 @@
       </c>
       <c r="R12" s="101"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -9826,7 +9829,7 @@
       </c>
       <c r="R13" s="101"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -9878,7 +9881,7 @@
       </c>
       <c r="R14" s="101"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -9930,7 +9933,7 @@
       </c>
       <c r="R15" s="101"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -9982,7 +9985,7 @@
       </c>
       <c r="R16" s="101"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -10034,7 +10037,7 @@
       </c>
       <c r="R17" s="101"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -10086,7 +10089,7 @@
       </c>
       <c r="R18" s="101"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -10138,7 +10141,7 @@
       </c>
       <c r="R19" s="101"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -10190,7 +10193,7 @@
       </c>
       <c r="R20" s="101"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -10242,7 +10245,7 @@
       </c>
       <c r="R21" s="101"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -10294,7 +10297,7 @@
       </c>
       <c r="R22" s="101"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -10346,7 +10349,7 @@
       </c>
       <c r="R23" s="101"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -10398,7 +10401,7 @@
       </c>
       <c r="R24" s="101"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -10450,7 +10453,7 @@
       </c>
       <c r="R25" s="101"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -10502,7 +10505,7 @@
       </c>
       <c r="R26" s="101"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -10554,7 +10557,7 @@
       </c>
       <c r="R27" s="101"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -10606,7 +10609,7 @@
       </c>
       <c r="R28" s="101"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -10658,7 +10661,7 @@
       </c>
       <c r="R29" s="101"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -10710,7 +10713,7 @@
       </c>
       <c r="R30" s="101"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -10762,7 +10765,7 @@
       </c>
       <c r="R31" s="101"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -10814,7 +10817,7 @@
       </c>
       <c r="R32" s="101"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -10866,7 +10869,7 @@
       </c>
       <c r="R33" s="101"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -10918,7 +10921,7 @@
       </c>
       <c r="R34" s="101"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -10970,7 +10973,7 @@
       </c>
       <c r="R35" s="101"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -11022,7 +11025,7 @@
       </c>
       <c r="R36" s="101"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -11074,7 +11077,7 @@
       </c>
       <c r="R37" s="101"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -11178,7 +11181,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -11230,7 +11233,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="17.25" thickBot="1">
       <c r="A41" s="38">
         <v>40</v>
       </c>
@@ -11282,12 +11285,12 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="D42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="D43" s="139" t="s">
         <v>843</v>
       </c>
@@ -11312,7 +11315,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="72"/>
     <col min="4" max="4" width="29.375" style="72" customWidth="1"/>
@@ -11332,7 +11335,7 @@
     <col min="19" max="16384" width="9" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -11440,7 +11443,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -11548,7 +11551,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -11602,7 +11605,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -11656,7 +11659,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -11710,7 +11713,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -11816,7 +11819,7 @@
       </c>
       <c r="R9" s="112"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -11868,7 +11871,7 @@
       </c>
       <c r="R10" s="112"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -11976,7 +11979,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -12138,7 +12141,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -12190,7 +12193,7 @@
       </c>
       <c r="R16" s="112"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -12242,7 +12245,7 @@
       </c>
       <c r="R17" s="112"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -12296,7 +12299,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="17.25" thickBot="1">
       <c r="A19" s="38">
         <v>18</v>
       </c>
@@ -12350,73 +12353,73 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="D20" s="72">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="D22" s="139" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="D23" s="139" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="D26" s="215"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="D27" s="215"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="D28" s="215"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="D29" s="215"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="D30" s="215"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="D31" s="215"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="D32" s="215"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4">
       <c r="D33" s="215"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4">
       <c r="D34" s="215"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4">
       <c r="D35" s="215"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4">
       <c r="D36" s="215"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4">
       <c r="D37" s="215"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4">
       <c r="D38" s="215"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4">
       <c r="D39" s="215"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4">
       <c r="D40" s="215"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4">
       <c r="D41" s="215"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4">
       <c r="D42" s="215"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4">
       <c r="D43" s="215"/>
     </row>
   </sheetData>
@@ -12440,7 +12443,7 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="2" bestFit="1" customWidth="1"/>
@@ -12462,7 +12465,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -12516,7 +12519,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -12568,7 +12571,7 @@
       </c>
       <c r="R2" s="50"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -12620,7 +12623,7 @@
       </c>
       <c r="R3" s="50"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -12672,7 +12675,7 @@
       </c>
       <c r="R4" s="50"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -12724,7 +12727,7 @@
       </c>
       <c r="R5" s="50"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -12776,7 +12779,7 @@
       </c>
       <c r="R6" s="50"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -12828,7 +12831,7 @@
       </c>
       <c r="R7" s="50"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -12880,7 +12883,7 @@
       </c>
       <c r="R8" s="50"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -12932,7 +12935,7 @@
       </c>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -12984,7 +12987,7 @@
       </c>
       <c r="R10" s="50"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -13036,7 +13039,7 @@
       </c>
       <c r="R11" s="50"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -13088,7 +13091,7 @@
       </c>
       <c r="R12" s="50"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -13140,7 +13143,7 @@
       </c>
       <c r="R13" s="50"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -13192,7 +13195,7 @@
       </c>
       <c r="R14" s="50"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -13244,7 +13247,7 @@
       </c>
       <c r="R15" s="50"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -13294,7 +13297,7 @@
       </c>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -13346,7 +13349,7 @@
       </c>
       <c r="R17" s="50"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -13398,7 +13401,7 @@
       </c>
       <c r="R18" s="50"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -13450,7 +13453,7 @@
       </c>
       <c r="R19" s="50"/>
     </row>
-    <row r="20" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="17.25" thickBot="1">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -13502,12 +13505,12 @@
       </c>
       <c r="R20" s="59"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="D21" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="D23" s="139" t="s">
         <v>914</v>
       </c>
@@ -13528,11 +13531,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="2" bestFit="1" customWidth="1"/>
@@ -13553,7 +13556,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -13607,7 +13610,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -13657,7 +13660,7 @@
       </c>
       <c r="R2" s="50"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -13707,7 +13710,7 @@
       </c>
       <c r="R3" s="50"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -13757,7 +13760,7 @@
       </c>
       <c r="R4" s="50"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -13807,7 +13810,7 @@
       </c>
       <c r="R5" s="50"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -13859,7 +13862,7 @@
       </c>
       <c r="R6" s="50"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -13911,7 +13914,7 @@
       </c>
       <c r="R7" s="50"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -13963,7 +13966,7 @@
       </c>
       <c r="R8" s="50"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -14015,7 +14018,7 @@
       </c>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -14067,7 +14070,7 @@
       </c>
       <c r="R10" s="50"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -14119,7 +14122,7 @@
       </c>
       <c r="R11" s="50"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -14169,7 +14172,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -14221,7 +14224,7 @@
       </c>
       <c r="R13" s="50"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -14273,7 +14276,7 @@
       </c>
       <c r="R14" s="50"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -14325,7 +14328,7 @@
       </c>
       <c r="R15" s="50"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -14377,7 +14380,7 @@
       </c>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -14429,7 +14432,7 @@
       </c>
       <c r="R17" s="50"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -14481,7 +14484,7 @@
       </c>
       <c r="R18" s="50"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -14533,7 +14536,7 @@
       </c>
       <c r="R19" s="50"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -14585,7 +14588,7 @@
       </c>
       <c r="R20" s="50"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -14637,7 +14640,7 @@
       </c>
       <c r="R21" s="50"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -14689,7 +14692,7 @@
       </c>
       <c r="R22" s="50"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -14741,7 +14744,7 @@
       </c>
       <c r="R23" s="50"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -14793,7 +14796,7 @@
       </c>
       <c r="R24" s="50"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -14845,7 +14848,7 @@
       </c>
       <c r="R25" s="50"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -14897,7 +14900,7 @@
       </c>
       <c r="R26" s="50"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -14949,7 +14952,7 @@
       </c>
       <c r="R27" s="50"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -15001,7 +15004,7 @@
       </c>
       <c r="R28" s="50"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -15053,7 +15056,7 @@
       </c>
       <c r="R29" s="50"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -15105,7 +15108,7 @@
       </c>
       <c r="R30" s="50"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -15157,7 +15160,7 @@
       </c>
       <c r="R31" s="50"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -15209,7 +15212,7 @@
       </c>
       <c r="R32" s="50"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -15261,7 +15264,7 @@
       </c>
       <c r="R33" s="50"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -15313,7 +15316,7 @@
       </c>
       <c r="R34" s="50"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -15365,7 +15368,7 @@
       </c>
       <c r="R35" s="50"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -15417,7 +15420,7 @@
       </c>
       <c r="R36" s="50"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -15469,7 +15472,7 @@
       </c>
       <c r="R37" s="50"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -15521,7 +15524,7 @@
       </c>
       <c r="R38" s="50"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -15573,7 +15576,7 @@
       </c>
       <c r="R39" s="50"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -15625,7 +15628,7 @@
       </c>
       <c r="R40" s="50"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41" s="37">
         <v>40</v>
       </c>
@@ -15677,7 +15680,7 @@
       </c>
       <c r="R41" s="50"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="A42" s="37">
         <v>41</v>
       </c>
@@ -15729,7 +15732,7 @@
       </c>
       <c r="R42" s="50"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43" s="37">
         <v>42</v>
       </c>
@@ -15781,7 +15784,7 @@
       </c>
       <c r="R43" s="50"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
       <c r="A44" s="37">
         <v>43</v>
       </c>
@@ -15833,7 +15836,7 @@
       </c>
       <c r="R44" s="50"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18">
       <c r="A45" s="37">
         <v>44</v>
       </c>
@@ -15885,7 +15888,7 @@
       </c>
       <c r="R45" s="50"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18">
       <c r="A46" s="37">
         <v>45</v>
       </c>
@@ -15937,7 +15940,7 @@
       </c>
       <c r="R46" s="50"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18">
       <c r="A47" s="37">
         <v>46</v>
       </c>
@@ -15989,7 +15992,7 @@
       </c>
       <c r="R47" s="50"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18">
       <c r="A48" s="37">
         <v>47</v>
       </c>
@@ -16041,7 +16044,7 @@
       </c>
       <c r="R48" s="50"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49" s="37">
         <v>48</v>
       </c>
@@ -16093,7 +16096,7 @@
       </c>
       <c r="R49" s="50"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50" s="37">
         <v>49</v>
       </c>
@@ -16145,7 +16148,7 @@
       </c>
       <c r="R50" s="50"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18">
       <c r="A51" s="37">
         <v>50</v>
       </c>
@@ -16197,7 +16200,7 @@
       </c>
       <c r="R51" s="50"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18">
       <c r="A52" s="37">
         <v>51</v>
       </c>
@@ -16249,7 +16252,7 @@
       </c>
       <c r="R52" s="50"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18">
       <c r="A53" s="37">
         <v>52</v>
       </c>
@@ -16301,7 +16304,7 @@
       </c>
       <c r="R53" s="50"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18">
       <c r="A54" s="37">
         <v>53</v>
       </c>
@@ -16353,7 +16356,7 @@
       </c>
       <c r="R54" s="50"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18">
       <c r="A55" s="37">
         <v>54</v>
       </c>
@@ -16405,7 +16408,7 @@
       </c>
       <c r="R55" s="50"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18">
       <c r="A56" s="37">
         <v>55</v>
       </c>
@@ -16457,7 +16460,7 @@
       </c>
       <c r="R56" s="50"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="A57" s="37">
         <v>56</v>
       </c>
@@ -16509,7 +16512,7 @@
       </c>
       <c r="R57" s="50"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="A58" s="37">
         <v>57</v>
       </c>
@@ -16561,7 +16564,7 @@
       </c>
       <c r="R58" s="50"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="A59" s="37">
         <v>58</v>
       </c>
@@ -16613,7 +16616,7 @@
       </c>
       <c r="R59" s="50"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -16665,7 +16668,7 @@
       </c>
       <c r="R60" s="50"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -16717,7 +16720,7 @@
       </c>
       <c r="R61" s="50"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="A62" s="37">
         <v>61</v>
       </c>
@@ -16769,7 +16772,7 @@
       </c>
       <c r="R62" s="50"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="A63" s="37">
         <v>62</v>
       </c>
@@ -16821,7 +16824,7 @@
       </c>
       <c r="R63" s="50"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18">
       <c r="A64" s="37">
         <v>63</v>
       </c>
@@ -16873,7 +16876,7 @@
       </c>
       <c r="R64" s="50"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -16925,7 +16928,7 @@
       </c>
       <c r="R65" s="50"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -16977,7 +16980,7 @@
       </c>
       <c r="R66" s="50"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -17029,7 +17032,7 @@
       </c>
       <c r="R67" s="50"/>
     </row>
-    <row r="68" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" ht="17.25" thickBot="1">
       <c r="A68" s="38">
         <v>67</v>
       </c>
@@ -17079,7 +17082,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18">
       <c r="D71" s="225" t="s">
         <v>934</v>
       </c>
@@ -17105,7 +17108,7 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17120,14 +17123,14 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="17.25" thickBot="1"/>
+    <row r="3" spans="2:4">
       <c r="B3" s="234" t="s">
         <v>684</v>
       </c>
@@ -17138,7 +17141,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="236" t="s">
         <v>627</v>
       </c>
@@ -17149,7 +17152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="236" t="s">
         <v>636</v>
       </c>
@@ -17160,7 +17163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="236" t="s">
         <v>688</v>
       </c>
@@ -17171,7 +17174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="236" t="s">
         <v>665</v>
       </c>
@@ -17182,7 +17185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4">
       <c r="B8" s="236" t="s">
         <v>671</v>
       </c>
@@ -17193,7 +17196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4">
       <c r="B9" s="236" t="s">
         <v>668</v>
       </c>
@@ -17204,7 +17207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4">
       <c r="B10" s="236" t="s">
         <v>666</v>
       </c>
@@ -17215,7 +17218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="236" t="s">
         <v>678</v>
       </c>
@@ -17226,7 +17229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4">
       <c r="B12" s="236" t="s">
         <v>692</v>
       </c>
@@ -17237,7 +17240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="236" t="s">
         <v>695</v>
       </c>
@@ -17248,7 +17251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="236" t="s">
         <v>734</v>
       </c>
@@ -17259,7 +17262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" s="237" t="s">
         <v>1046</v>
       </c>
@@ -17268,7 +17271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4">
       <c r="B16" s="237" t="s">
         <v>1047</v>
       </c>
@@ -17277,7 +17280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4">
       <c r="B17" s="237" t="s">
         <v>1048</v>
       </c>
@@ -17286,7 +17289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" s="237" t="s">
         <v>1049</v>
       </c>
@@ -17295,7 +17298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" s="237" t="s">
         <v>1050</v>
       </c>
@@ -17304,7 +17307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4">
       <c r="B20" s="237" t="s">
         <v>1051</v>
       </c>
@@ -17313,7 +17316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="17.25" thickBot="1">
       <c r="B21" s="238" t="s">
         <v>1052</v>
       </c>
@@ -17322,7 +17325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4">
       <c r="D22" s="129">
         <f>SUM(D4:D21)</f>
         <v>537</v>
@@ -17343,7 +17346,7 @@
       <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
@@ -17367,7 +17370,7 @@
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="36" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="36" customFormat="1" ht="49.5">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -17422,7 +17425,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -17452,7 +17455,7 @@
       <c r="I2" s="106">
         <v>1220</v>
       </c>
-      <c r="J2" s="253" t="s">
+      <c r="J2" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K2" s="17">
@@ -17478,7 +17481,7 @@
       </c>
       <c r="S2" s="50"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -17508,7 +17511,7 @@
       <c r="I3" s="53">
         <v>2860</v>
       </c>
-      <c r="J3" s="253" t="s">
+      <c r="J3" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K3" s="17">
@@ -17537,7 +17540,7 @@
       </c>
       <c r="S3" s="50"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -17567,7 +17570,7 @@
       <c r="I4" s="106">
         <v>12800</v>
       </c>
-      <c r="J4" s="253" t="s">
+      <c r="J4" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K4" s="17">
@@ -17598,7 +17601,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -17628,14 +17631,14 @@
       <c r="I5" s="53">
         <v>640</v>
       </c>
-      <c r="J5" s="253" t="s">
+      <c r="J5" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K5" s="17">
         <v>2500</v>
       </c>
       <c r="L5" s="17">
-        <f t="shared" ref="L5:L50" si="3">I5*5</f>
+        <f t="shared" ref="L5:L49" si="3">I5*5</f>
         <v>3200</v>
       </c>
       <c r="M5" s="8"/>
@@ -17659,7 +17662,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -17689,7 +17692,7 @@
       <c r="I6" s="106">
         <v>3200</v>
       </c>
-      <c r="J6" s="253" t="s">
+      <c r="J6" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K6" s="17">
@@ -17718,7 +17721,7 @@
       </c>
       <c r="S6" s="50"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -17748,7 +17751,7 @@
       <c r="I7" s="53">
         <v>3450</v>
       </c>
-      <c r="J7" s="253" t="s">
+      <c r="J7" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K7" s="17">
@@ -17777,7 +17780,7 @@
       </c>
       <c r="S7" s="50"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -17807,7 +17810,7 @@
       <c r="I8" s="106">
         <v>3450</v>
       </c>
-      <c r="J8" s="253" t="s">
+      <c r="J8" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K8" s="17">
@@ -17836,7 +17839,7 @@
       </c>
       <c r="S8" s="50"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -17866,7 +17869,7 @@
       <c r="I9" s="53">
         <v>3450</v>
       </c>
-      <c r="J9" s="253" t="s">
+      <c r="J9" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K9" s="17">
@@ -17895,7 +17898,7 @@
       </c>
       <c r="S9" s="50"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -17925,7 +17928,7 @@
       <c r="I10" s="106">
         <v>3450</v>
       </c>
-      <c r="J10" s="253" t="s">
+      <c r="J10" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K10" s="17">
@@ -17954,7 +17957,7 @@
       </c>
       <c r="S10" s="50"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -17984,7 +17987,7 @@
       <c r="I11" s="53">
         <v>3650</v>
       </c>
-      <c r="J11" s="253" t="s">
+      <c r="J11" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K11" s="17">
@@ -18013,7 +18016,7 @@
       </c>
       <c r="S11" s="50"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -18043,7 +18046,7 @@
       <c r="I12" s="106">
         <v>3650</v>
       </c>
-      <c r="J12" s="253" t="s">
+      <c r="J12" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K12" s="17">
@@ -18072,7 +18075,7 @@
       </c>
       <c r="S12" s="50"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -18102,7 +18105,7 @@
       <c r="I13" s="53">
         <v>3650</v>
       </c>
-      <c r="J13" s="253" t="s">
+      <c r="J13" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K13" s="17">
@@ -18131,7 +18134,7 @@
       </c>
       <c r="S13" s="50"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -18161,7 +18164,7 @@
       <c r="I14" s="106">
         <v>3950</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K14" s="17">
@@ -18190,7 +18193,7 @@
       </c>
       <c r="S14" s="50"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -18220,7 +18223,7 @@
       <c r="I15" s="53">
         <v>3950</v>
       </c>
-      <c r="J15" s="253" t="s">
+      <c r="J15" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K15" s="17">
@@ -18249,7 +18252,7 @@
       </c>
       <c r="S15" s="50"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -18279,7 +18282,7 @@
       <c r="I16" s="106">
         <v>4350</v>
       </c>
-      <c r="J16" s="253" t="s">
+      <c r="J16" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K16" s="17">
@@ -18308,7 +18311,7 @@
       </c>
       <c r="S16" s="50"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -18338,7 +18341,7 @@
       <c r="I17" s="53">
         <v>4350</v>
       </c>
-      <c r="J17" s="253" t="s">
+      <c r="J17" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K17" s="17">
@@ -18367,7 +18370,7 @@
       </c>
       <c r="S17" s="50"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -18397,7 +18400,7 @@
       <c r="I18" s="106">
         <v>4350</v>
       </c>
-      <c r="J18" s="253" t="s">
+      <c r="J18" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K18" s="17">
@@ -18426,7 +18429,7 @@
       </c>
       <c r="S18" s="50"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -18456,7 +18459,7 @@
       <c r="I19" s="53">
         <v>4550</v>
       </c>
-      <c r="J19" s="253" t="s">
+      <c r="J19" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K19" s="17">
@@ -18485,7 +18488,7 @@
       </c>
       <c r="S19" s="50"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -18515,7 +18518,7 @@
       <c r="I20" s="106">
         <v>5650</v>
       </c>
-      <c r="J20" s="253" t="s">
+      <c r="J20" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K20" s="17">
@@ -18544,7 +18547,7 @@
       </c>
       <c r="S20" s="50"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -18574,7 +18577,7 @@
       <c r="I21" s="53">
         <v>5650</v>
       </c>
-      <c r="J21" s="253" t="s">
+      <c r="J21" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K21" s="17">
@@ -18603,7 +18606,7 @@
       </c>
       <c r="S21" s="50"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -18633,7 +18636,7 @@
       <c r="I22" s="106">
         <v>5650</v>
       </c>
-      <c r="J22" s="253" t="s">
+      <c r="J22" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K22" s="17">
@@ -18662,7 +18665,7 @@
       </c>
       <c r="S22" s="50"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -18692,7 +18695,7 @@
       <c r="I23" s="53">
         <v>5550</v>
       </c>
-      <c r="J23" s="253" t="s">
+      <c r="J23" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K23" s="17">
@@ -18721,7 +18724,7 @@
       </c>
       <c r="S23" s="50"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -18751,7 +18754,7 @@
       <c r="I24" s="106">
         <v>6000</v>
       </c>
-      <c r="J24" s="253" t="s">
+      <c r="J24" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K24" s="17">
@@ -18780,7 +18783,7 @@
       </c>
       <c r="S24" s="50"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -18810,7 +18813,7 @@
       <c r="I25" s="53">
         <v>4550</v>
       </c>
-      <c r="J25" s="253" t="s">
+      <c r="J25" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K25" s="17">
@@ -18839,7 +18842,7 @@
       </c>
       <c r="S25" s="50"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -18869,7 +18872,7 @@
       <c r="I26" s="106">
         <v>1150</v>
       </c>
-      <c r="J26" s="253" t="s">
+      <c r="J26" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K26" s="17">
@@ -18898,7 +18901,7 @@
       </c>
       <c r="S26" s="50"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -18928,7 +18931,7 @@
       <c r="I27" s="53">
         <v>1150</v>
       </c>
-      <c r="J27" s="253" t="s">
+      <c r="J27" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K27" s="17">
@@ -18957,7 +18960,7 @@
       </c>
       <c r="S27" s="50"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -18987,7 +18990,7 @@
       <c r="I28" s="106">
         <v>4050</v>
       </c>
-      <c r="J28" s="253" t="s">
+      <c r="J28" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K28" s="17">
@@ -19016,7 +19019,7 @@
       </c>
       <c r="S28" s="50"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -19046,7 +19049,7 @@
       <c r="I29" s="53">
         <v>4050</v>
       </c>
-      <c r="J29" s="253" t="s">
+      <c r="J29" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K29" s="17">
@@ -19075,7 +19078,7 @@
       </c>
       <c r="S29" s="50"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -19105,7 +19108,7 @@
       <c r="I30" s="106">
         <v>3450</v>
       </c>
-      <c r="J30" s="253" t="s">
+      <c r="J30" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K30" s="17">
@@ -19134,7 +19137,7 @@
       </c>
       <c r="S30" s="50"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -19164,7 +19167,7 @@
       <c r="I31" s="53">
         <v>4350</v>
       </c>
-      <c r="J31" s="253" t="s">
+      <c r="J31" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K31" s="17">
@@ -19193,7 +19196,7 @@
       </c>
       <c r="S31" s="50"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -19223,7 +19226,7 @@
       <c r="I32" s="106">
         <v>6850</v>
       </c>
-      <c r="J32" s="253" t="s">
+      <c r="J32" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K32" s="17">
@@ -19252,7 +19255,7 @@
       </c>
       <c r="S32" s="50"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -19282,7 +19285,7 @@
       <c r="I33" s="53">
         <v>5900</v>
       </c>
-      <c r="J33" s="253" t="s">
+      <c r="J33" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K33" s="17">
@@ -19311,7 +19314,7 @@
       </c>
       <c r="S33" s="50"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -19341,7 +19344,7 @@
       <c r="I34" s="106">
         <v>12000</v>
       </c>
-      <c r="J34" s="253" t="s">
+      <c r="J34" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K34" s="17">
@@ -19372,7 +19375,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -19402,7 +19405,7 @@
       <c r="I35" s="53">
         <v>2900</v>
       </c>
-      <c r="J35" s="253" t="s">
+      <c r="J35" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K35" s="17">
@@ -19431,7 +19434,7 @@
       </c>
       <c r="S35" s="50"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -19461,7 +19464,7 @@
       <c r="I36" s="106">
         <v>3200</v>
       </c>
-      <c r="J36" s="253" t="s">
+      <c r="J36" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K36" s="17">
@@ -19490,7 +19493,7 @@
       </c>
       <c r="S36" s="50"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -19520,7 +19523,7 @@
       <c r="I37" s="53">
         <v>2500</v>
       </c>
-      <c r="J37" s="253" t="s">
+      <c r="J37" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K37" s="17">
@@ -19549,7 +19552,7 @@
       </c>
       <c r="S37" s="50"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -19579,7 +19582,7 @@
       <c r="I38" s="106">
         <v>2800</v>
       </c>
-      <c r="J38" s="253" t="s">
+      <c r="J38" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K38" s="17">
@@ -19608,7 +19611,7 @@
       </c>
       <c r="S38" s="50"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -19638,7 +19641,7 @@
       <c r="I39" s="53">
         <v>3000</v>
       </c>
-      <c r="J39" s="253" t="s">
+      <c r="J39" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K39" s="17">
@@ -19667,7 +19670,7 @@
       </c>
       <c r="S39" s="50"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -19697,7 +19700,7 @@
       <c r="I40" s="106">
         <v>3700</v>
       </c>
-      <c r="J40" s="253" t="s">
+      <c r="J40" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K40" s="17">
@@ -19726,7 +19729,7 @@
       </c>
       <c r="S40" s="50"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" s="37">
         <v>40</v>
       </c>
@@ -19756,7 +19759,7 @@
       <c r="I41" s="53">
         <v>3700</v>
       </c>
-      <c r="J41" s="253" t="s">
+      <c r="J41" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K41" s="17">
@@ -19785,7 +19788,7 @@
       </c>
       <c r="S41" s="50"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" s="37">
         <v>41</v>
       </c>
@@ -19815,7 +19818,7 @@
       <c r="I42" s="106">
         <v>3700</v>
       </c>
-      <c r="J42" s="253" t="s">
+      <c r="J42" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K42" s="17">
@@ -19844,7 +19847,7 @@
       </c>
       <c r="S42" s="50"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" s="37">
         <v>42</v>
       </c>
@@ -19874,7 +19877,7 @@
       <c r="I43" s="53">
         <v>3700</v>
       </c>
-      <c r="J43" s="253" t="s">
+      <c r="J43" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K43" s="17">
@@ -19903,7 +19906,7 @@
       </c>
       <c r="S43" s="50"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" s="37">
         <v>43</v>
       </c>
@@ -19933,7 +19936,7 @@
       <c r="I44" s="106">
         <v>3700</v>
       </c>
-      <c r="J44" s="253" t="s">
+      <c r="J44" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K44" s="17">
@@ -19962,7 +19965,7 @@
       </c>
       <c r="S44" s="50"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" s="37">
         <v>44</v>
       </c>
@@ -19992,7 +19995,7 @@
       <c r="I45" s="53">
         <v>5100</v>
       </c>
-      <c r="J45" s="253" t="s">
+      <c r="J45" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K45" s="17">
@@ -20021,7 +20024,7 @@
       </c>
       <c r="S45" s="50"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" s="37">
         <v>45</v>
       </c>
@@ -20051,7 +20054,7 @@
       <c r="I46" s="106">
         <v>5100</v>
       </c>
-      <c r="J46" s="253" t="s">
+      <c r="J46" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K46" s="17">
@@ -20080,7 +20083,7 @@
       </c>
       <c r="S46" s="50"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" s="37">
         <v>46</v>
       </c>
@@ -20110,7 +20113,7 @@
       <c r="I47" s="53">
         <v>5100</v>
       </c>
-      <c r="J47" s="253" t="s">
+      <c r="J47" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K47" s="17">
@@ -20139,7 +20142,7 @@
       </c>
       <c r="S47" s="50"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" s="37">
         <v>47</v>
       </c>
@@ -20169,7 +20172,7 @@
       <c r="I48" s="106">
         <v>4800</v>
       </c>
-      <c r="J48" s="253" t="s">
+      <c r="J48" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K48" s="17">
@@ -20198,7 +20201,7 @@
       </c>
       <c r="S48" s="50"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" s="37">
         <v>48</v>
       </c>
@@ -20228,7 +20231,7 @@
       <c r="I49" s="53">
         <v>3300</v>
       </c>
-      <c r="J49" s="253" t="s">
+      <c r="J49" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K49" s="17">
@@ -20257,7 +20260,7 @@
       </c>
       <c r="S49" s="50"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" s="37">
         <v>49</v>
       </c>
@@ -20285,7 +20288,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="134"/>
-      <c r="J50" s="253" t="s">
+      <c r="J50" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K50" s="17">
@@ -20313,7 +20316,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" s="37">
         <v>50</v>
       </c>
@@ -20343,7 +20346,7 @@
       <c r="I51" s="106">
         <v>3500</v>
       </c>
-      <c r="J51" s="253" t="s">
+      <c r="J51" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K51" s="17">
@@ -20372,7 +20375,7 @@
       </c>
       <c r="S51" s="50"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" s="37">
         <v>51</v>
       </c>
@@ -20402,7 +20405,7 @@
       <c r="I52" s="53">
         <v>5800</v>
       </c>
-      <c r="J52" s="253" t="s">
+      <c r="J52" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K52" s="17">
@@ -20431,7 +20434,7 @@
       </c>
       <c r="S52" s="50"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" s="37">
         <v>52</v>
       </c>
@@ -20461,7 +20464,7 @@
       <c r="I53" s="106">
         <v>5800</v>
       </c>
-      <c r="J53" s="253" t="s">
+      <c r="J53" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K53" s="17">
@@ -20490,7 +20493,7 @@
       </c>
       <c r="S53" s="50"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" s="37">
         <v>53</v>
       </c>
@@ -20520,7 +20523,7 @@
       <c r="I54" s="53">
         <v>2900</v>
       </c>
-      <c r="J54" s="253" t="s">
+      <c r="J54" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K54" s="17">
@@ -20549,7 +20552,7 @@
       </c>
       <c r="S54" s="50"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" s="37">
         <v>54</v>
       </c>
@@ -20579,7 +20582,7 @@
       <c r="I55" s="106">
         <v>3300</v>
       </c>
-      <c r="J55" s="253" t="s">
+      <c r="J55" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K55" s="17">
@@ -20608,7 +20611,7 @@
       </c>
       <c r="S55" s="50"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" s="37">
         <v>55</v>
       </c>
@@ -20638,7 +20641,7 @@
       <c r="I56" s="53">
         <v>3500</v>
       </c>
-      <c r="J56" s="253" t="s">
+      <c r="J56" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K56" s="17">
@@ -20667,7 +20670,7 @@
       </c>
       <c r="S56" s="50"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" s="37">
         <v>56</v>
       </c>
@@ -20697,7 +20700,7 @@
       <c r="I57" s="106">
         <v>3500</v>
       </c>
-      <c r="J57" s="253" t="s">
+      <c r="J57" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K57" s="17">
@@ -20726,7 +20729,7 @@
       </c>
       <c r="S57" s="50"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" s="37">
         <v>57</v>
       </c>
@@ -20756,7 +20759,7 @@
       <c r="I58" s="53">
         <v>5600</v>
       </c>
-      <c r="J58" s="253" t="s">
+      <c r="J58" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K58" s="17">
@@ -20785,7 +20788,7 @@
       </c>
       <c r="S58" s="50"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" s="37">
         <v>58</v>
       </c>
@@ -20815,7 +20818,7 @@
       <c r="I59" s="106">
         <v>2600</v>
       </c>
-      <c r="J59" s="253" t="s">
+      <c r="J59" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K59" s="17">
@@ -20844,7 +20847,7 @@
       </c>
       <c r="S59" s="50"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -20874,7 +20877,7 @@
       <c r="I60" s="53">
         <v>5800</v>
       </c>
-      <c r="J60" s="253" t="s">
+      <c r="J60" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K60" s="17">
@@ -20903,7 +20906,7 @@
       </c>
       <c r="S60" s="50"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -20933,7 +20936,7 @@
       <c r="I61" s="106">
         <v>3900</v>
       </c>
-      <c r="J61" s="253" t="s">
+      <c r="J61" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K61" s="17">
@@ -20962,7 +20965,7 @@
       </c>
       <c r="S61" s="50"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" s="37">
         <v>61</v>
       </c>
@@ -20992,7 +20995,7 @@
       <c r="I62" s="53">
         <v>2300</v>
       </c>
-      <c r="J62" s="253" t="s">
+      <c r="J62" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K62" s="17">
@@ -21021,7 +21024,7 @@
       </c>
       <c r="S62" s="50"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" s="37">
         <v>62</v>
       </c>
@@ -21051,7 +21054,7 @@
       <c r="I63" s="106">
         <v>2900</v>
       </c>
-      <c r="J63" s="253" t="s">
+      <c r="J63" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K63" s="17">
@@ -21080,7 +21083,7 @@
       </c>
       <c r="S63" s="50"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" s="37">
         <v>63</v>
       </c>
@@ -21110,7 +21113,7 @@
       <c r="I64" s="53">
         <v>3700</v>
       </c>
-      <c r="J64" s="253" t="s">
+      <c r="J64" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K64" s="17">
@@ -21139,7 +21142,7 @@
       </c>
       <c r="S64" s="50"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -21169,7 +21172,7 @@
       <c r="I65" s="106">
         <v>1300</v>
       </c>
-      <c r="J65" s="253" t="s">
+      <c r="J65" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K65" s="17">
@@ -21198,7 +21201,7 @@
       </c>
       <c r="S65" s="50"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -21228,7 +21231,7 @@
       <c r="I66" s="53">
         <v>2500</v>
       </c>
-      <c r="J66" s="253" t="s">
+      <c r="J66" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K66" s="17">
@@ -21257,7 +21260,7 @@
       </c>
       <c r="S66" s="50"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -21287,7 +21290,7 @@
       <c r="I67" s="106">
         <v>2500</v>
       </c>
-      <c r="J67" s="253" t="s">
+      <c r="J67" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K67" s="17">
@@ -21316,7 +21319,7 @@
       </c>
       <c r="S67" s="50"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" s="37">
         <v>67</v>
       </c>
@@ -21346,7 +21349,7 @@
       <c r="I68" s="53">
         <v>2600</v>
       </c>
-      <c r="J68" s="253" t="s">
+      <c r="J68" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K68" s="17">
@@ -21375,7 +21378,7 @@
       </c>
       <c r="S68" s="50"/>
     </row>
-    <row r="69" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="17.25" thickBot="1">
       <c r="A69" s="38">
         <v>68</v>
       </c>
@@ -21405,7 +21408,7 @@
       <c r="I69" s="108">
         <v>2400</v>
       </c>
-      <c r="J69" s="253" t="s">
+      <c r="J69" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="K69" s="20">
@@ -21434,26 +21437,26 @@
       </c>
       <c r="S69" s="59"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="E74" s="2" t="s">
         <v>797</v>
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E75" s="252" t="s">
+    <row r="75" spans="1:19">
+      <c r="E75" s="254" t="s">
         <v>798</v>
       </c>
-      <c r="F75" s="252"/>
-      <c r="G75" s="252"/>
-      <c r="H75" s="252"/>
-      <c r="I75" s="252"/>
+      <c r="F75" s="254"/>
+      <c r="G75" s="254"/>
+      <c r="H75" s="254"/>
+      <c r="I75" s="254"/>
       <c r="J75" s="129" t="s">
         <v>799</v>
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="E76" s="130" t="s">
         <v>800</v>
       </c>
@@ -21465,7 +21468,7 @@
       <c r="I76" s="130"/>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="E77" s="130">
         <f>16*F77</f>
         <v>16</v>
@@ -21483,7 +21486,7 @@
       </c>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="E78" s="130">
         <f t="shared" ref="E78:E82" si="10">16*F78</f>
         <v>32</v>
@@ -21501,7 +21504,7 @@
       </c>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19">
       <c r="E79" s="130">
         <f t="shared" si="10"/>
         <v>48</v>
@@ -21519,7 +21522,7 @@
       </c>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="E80" s="130">
         <f t="shared" si="10"/>
         <v>64</v>
@@ -21537,7 +21540,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:11">
       <c r="E81" s="130">
         <f t="shared" si="10"/>
         <v>80</v>
@@ -21555,7 +21558,7 @@
       </c>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:11">
       <c r="E82" s="130">
         <f t="shared" si="10"/>
         <v>96</v>
@@ -21573,16 +21576,16 @@
       </c>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:11">
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:11">
       <c r="E84" s="2" t="s">
         <v>801</v>
       </c>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:11">
       <c r="E85" s="2" t="s">
         <v>802</v>
       </c>
@@ -21613,7 +21616,7 @@
       <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.75" style="47" customWidth="1"/>
     <col min="2" max="3" width="9" style="2"/>
@@ -21634,7 +21637,7 @@
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="36" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="36" customFormat="1" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -21689,7 +21692,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -21744,7 +21747,7 @@
       </c>
       <c r="S2" s="50"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -21802,7 +21805,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -21858,7 +21861,7 @@
       </c>
       <c r="S4" s="50"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -21916,7 +21919,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -21972,7 +21975,7 @@
       </c>
       <c r="S6" s="50"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -22030,7 +22033,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -22086,7 +22089,7 @@
       </c>
       <c r="S8" s="50"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -22142,7 +22145,7 @@
       </c>
       <c r="S9" s="50"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -22200,7 +22203,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -22256,7 +22259,7 @@
       </c>
       <c r="S11" s="50"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -22314,7 +22317,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -22370,7 +22373,7 @@
       </c>
       <c r="S13" s="50"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -22428,7 +22431,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -22484,7 +22487,7 @@
       </c>
       <c r="S15" s="50"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -22542,7 +22545,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -22598,7 +22601,7 @@
       </c>
       <c r="S17" s="50"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -22656,7 +22659,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -22712,7 +22715,7 @@
       </c>
       <c r="S19" s="50"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -22768,7 +22771,7 @@
       </c>
       <c r="S20" s="50"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -22824,7 +22827,7 @@
       </c>
       <c r="S21" s="50"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -22880,7 +22883,7 @@
       </c>
       <c r="S22" s="50"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -22936,7 +22939,7 @@
       </c>
       <c r="S23" s="50"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -22992,7 +22995,7 @@
       </c>
       <c r="S24" s="50"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -23048,7 +23051,7 @@
       </c>
       <c r="S25" s="50"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -23104,7 +23107,7 @@
       </c>
       <c r="S26" s="50"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -23160,7 +23163,7 @@
       </c>
       <c r="S27" s="50"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -23216,7 +23219,7 @@
       </c>
       <c r="S28" s="50"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -23272,7 +23275,7 @@
       </c>
       <c r="S29" s="50"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -23328,7 +23331,7 @@
       </c>
       <c r="S30" s="50"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -23384,7 +23387,7 @@
       </c>
       <c r="S31" s="50"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -23440,7 +23443,7 @@
       </c>
       <c r="S32" s="50"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -23496,7 +23499,7 @@
       </c>
       <c r="S33" s="50"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -23552,7 +23555,7 @@
       </c>
       <c r="S34" s="50"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -23608,7 +23611,7 @@
       </c>
       <c r="S35" s="50"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -23664,7 +23667,7 @@
       </c>
       <c r="S36" s="50"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -23720,7 +23723,7 @@
       </c>
       <c r="S37" s="50"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -23776,7 +23779,7 @@
       </c>
       <c r="S38" s="112"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -23835,7 +23838,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -23891,7 +23894,7 @@
       </c>
       <c r="S40" s="112"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" s="37">
         <v>40</v>
       </c>
@@ -23950,7 +23953,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" s="37">
         <v>41</v>
       </c>
@@ -24006,7 +24009,7 @@
       </c>
       <c r="S42" s="112"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" s="37">
         <v>42</v>
       </c>
@@ -24062,7 +24065,7 @@
       </c>
       <c r="S43" s="112"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" s="37">
         <v>43</v>
       </c>
@@ -24118,7 +24121,7 @@
       </c>
       <c r="S44" s="112"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" s="37">
         <v>44</v>
       </c>
@@ -24174,7 +24177,7 @@
       </c>
       <c r="S45" s="112"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" s="37">
         <v>45</v>
       </c>
@@ -24230,7 +24233,7 @@
       </c>
       <c r="S46" s="112"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" s="37">
         <v>46</v>
       </c>
@@ -24286,7 +24289,7 @@
       </c>
       <c r="S47" s="112"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" s="37">
         <v>47</v>
       </c>
@@ -24342,7 +24345,7 @@
       </c>
       <c r="S48" s="112"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" s="37">
         <v>48</v>
       </c>
@@ -24398,7 +24401,7 @@
       </c>
       <c r="S49" s="112"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" s="37">
         <v>49</v>
       </c>
@@ -24454,7 +24457,7 @@
       </c>
       <c r="S50" s="112"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" s="37">
         <v>50</v>
       </c>
@@ -24510,7 +24513,7 @@
       </c>
       <c r="S51" s="112"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" s="37">
         <v>51</v>
       </c>
@@ -24566,7 +24569,7 @@
       </c>
       <c r="S52" s="112"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" s="37">
         <v>52</v>
       </c>
@@ -24622,7 +24625,7 @@
       </c>
       <c r="S53" s="112"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" s="37">
         <v>53</v>
       </c>
@@ -24678,7 +24681,7 @@
       </c>
       <c r="S54" s="112"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" s="37">
         <v>54</v>
       </c>
@@ -24734,7 +24737,7 @@
       </c>
       <c r="S55" s="112"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" s="37">
         <v>55</v>
       </c>
@@ -24790,7 +24793,7 @@
       </c>
       <c r="S56" s="112"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" s="37">
         <v>56</v>
       </c>
@@ -24846,7 +24849,7 @@
       </c>
       <c r="S57" s="112"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" s="37">
         <v>57</v>
       </c>
@@ -24902,7 +24905,7 @@
       </c>
       <c r="S58" s="112"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" s="37">
         <v>58</v>
       </c>
@@ -24958,7 +24961,7 @@
       </c>
       <c r="S59" s="112"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -25014,7 +25017,7 @@
       </c>
       <c r="S60" s="112"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -25073,7 +25076,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" s="37">
         <v>61</v>
       </c>
@@ -25129,7 +25132,7 @@
       </c>
       <c r="S62" s="112"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" s="37">
         <v>62</v>
       </c>
@@ -25185,7 +25188,7 @@
       </c>
       <c r="S63" s="112"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" s="37">
         <v>63</v>
       </c>
@@ -25243,7 +25246,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -25301,7 +25304,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -25359,7 +25362,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -25415,7 +25418,7 @@
       </c>
       <c r="S67" s="112"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" s="37">
         <v>67</v>
       </c>
@@ -25471,7 +25474,7 @@
       </c>
       <c r="S68" s="112"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19">
       <c r="A69" s="37">
         <v>68</v>
       </c>
@@ -25527,7 +25530,7 @@
       </c>
       <c r="S69" s="112"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19">
       <c r="A70" s="37">
         <v>69</v>
       </c>
@@ -25583,7 +25586,7 @@
       </c>
       <c r="S70" s="112"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" s="37">
         <v>70</v>
       </c>
@@ -25639,7 +25642,7 @@
       </c>
       <c r="S71" s="112"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" s="37">
         <v>71</v>
       </c>
@@ -25695,7 +25698,7 @@
       </c>
       <c r="S72" s="112"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" s="37">
         <v>72</v>
       </c>
@@ -25753,7 +25756,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="17.25" thickBot="1">
       <c r="A74" s="38">
         <v>73</v>
       </c>
@@ -25809,36 +25812,36 @@
       </c>
       <c r="S74" s="59"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" s="2"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="D77" s="139" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="D78"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19">
       <c r="D79" s="139" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="D80" s="139" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4">
       <c r="D81"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4">
       <c r="D82" s="139" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4">
       <c r="D83" s="139" t="s">
         <v>1027</v>
       </c>
@@ -25865,7 +25868,7 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
@@ -25886,7 +25889,7 @@
     <col min="18" max="18" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="49.5">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -25940,7 +25943,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -25992,7 +25995,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -26044,7 +26047,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -26096,7 +26099,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -26148,7 +26151,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -26200,7 +26203,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -26252,7 +26255,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -26304,7 +26307,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -26356,7 +26359,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -26408,7 +26411,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -26460,7 +26463,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -26512,7 +26515,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -26564,7 +26567,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -26616,7 +26619,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -26670,7 +26673,7 @@
       </c>
       <c r="R15" s="112"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -26724,7 +26727,7 @@
       </c>
       <c r="R16" s="112"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -26778,7 +26781,7 @@
       </c>
       <c r="R17" s="112"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -26832,7 +26835,7 @@
       </c>
       <c r="R18" s="112"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -26886,7 +26889,7 @@
       </c>
       <c r="R19" s="112"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -26938,7 +26941,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -26990,7 +26993,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -27042,7 +27045,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -27094,7 +27097,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -27146,7 +27149,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -27198,7 +27201,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -27250,7 +27253,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -27302,7 +27305,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -27354,7 +27357,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="17.25" thickBot="1">
       <c r="A29" s="38">
         <v>28</v>
       </c>
@@ -27406,7 +27409,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -27423,7 +27426,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="D32" t="s">
         <v>805</v>
       </c>
@@ -27449,7 +27452,7 @@
       <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="247" bestFit="1" customWidth="1"/>
@@ -27470,7 +27473,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="36" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="33">
       <c r="A1" s="35" t="s">
         <v>733</v>
       </c>
@@ -27525,7 +27528,7 @@
       </c>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -27581,7 +27584,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="128"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -27637,7 +27640,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="128"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -27693,7 +27696,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="128"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -27749,7 +27752,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="128"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -27805,7 +27808,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="128"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -27861,7 +27864,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="128"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -27917,7 +27920,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="128"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -27973,7 +27976,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="128"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -28029,7 +28032,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="128"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -28085,7 +28088,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="128"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -28139,7 +28142,7 @@
       <c r="T12" s="137"/>
       <c r="U12" s="128"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -28193,7 +28196,7 @@
       <c r="T13" s="137"/>
       <c r="U13" s="128"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -28247,7 +28250,7 @@
       <c r="T14" s="137"/>
       <c r="U14" s="128"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -28301,7 +28304,7 @@
       <c r="T15" s="137"/>
       <c r="U15" s="128"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -28355,7 +28358,7 @@
       <c r="T16" s="137"/>
       <c r="U16" s="128"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -28409,7 +28412,7 @@
       <c r="T17" s="137"/>
       <c r="U17" s="128"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -28463,7 +28466,7 @@
       <c r="T18" s="137"/>
       <c r="U18" s="128"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -28517,7 +28520,7 @@
       <c r="T19" s="137"/>
       <c r="U19" s="128"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -28571,7 +28574,7 @@
       <c r="T20" s="137"/>
       <c r="U20" s="128"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -28625,7 +28628,7 @@
       <c r="T21" s="137"/>
       <c r="U21" s="128"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22" s="37">
         <v>21</v>
       </c>
@@ -28679,7 +28682,7 @@
       <c r="T22" s="137"/>
       <c r="U22" s="128"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -28733,7 +28736,7 @@
       <c r="T23" s="137"/>
       <c r="U23" s="128"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -28787,7 +28790,7 @@
       <c r="T24" s="137"/>
       <c r="U24" s="128"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -28841,7 +28844,7 @@
       <c r="T25" s="137"/>
       <c r="U25" s="128"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -28895,7 +28898,7 @@
       <c r="T26" s="137"/>
       <c r="U26" s="128"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -28949,7 +28952,7 @@
       <c r="T27" s="137"/>
       <c r="U27" s="128"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -29003,7 +29006,7 @@
       <c r="T28" s="137"/>
       <c r="U28" s="128"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -29057,7 +29060,7 @@
       <c r="T29" s="137"/>
       <c r="U29" s="128"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -29111,7 +29114,7 @@
       <c r="T30" s="137"/>
       <c r="U30" s="128"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -29165,7 +29168,7 @@
       <c r="T31" s="137"/>
       <c r="U31" s="128"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -29219,7 +29222,7 @@
       <c r="T32" s="137"/>
       <c r="U32" s="128"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -29273,7 +29276,7 @@
       <c r="T33" s="137"/>
       <c r="U33" s="128"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -29329,7 +29332,7 @@
       <c r="T34" s="137"/>
       <c r="U34" s="128"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -29385,7 +29388,7 @@
       <c r="T35" s="137"/>
       <c r="U35" s="128"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -29441,7 +29444,7 @@
       <c r="T36" s="137"/>
       <c r="U36" s="128"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -29497,7 +29500,7 @@
       <c r="T37" s="137"/>
       <c r="U37" s="128"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -29551,7 +29554,7 @@
       <c r="T38" s="137"/>
       <c r="U38" s="128"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -29605,7 +29608,7 @@
       <c r="T39" s="137"/>
       <c r="U39" s="128"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -29659,7 +29662,7 @@
       <c r="T40" s="137"/>
       <c r="U40" s="128"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21">
       <c r="A41" s="37">
         <v>40</v>
       </c>
@@ -29713,7 +29716,7 @@
       <c r="T41" s="137"/>
       <c r="U41" s="128"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21">
       <c r="A42" s="37">
         <v>41</v>
       </c>
@@ -29767,7 +29770,7 @@
       <c r="T42" s="137"/>
       <c r="U42" s="128"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21">
       <c r="A43" s="37">
         <v>42</v>
       </c>
@@ -29821,7 +29824,7 @@
       <c r="T43" s="137"/>
       <c r="U43" s="128"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21">
       <c r="A44" s="37">
         <v>43</v>
       </c>
@@ -29875,7 +29878,7 @@
       <c r="T44" s="137"/>
       <c r="U44" s="128"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21">
       <c r="A45" s="37">
         <v>44</v>
       </c>
@@ -29929,7 +29932,7 @@
       <c r="T45" s="137"/>
       <c r="U45" s="128"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46" s="37">
         <v>45</v>
       </c>
@@ -29985,7 +29988,7 @@
       <c r="T46" s="137"/>
       <c r="U46" s="128"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21">
       <c r="A47" s="37">
         <v>46</v>
       </c>
@@ -30039,7 +30042,7 @@
       <c r="T47" s="137"/>
       <c r="U47" s="128"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21">
       <c r="A48" s="37">
         <v>47</v>
       </c>
@@ -30095,7 +30098,7 @@
       <c r="T48" s="137"/>
       <c r="U48" s="128"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49" s="37">
         <v>48</v>
       </c>
@@ -30151,7 +30154,7 @@
       <c r="T49" s="137"/>
       <c r="U49" s="128"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50" s="37">
         <v>49</v>
       </c>
@@ -30205,7 +30208,7 @@
       <c r="T50" s="137"/>
       <c r="U50" s="128"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21">
       <c r="A51" s="37">
         <v>50</v>
       </c>
@@ -30261,7 +30264,7 @@
       <c r="T51" s="137"/>
       <c r="U51" s="128"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21">
       <c r="A52" s="37">
         <v>51</v>
       </c>
@@ -30317,7 +30320,7 @@
       <c r="T52" s="137"/>
       <c r="U52" s="128"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21">
       <c r="A53" s="37">
         <v>52</v>
       </c>
@@ -30371,7 +30374,7 @@
       <c r="T53" s="137"/>
       <c r="U53" s="128"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21">
       <c r="A54" s="37">
         <v>53</v>
       </c>
@@ -30425,7 +30428,7 @@
       <c r="T54" s="137"/>
       <c r="U54" s="128"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21">
       <c r="A55" s="37">
         <v>54</v>
       </c>
@@ -30479,7 +30482,7 @@
       <c r="T55" s="137"/>
       <c r="U55" s="128"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56" s="37">
         <v>55</v>
       </c>
@@ -30533,7 +30536,7 @@
       <c r="T56" s="137"/>
       <c r="U56" s="128"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57" s="37">
         <v>56</v>
       </c>
@@ -30587,7 +30590,7 @@
       <c r="T57" s="137"/>
       <c r="U57" s="128"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="A58" s="37">
         <v>57</v>
       </c>
@@ -30641,7 +30644,7 @@
       <c r="T58" s="137"/>
       <c r="U58" s="128"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21">
       <c r="A59" s="37">
         <v>58</v>
       </c>
@@ -30695,7 +30698,7 @@
       <c r="T59" s="137"/>
       <c r="U59" s="128"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -30749,7 +30752,7 @@
       <c r="T60" s="137"/>
       <c r="U60" s="128"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -30803,7 +30806,7 @@
       <c r="T61" s="137"/>
       <c r="U61" s="128"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21">
       <c r="A62" s="37">
         <v>61</v>
       </c>
@@ -30857,7 +30860,7 @@
       <c r="T62" s="137"/>
       <c r="U62" s="128"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63" s="37">
         <v>62</v>
       </c>
@@ -30913,7 +30916,7 @@
       <c r="T63" s="137"/>
       <c r="U63" s="128"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21">
       <c r="A64" s="37">
         <v>63</v>
       </c>
@@ -30969,7 +30972,7 @@
       <c r="T64" s="138"/>
       <c r="U64" s="128"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -31025,7 +31028,7 @@
       <c r="T65" s="138"/>
       <c r="U65" s="128"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -31081,7 +31084,7 @@
       <c r="T66" s="138"/>
       <c r="U66" s="128"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -31137,7 +31140,7 @@
       <c r="T67" s="138"/>
       <c r="U67" s="128"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68" s="37">
         <v>67</v>
       </c>
@@ -31193,7 +31196,7 @@
       <c r="T68" s="138"/>
       <c r="U68" s="128"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69" s="37">
         <v>68</v>
       </c>
@@ -31251,7 +31254,7 @@
       <c r="T69" s="138"/>
       <c r="U69" s="128"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70" s="37">
         <v>69</v>
       </c>
@@ -31307,7 +31310,7 @@
       <c r="T70" s="138"/>
       <c r="U70" s="128"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71" s="37">
         <v>70</v>
       </c>
@@ -31363,7 +31366,7 @@
       <c r="T71" s="138"/>
       <c r="U71" s="128"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72" s="37">
         <v>71</v>
       </c>
@@ -31419,7 +31422,7 @@
       <c r="T72" s="138"/>
       <c r="U72" s="128"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73" s="37">
         <v>72</v>
       </c>
@@ -31475,7 +31478,7 @@
       <c r="T73" s="138"/>
       <c r="U73" s="128"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74" s="37">
         <v>73</v>
       </c>
@@ -31531,7 +31534,7 @@
       <c r="T74" s="138"/>
       <c r="U74" s="128"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75" s="37">
         <v>74</v>
       </c>
@@ -31587,7 +31590,7 @@
       <c r="T75" s="138"/>
       <c r="U75" s="128"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76" s="37">
         <v>75</v>
       </c>
@@ -31643,7 +31646,7 @@
       <c r="T76" s="138"/>
       <c r="U76" s="128"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77" s="37">
         <v>76</v>
       </c>
@@ -31699,7 +31702,7 @@
       <c r="T77" s="138"/>
       <c r="U77" s="128"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78" s="37">
         <v>77</v>
       </c>
@@ -31755,7 +31758,7 @@
       <c r="T78" s="138"/>
       <c r="U78" s="128"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79" s="37">
         <v>78</v>
       </c>
@@ -31811,7 +31814,7 @@
       <c r="T79" s="138"/>
       <c r="U79" s="128"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80" s="37">
         <v>79</v>
       </c>
@@ -31867,7 +31870,7 @@
       <c r="T80" s="138"/>
       <c r="U80" s="128"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81" s="37">
         <v>80</v>
       </c>
@@ -31923,7 +31926,7 @@
       <c r="T81" s="138"/>
       <c r="U81" s="128"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82" s="37">
         <v>81</v>
       </c>
@@ -31979,7 +31982,7 @@
       <c r="T82" s="138"/>
       <c r="U82" s="128"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83" s="37">
         <v>82</v>
       </c>
@@ -32035,7 +32038,7 @@
       <c r="T83" s="138"/>
       <c r="U83" s="128"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84" s="37">
         <v>83</v>
       </c>
@@ -32091,7 +32094,7 @@
       <c r="T84" s="138"/>
       <c r="U84" s="128"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85" s="37">
         <v>84</v>
       </c>
@@ -32147,7 +32150,7 @@
       <c r="T85" s="138"/>
       <c r="U85" s="128"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86" s="37">
         <v>85</v>
       </c>
@@ -32205,7 +32208,7 @@
       <c r="T86" s="138"/>
       <c r="U86" s="128"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87" s="37">
         <v>86</v>
       </c>
@@ -32261,7 +32264,7 @@
       <c r="T87" s="138"/>
       <c r="U87" s="128"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88" s="37">
         <v>87</v>
       </c>
@@ -32317,7 +32320,7 @@
       <c r="T88" s="138"/>
       <c r="U88" s="128"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89" s="37">
         <v>88</v>
       </c>
@@ -32373,7 +32376,7 @@
       <c r="T89" s="138"/>
       <c r="U89" s="128"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90" s="37">
         <v>89</v>
       </c>
@@ -32429,7 +32432,7 @@
       <c r="T90" s="138"/>
       <c r="U90" s="128"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91" s="37">
         <v>90</v>
       </c>
@@ -32485,7 +32488,7 @@
       <c r="T91" s="138"/>
       <c r="U91" s="128"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92" s="37">
         <v>91</v>
       </c>
@@ -32541,7 +32544,7 @@
       <c r="T92" s="138"/>
       <c r="U92" s="128"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93" s="37">
         <v>92</v>
       </c>
@@ -32599,7 +32602,7 @@
       <c r="T93" s="138"/>
       <c r="U93" s="128"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94" s="37">
         <v>93</v>
       </c>
@@ -32655,7 +32658,7 @@
       <c r="T94" s="138"/>
       <c r="U94" s="128"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95" s="37">
         <v>94</v>
       </c>
@@ -32711,7 +32714,7 @@
       <c r="T95" s="138"/>
       <c r="U95" s="128"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96" s="37">
         <v>95</v>
       </c>
@@ -32769,7 +32772,7 @@
       <c r="T96" s="138"/>
       <c r="U96" s="128"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97" s="37">
         <v>96</v>
       </c>
@@ -32825,7 +32828,7 @@
       <c r="T97" s="138"/>
       <c r="U97" s="128"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98" s="37">
         <v>97</v>
       </c>
@@ -32879,7 +32882,7 @@
       <c r="T98" s="138"/>
       <c r="U98" s="128"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99" s="37">
         <v>98</v>
       </c>
@@ -32935,7 +32938,7 @@
       <c r="T99" s="138"/>
       <c r="U99" s="128"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100" s="37">
         <v>99</v>
       </c>
@@ -32991,7 +32994,7 @@
       <c r="T100" s="138"/>
       <c r="U100" s="128"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101" s="37">
         <v>100</v>
       </c>
@@ -33047,7 +33050,7 @@
       <c r="T101" s="138"/>
       <c r="U101" s="128"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102" s="37">
         <v>101</v>
       </c>
@@ -33103,7 +33106,7 @@
       <c r="T102" s="138"/>
       <c r="U102" s="128"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103" s="37">
         <v>102</v>
       </c>
@@ -33159,7 +33162,7 @@
       <c r="T103" s="138"/>
       <c r="U103" s="128"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104" s="37">
         <v>103</v>
       </c>
@@ -33215,7 +33218,7 @@
       <c r="T104" s="138"/>
       <c r="U104" s="128"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105" s="37">
         <v>104</v>
       </c>
@@ -33271,7 +33274,7 @@
       <c r="T105" s="138"/>
       <c r="U105" s="128"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106" s="37">
         <v>105</v>
       </c>
@@ -33327,7 +33330,7 @@
       <c r="T106" s="138"/>
       <c r="U106" s="128"/>
     </row>
-    <row r="107" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="17.25" thickBot="1">
       <c r="A107" s="38">
         <v>106</v>
       </c>
@@ -33383,22 +33386,22 @@
       <c r="T107" s="138"/>
       <c r="U107" s="128"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="D108" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="D110" s="139" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="D111" s="139" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="D112" s="139" t="s">
         <v>814</v>
       </c>
@@ -33421,10 +33424,10 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="2" bestFit="1" customWidth="1"/>
@@ -33445,7 +33448,7 @@
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="36" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="36" customFormat="1" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -33497,7 +33500,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -33523,7 +33526,7 @@
       <c r="H2" s="67">
         <v>1800</v>
       </c>
-      <c r="I2" s="253" t="s">
+      <c r="I2" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J2" s="67">
@@ -33538,7 +33541,7 @@
         <v>50002008</v>
       </c>
       <c r="O2" s="9" t="str">
-        <f t="shared" ref="O2:O36" si="0">CONCATENATE(D2,"[",B2,"/",F2,"]")</f>
+        <f>CONCATENATE(D2,"[",B2,"/",F2,"]")</f>
         <v>포스트 콘푸라이트 300g[0912/1]</v>
       </c>
       <c r="P2" s="8" t="s">
@@ -33549,7 +33552,7 @@
       </c>
       <c r="R2" s="50"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -33557,7 +33560,7 @@
         <v>1060</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f t="shared" ref="C3:C36" si="1">CONCATENATE(B3,".jpg")</f>
+        <f t="shared" ref="C3:C36" si="0">CONCATENATE(B3,".jpg")</f>
         <v>0972.jpg</v>
       </c>
       <c r="D3" s="65" t="s">
@@ -33575,7 +33578,7 @@
       <c r="H3" s="67">
         <v>7700</v>
       </c>
-      <c r="I3" s="253" t="s">
+      <c r="I3" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J3" s="67">
@@ -33590,7 +33593,7 @@
         <v>50002008</v>
       </c>
       <c r="O3" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D3,"[",B3,"/",F3,"]")</f>
         <v>포스트 고소한 아몬드 후레이크1000g[0972/1]</v>
       </c>
       <c r="P3" s="8" t="s">
@@ -33601,7 +33604,7 @@
       </c>
       <c r="R3" s="50"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -33609,7 +33612,7 @@
         <v>1061</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0971.jpg</v>
       </c>
       <c r="D4" s="65" t="s">
@@ -33627,7 +33630,7 @@
       <c r="H4" s="67">
         <v>8500</v>
       </c>
-      <c r="I4" s="253" t="s">
+      <c r="I4" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J4" s="67">
@@ -33642,7 +33645,7 @@
         <v>50002008</v>
       </c>
       <c r="O4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D4,"[",B4,"/",F4,"]")</f>
         <v>포스트 코코볼1000g[0971/1]</v>
       </c>
       <c r="P4" s="8" t="s">
@@ -33653,7 +33656,7 @@
       </c>
       <c r="R4" s="50"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -33661,7 +33664,7 @@
         <v>1062</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0906.jpg</v>
       </c>
       <c r="D5" s="65" t="s">
@@ -33679,7 +33682,7 @@
       <c r="H5" s="67">
         <v>2100</v>
       </c>
-      <c r="I5" s="253" t="s">
+      <c r="I5" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J5" s="67">
@@ -33694,7 +33697,7 @@
         <v>50002008</v>
       </c>
       <c r="O5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D5,"[",B5,"/",F5,"]")</f>
         <v>포스트 고소한 아몬드 후레이크300g[0906/1]</v>
       </c>
       <c r="P5" s="8" t="s">
@@ -33705,7 +33708,7 @@
       </c>
       <c r="R5" s="50"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -33713,7 +33716,7 @@
         <v>1063</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0957.jpg</v>
       </c>
       <c r="D6" s="65" t="s">
@@ -33731,7 +33734,7 @@
       <c r="H6" s="67">
         <v>4800</v>
       </c>
-      <c r="I6" s="253" t="s">
+      <c r="I6" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J6" s="67">
@@ -33746,7 +33749,7 @@
         <v>50002008</v>
       </c>
       <c r="O6" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D6,"[",B6,"/",F6,"]")</f>
         <v>포스트 초코후레이크 600g[0957/1]</v>
       </c>
       <c r="P6" s="8" t="s">
@@ -33757,7 +33760,7 @@
       </c>
       <c r="R6" s="50"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -33765,7 +33768,7 @@
         <v>1064</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0977.jpg</v>
       </c>
       <c r="D7" s="65" t="s">
@@ -33783,7 +33786,7 @@
       <c r="H7" s="67">
         <v>6900</v>
       </c>
-      <c r="I7" s="253" t="s">
+      <c r="I7" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J7" s="67">
@@ -33798,7 +33801,7 @@
         <v>50002008</v>
       </c>
       <c r="O7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D7,"[",B7,"/",F7,"]")</f>
         <v>포스트 골든 그래놀라 후루츠 360g[0977/1]</v>
       </c>
       <c r="P7" s="8" t="s">
@@ -33809,7 +33812,7 @@
       </c>
       <c r="R7" s="50"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -33817,7 +33820,7 @@
         <v>1065</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0953.jpg</v>
       </c>
       <c r="D8" s="65" t="s">
@@ -33835,7 +33838,7 @@
       <c r="H8" s="67">
         <v>5700</v>
       </c>
-      <c r="I8" s="253" t="s">
+      <c r="I8" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J8" s="67">
@@ -33850,7 +33853,7 @@
         <v>50002008</v>
       </c>
       <c r="O8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D8,"[",B8,"/",F8,"]")</f>
         <v>포스트 맛있는 단호박 450g[0953/1]</v>
       </c>
       <c r="P8" s="8" t="s">
@@ -33861,7 +33864,7 @@
       </c>
       <c r="R8" s="50"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -33869,7 +33872,7 @@
         <v>1066</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0908.jpg</v>
       </c>
       <c r="D9" s="65" t="s">
@@ -33887,7 +33890,7 @@
       <c r="H9" s="66">
         <v>2500</v>
       </c>
-      <c r="I9" s="253" t="s">
+      <c r="I9" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J9" s="66">
@@ -33902,7 +33905,7 @@
         <v>50002008</v>
       </c>
       <c r="O9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D9,"[",B9,"/",F9,"]")</f>
         <v>포스트 코코볼 300g[0908/1]</v>
       </c>
       <c r="P9" s="8" t="s">
@@ -33913,7 +33916,7 @@
       </c>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -33921,7 +33924,7 @@
         <v>1067</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0962.jpg</v>
       </c>
       <c r="D10" s="65" t="s">
@@ -33939,7 +33942,7 @@
       <c r="H10" s="66">
         <v>3700</v>
       </c>
-      <c r="I10" s="253" t="s">
+      <c r="I10" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J10" s="66">
@@ -33954,7 +33957,7 @@
         <v>50002008</v>
       </c>
       <c r="O10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D10,"[",B10,"/",F10,"]")</f>
         <v>포스트 콘푸라이트 600g[0962/1]</v>
       </c>
       <c r="P10" s="8" t="s">
@@ -33965,7 +33968,7 @@
       </c>
       <c r="R10" s="50"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -33973,7 +33976,7 @@
         <v>1068</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0968.jpg</v>
       </c>
       <c r="D11" s="65" t="s">
@@ -33991,7 +33994,7 @@
       <c r="H11" s="66">
         <v>6800</v>
       </c>
-      <c r="I11" s="253" t="s">
+      <c r="I11" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J11" s="66">
@@ -34006,7 +34009,7 @@
         <v>50002008</v>
       </c>
       <c r="O11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D11,"[",B11,"/",F11,"]")</f>
         <v>포스트 허니오즈 480g[0968/1]</v>
       </c>
       <c r="P11" s="8" t="s">
@@ -34017,7 +34020,7 @@
       </c>
       <c r="R11" s="50"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -34025,7 +34028,7 @@
         <v>1069</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0963.jpg</v>
       </c>
       <c r="D12" s="65" t="s">
@@ -34043,7 +34046,7 @@
       <c r="H12" s="66">
         <v>5000</v>
       </c>
-      <c r="I12" s="253" t="s">
+      <c r="I12" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J12" s="66">
@@ -34058,7 +34061,7 @@
         <v>50002008</v>
       </c>
       <c r="O12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D12,"[",B12,"/",F12,"]")</f>
         <v>포스트 콘푸라이트 1/3라이트 슈거 530g[0963/1]</v>
       </c>
       <c r="P12" s="8" t="s">
@@ -34069,7 +34072,7 @@
       </c>
       <c r="R12" s="50"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -34077,7 +34080,7 @@
         <v>1070</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0951.jpg</v>
       </c>
       <c r="D13" s="65" t="s">
@@ -34095,7 +34098,7 @@
       <c r="H13" s="66">
         <v>5200</v>
       </c>
-      <c r="I13" s="253" t="s">
+      <c r="I13" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J13" s="66">
@@ -34110,7 +34113,7 @@
         <v>50002008</v>
       </c>
       <c r="O13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D13,"[",B13,"/",F13,"]")</f>
         <v>포스트 건강한칠곡 450g[0951/1]</v>
       </c>
       <c r="P13" s="8" t="s">
@@ -34121,7 +34124,7 @@
       </c>
       <c r="R13" s="50"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -34129,7 +34132,7 @@
         <v>1071</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0969.jpg</v>
       </c>
       <c r="D14" s="65" t="s">
@@ -34147,7 +34150,7 @@
       <c r="H14" s="66">
         <v>6100</v>
       </c>
-      <c r="I14" s="253" t="s">
+      <c r="I14" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J14" s="66">
@@ -34162,7 +34165,7 @@
         <v>50002008</v>
       </c>
       <c r="O14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D14,"[",B14,"/",F14,"]")</f>
         <v>포스트 그래놀라 카카오호두 510g[0969/1]</v>
       </c>
       <c r="P14" s="8" t="s">
@@ -34173,7 +34176,7 @@
       </c>
       <c r="R14" s="50"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -34181,7 +34184,7 @@
         <v>1072</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0954.jpg</v>
       </c>
       <c r="D15" s="65" t="s">
@@ -34199,7 +34202,7 @@
       <c r="H15" s="66">
         <v>7200</v>
       </c>
-      <c r="I15" s="253" t="s">
+      <c r="I15" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J15" s="66">
@@ -34214,7 +34217,7 @@
         <v>50002008</v>
       </c>
       <c r="O15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D15,"[",B15,"/",F15,"]")</f>
         <v>포스트 그래놀라 블루베리 500g[0954/1]</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -34225,7 +34228,7 @@
       </c>
       <c r="R15" s="50"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -34233,7 +34236,7 @@
         <v>1073</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0955.jpg</v>
       </c>
       <c r="D16" s="65" t="s">
@@ -34251,7 +34254,7 @@
       <c r="H16" s="66">
         <v>6700</v>
       </c>
-      <c r="I16" s="253" t="s">
+      <c r="I16" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J16" s="66">
@@ -34266,7 +34269,7 @@
         <v>50002008</v>
       </c>
       <c r="O16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D16,"[",B16,"/",F16,"]")</f>
         <v>포스트 그래놀라 크랜베리 570g[0955/1]</v>
       </c>
       <c r="P16" s="8" t="s">
@@ -34277,7 +34280,7 @@
       </c>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -34285,7 +34288,7 @@
         <v>1074</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0959.jpg</v>
       </c>
       <c r="D17" s="65" t="s">
@@ -34303,7 +34306,7 @@
       <c r="H17" s="66">
         <v>5900</v>
       </c>
-      <c r="I17" s="253" t="s">
+      <c r="I17" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J17" s="66">
@@ -34318,7 +34321,7 @@
         <v>50002008</v>
       </c>
       <c r="O17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D17,"[",B17,"/",F17,"]")</f>
         <v>포스트 코코볼 우주탐험대 500g[0959/1]</v>
       </c>
       <c r="P17" s="8" t="s">
@@ -34329,7 +34332,7 @@
       </c>
       <c r="R17" s="50"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -34337,7 +34340,7 @@
         <v>1075</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0961.jpg</v>
       </c>
       <c r="D18" s="65" t="s">
@@ -34355,7 +34358,7 @@
       <c r="H18" s="66">
         <v>6000</v>
       </c>
-      <c r="I18" s="253" t="s">
+      <c r="I18" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J18" s="66">
@@ -34370,7 +34373,7 @@
         <v>50002008</v>
       </c>
       <c r="O18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D18,"[",B18,"/",F18,"]")</f>
         <v>포스트 코코볼 정글탐험대 550g[0961/1]</v>
       </c>
       <c r="P18" s="8" t="s">
@@ -34381,7 +34384,7 @@
       </c>
       <c r="R18" s="50"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -34389,7 +34392,7 @@
         <v>1076</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0974.jpg</v>
       </c>
       <c r="D19" s="65" t="s">
@@ -34407,7 +34410,7 @@
       <c r="H19" s="66">
         <v>5500</v>
       </c>
-      <c r="I19" s="253" t="s">
+      <c r="I19" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J19" s="66">
@@ -34422,7 +34425,7 @@
         <v>50002008</v>
       </c>
       <c r="O19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D19,"[",B19,"/",F19,"]")</f>
         <v>포스트 고소한현미 450g[0974/1]</v>
       </c>
       <c r="P19" s="8" t="s">
@@ -34433,7 +34436,7 @@
       </c>
       <c r="R19" s="50"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -34441,7 +34444,7 @@
         <v>1077</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0964.jpg</v>
       </c>
       <c r="D20" s="65" t="s">
@@ -34459,7 +34462,7 @@
       <c r="H20" s="66">
         <v>3900</v>
       </c>
-      <c r="I20" s="253" t="s">
+      <c r="I20" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J20" s="66">
@@ -34474,7 +34477,7 @@
         <v>50002008</v>
       </c>
       <c r="O20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D20,"[",B20,"/",F20,"]")</f>
         <v>포스트 콘후레이크 500g[0964/1]</v>
       </c>
       <c r="P20" s="8" t="s">
@@ -34485,7 +34488,7 @@
       </c>
       <c r="R20" s="50"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -34493,7 +34496,7 @@
         <v>1078</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0970.jpg</v>
       </c>
       <c r="D21" s="65" t="s">
@@ -34511,7 +34514,7 @@
       <c r="H21" s="67">
         <v>6300</v>
       </c>
-      <c r="I21" s="253" t="s">
+      <c r="I21" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J21" s="67">
@@ -34526,7 +34529,7 @@
         <v>50002008</v>
       </c>
       <c r="O21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D21,"[",B21,"/",F21,"]")</f>
         <v>포스트 콘푸라이트 1100g[0970/1]</v>
       </c>
       <c r="P21" s="8" t="s">
@@ -34537,15 +34540,15 @@
       </c>
       <c r="R21" s="50"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="37">
         <v>21</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C22" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5120.jpg</v>
       </c>
       <c r="D22" s="65" t="s">
@@ -34563,7 +34566,7 @@
       <c r="H22" s="66">
         <v>4500</v>
       </c>
-      <c r="I22" s="253" t="s">
+      <c r="I22" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J22" s="66">
@@ -34578,7 +34581,7 @@
         <v>50002008</v>
       </c>
       <c r="O22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D22,"[",B22,"/",F22,"]")</f>
         <v>켈로그 후르트링 320g[5120/1]</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -34589,7 +34592,7 @@
       </c>
       <c r="R22" s="50"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="37">
         <v>22</v>
       </c>
@@ -34597,7 +34600,7 @@
         <v>322</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5179.jpg</v>
       </c>
       <c r="D23" s="65" t="s">
@@ -34615,7 +34618,7 @@
       <c r="H23" s="66">
         <v>5500</v>
       </c>
-      <c r="I23" s="253" t="s">
+      <c r="I23" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J23" s="66">
@@ -34630,7 +34633,7 @@
         <v>50002008</v>
       </c>
       <c r="O23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D23,"[",B23,"/",F23,"]")</f>
         <v>켈로그 통곡물 현미 330g[5179/1]</v>
       </c>
       <c r="P23" s="8" t="s">
@@ -34641,7 +34644,7 @@
       </c>
       <c r="R23" s="50"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -34649,7 +34652,7 @@
         <v>324</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5268.jpg</v>
       </c>
       <c r="D24" s="65" t="s">
@@ -34667,7 +34670,7 @@
       <c r="H24" s="66">
         <v>2900</v>
       </c>
-      <c r="I24" s="253" t="s">
+      <c r="I24" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J24" s="66">
@@ -34682,7 +34685,7 @@
         <v>50002008</v>
       </c>
       <c r="O24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D24,"[",B24,"/",F24,"]")</f>
         <v>켈로그 콘푸로스트 330g[5268/1]</v>
       </c>
       <c r="P24" s="8" t="s">
@@ -34693,15 +34696,15 @@
       </c>
       <c r="R24" s="50"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" s="37">
         <v>24</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C25" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5145.jpg</v>
       </c>
       <c r="D25" s="65" t="s">
@@ -34719,7 +34722,7 @@
       <c r="H25" s="66">
         <v>6400</v>
       </c>
-      <c r="I25" s="253" t="s">
+      <c r="I25" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J25" s="66">
@@ -34734,7 +34737,7 @@
         <v>50002008</v>
       </c>
       <c r="O25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D25,"[",B25,"/",F25,"]")</f>
         <v>켈로그 콘푸로스트 600g[5145/1]</v>
       </c>
       <c r="P25" s="8" t="s">
@@ -34745,15 +34748,15 @@
       </c>
       <c r="R25" s="50"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" s="37">
         <v>25</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C26" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5161.jpg</v>
       </c>
       <c r="D26" s="65" t="s">
@@ -34771,7 +34774,7 @@
       <c r="H26" s="66">
         <v>4900</v>
       </c>
-      <c r="I26" s="253" t="s">
+      <c r="I26" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J26" s="66">
@@ -34786,7 +34789,7 @@
         <v>50002008</v>
       </c>
       <c r="O26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D26,"[",B26,"/",F26,"]")</f>
         <v>켈로그 콘푸로스트 라이트슈거 360g[5161/1]</v>
       </c>
       <c r="P26" s="8" t="s">
@@ -34797,15 +34800,15 @@
       </c>
       <c r="R26" s="50"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" s="37">
         <v>26</v>
       </c>
       <c r="B27" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C27" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5190.jpg</v>
       </c>
       <c r="D27" s="65" t="s">
@@ -34823,7 +34826,7 @@
       <c r="H27" s="66">
         <v>3500</v>
       </c>
-      <c r="I27" s="253" t="s">
+      <c r="I27" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J27" s="66">
@@ -34838,7 +34841,7 @@
         <v>50002008</v>
       </c>
       <c r="O27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D27,"[",B27,"/",F27,"]")</f>
         <v>켈로그 오곡 첵스초코 340g[5190/1]</v>
       </c>
       <c r="P27" s="8" t="s">
@@ -34849,7 +34852,7 @@
       </c>
       <c r="R27" s="50"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -34857,7 +34860,7 @@
         <v>331</v>
       </c>
       <c r="C28" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5156.jpg</v>
       </c>
       <c r="D28" s="65" t="s">
@@ -34875,7 +34878,7 @@
       <c r="H28" s="66">
         <v>3500</v>
       </c>
-      <c r="I28" s="253" t="s">
+      <c r="I28" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J28" s="66">
@@ -34890,7 +34893,7 @@
         <v>50002008</v>
       </c>
       <c r="O28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D28,"[",B28,"/",F28,"]")</f>
         <v>켈로그 아몬드 푸레이크 320g[5156/1]</v>
       </c>
       <c r="P28" s="8" t="s">
@@ -34901,7 +34904,7 @@
       </c>
       <c r="R28" s="50"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -34909,7 +34912,7 @@
         <v>2510</v>
       </c>
       <c r="C29" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2510.jpg</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -34927,7 +34930,7 @@
       <c r="H29" s="68">
         <v>7900</v>
       </c>
-      <c r="I29" s="253" t="s">
+      <c r="I29" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J29" s="66">
@@ -34942,7 +34945,7 @@
         <v>50002008</v>
       </c>
       <c r="O29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D29,"[",B29,"/",F29,"]")</f>
         <v>아몬드푸레이크(클럽팩)630g[2510/1]</v>
       </c>
       <c r="P29" s="8" t="s">
@@ -34953,7 +34956,7 @@
       </c>
       <c r="R29" s="113"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -34961,7 +34964,7 @@
         <v>2511</v>
       </c>
       <c r="C30" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2511.jpg</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -34979,7 +34982,7 @@
       <c r="H30" s="68">
         <v>6800</v>
       </c>
-      <c r="I30" s="253" t="s">
+      <c r="I30" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J30" s="66">
@@ -34994,7 +34997,7 @@
         <v>50002008</v>
       </c>
       <c r="O30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D30,"[",B30,"/",F30,"]")</f>
         <v>오곡으로만든첵스초코(클럽팩)570g[2511/1]</v>
       </c>
       <c r="P30" s="8" t="s">
@@ -35005,15 +35008,15 @@
       </c>
       <c r="R30" s="113"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31" s="37">
         <v>30</v>
       </c>
       <c r="B31" s="64">
         <v>5251</v>
       </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C31" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5251.jpg</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -35031,7 +35034,7 @@
       <c r="H31" s="68">
         <v>4500</v>
       </c>
-      <c r="I31" s="253" t="s">
+      <c r="I31" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J31" s="66">
@@ -35046,7 +35049,7 @@
         <v>50002008</v>
       </c>
       <c r="O31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D31,"[",B31,"/",F31,"]")</f>
         <v>초코첵스스노우볼라지팩230g[5251/1]</v>
       </c>
       <c r="P31" s="8" t="s">
@@ -35057,15 +35060,15 @@
       </c>
       <c r="R31" s="113"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32" s="37">
         <v>31</v>
       </c>
       <c r="B32" s="64">
         <v>5153</v>
       </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C32" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5153.jpg</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -35083,7 +35086,7 @@
       <c r="H32" s="68">
         <v>5300</v>
       </c>
-      <c r="I32" s="253" t="s">
+      <c r="I32" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J32" s="66">
@@ -35098,7 +35101,7 @@
         <v>50002008</v>
       </c>
       <c r="O32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D32,"[",B32,"/",F32,"]")</f>
         <v>코코팝스(대)460g[5153/1]</v>
       </c>
       <c r="P32" s="8" t="s">
@@ -35109,15 +35112,15 @@
       </c>
       <c r="R32" s="113"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33" s="37">
         <v>32</v>
       </c>
       <c r="B33" s="64">
         <v>5189</v>
       </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C33" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5189.jpg</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -35135,7 +35138,7 @@
       <c r="H33" s="68">
         <v>5200</v>
       </c>
-      <c r="I33" s="253" t="s">
+      <c r="I33" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J33" s="66">
@@ -35150,7 +35153,7 @@
         <v>50002008</v>
       </c>
       <c r="O33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D33,"[",B33,"/",F33,"]")</f>
         <v>곡물이야기오곡(대)330g[5189/1]</v>
       </c>
       <c r="P33" s="8" t="s">
@@ -35161,15 +35164,15 @@
       </c>
       <c r="R33" s="113"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34" s="37">
         <v>33</v>
       </c>
       <c r="B34" s="64">
         <v>5200</v>
       </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C34" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5200.jpg</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -35187,7 +35190,7 @@
       <c r="H34" s="68">
         <v>4000</v>
       </c>
-      <c r="I34" s="253" t="s">
+      <c r="I34" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J34" s="66">
@@ -35202,7 +35205,7 @@
         <v>50002008</v>
       </c>
       <c r="O34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D34,"[",B34,"/",F34,"]")</f>
         <v>스페셜K(대)270g[5200/1]</v>
       </c>
       <c r="P34" s="8" t="s">
@@ -35213,15 +35216,15 @@
       </c>
       <c r="R34" s="113"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35" s="37">
         <v>34</v>
       </c>
       <c r="B35" s="64">
         <v>5123</v>
       </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="1"/>
+      <c r="C35" s="253" t="str">
+        <f t="shared" si="0"/>
         <v>5123.jpg</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -35239,7 +35242,7 @@
       <c r="H35" s="68">
         <v>6900</v>
       </c>
-      <c r="I35" s="253" t="s">
+      <c r="I35" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J35" s="66">
@@ -35254,7 +35257,7 @@
         <v>50002008</v>
       </c>
       <c r="O35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D35,"[",B35,"/",F35,"]")</f>
         <v>스페셜K(클럽팩)480g[5123/1]</v>
       </c>
       <c r="P35" s="8" t="s">
@@ -35265,7 +35268,7 @@
       </c>
       <c r="R35" s="113"/>
     </row>
-    <row r="36" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="17.25" thickBot="1">
       <c r="A36" s="38">
         <v>35</v>
       </c>
@@ -35273,7 +35276,7 @@
         <v>2512</v>
       </c>
       <c r="C36" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2512.jpg</v>
       </c>
       <c r="D36" s="69" t="s">
@@ -35291,7 +35294,7 @@
       <c r="H36" s="71">
         <v>4700</v>
       </c>
-      <c r="I36" s="253" t="s">
+      <c r="I36" s="252" t="s">
         <v>1164</v>
       </c>
       <c r="J36" s="70">
@@ -35306,7 +35309,7 @@
         <v>50002008</v>
       </c>
       <c r="O36" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D36,"[",B36,"/",F36,"]")</f>
         <v>첵스초코 쿠키앤크림 라지팩340g[2512/1]</v>
       </c>
       <c r="P36" s="18" t="s">
@@ -35317,7 +35320,7 @@
       </c>
       <c r="R36" s="114"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="D38" s="139" t="s">
         <v>818</v>
       </c>
@@ -35339,11 +35342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47:I51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.375" style="72" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.25" style="72" bestFit="1" customWidth="1"/>
@@ -35362,7 +35365,7 @@
     <col min="16" max="16384" width="9" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="36" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="36" customFormat="1" ht="33">
       <c r="A1" s="49" t="s">
         <v>733</v>
       </c>
@@ -35416,7 +35419,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -35473,7 +35476,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="17.25" thickBot="1">
       <c r="A3" s="151">
         <v>2</v>
       </c>
@@ -35527,7 +35530,7 @@
       </c>
       <c r="R3" s="207"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="49">
         <v>3</v>
       </c>
@@ -35582,7 +35585,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -35634,7 +35637,7 @@
       </c>
       <c r="R5" s="79"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -35686,7 +35689,7 @@
       </c>
       <c r="R6" s="79"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -35738,7 +35741,7 @@
       </c>
       <c r="R7" s="79"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -35790,7 +35793,7 @@
       </c>
       <c r="R8" s="79"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -35842,7 +35845,7 @@
       </c>
       <c r="R9" s="79"/>
     </row>
-    <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="17.25" thickBot="1">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -35894,7 +35897,7 @@
       </c>
       <c r="R10" s="92"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="160">
         <v>10</v>
       </c>
@@ -35949,7 +35952,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -36001,7 +36004,7 @@
       </c>
       <c r="R12" s="79"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -36053,7 +36056,7 @@
       </c>
       <c r="R13" s="79"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -36105,7 +36108,7 @@
       </c>
       <c r="R14" s="79"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -36160,7 +36163,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -36212,7 +36215,7 @@
       </c>
       <c r="R16" s="79"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -36264,7 +36267,7 @@
       </c>
       <c r="R17" s="79"/>
     </row>
-    <row r="18" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="17.25" thickBot="1">
       <c r="A18" s="151">
         <v>17</v>
       </c>
@@ -36316,7 +36319,7 @@
       </c>
       <c r="R18" s="207"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="49">
         <v>18</v>
       </c>
@@ -36373,7 +36376,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -36427,7 +36430,7 @@
       </c>
       <c r="R20" s="79"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -36481,7 +36484,7 @@
       </c>
       <c r="R21" s="79"/>
     </row>
-    <row r="22" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="17.25" thickBot="1">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -36535,7 +36538,7 @@
       </c>
       <c r="R22" s="92"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="160">
         <v>22</v>
       </c>
@@ -36588,7 +36591,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="37">
         <v>23</v>
       </c>
@@ -36637,7 +36640,7 @@
       <c r="R24" s="79"/>
       <c r="S24" s="139"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="37">
         <v>24</v>
       </c>
@@ -36685,7 +36688,7 @@
       </c>
       <c r="R25" s="79"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="37">
         <v>25</v>
       </c>
@@ -36733,7 +36736,7 @@
       </c>
       <c r="R26" s="79"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="37">
         <v>26</v>
       </c>
@@ -36783,7 +36786,7 @@
       </c>
       <c r="R27" s="79"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="37">
         <v>27</v>
       </c>
@@ -36833,7 +36836,7 @@
       </c>
       <c r="R28" s="79"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="37">
         <v>28</v>
       </c>
@@ -36885,7 +36888,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="37">
         <v>29</v>
       </c>
@@ -36938,7 +36941,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="37">
         <v>30</v>
       </c>
@@ -36988,7 +36991,7 @@
       </c>
       <c r="R31" s="79"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="37">
         <v>31</v>
       </c>
@@ -37036,7 +37039,7 @@
       </c>
       <c r="R32" s="79"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" s="37">
         <v>32</v>
       </c>
@@ -37084,7 +37087,7 @@
       </c>
       <c r="R33" s="79"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34" s="37">
         <v>33</v>
       </c>
@@ -37133,7 +37136,7 @@
       <c r="R34" s="79"/>
       <c r="T34" s="128"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35" s="37">
         <v>34</v>
       </c>
@@ -37182,7 +37185,7 @@
       <c r="R35" s="79"/>
       <c r="T35" s="128"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36" s="37">
         <v>35</v>
       </c>
@@ -37231,7 +37234,7 @@
       <c r="R36" s="79"/>
       <c r="T36" s="128"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37" s="37">
         <v>36</v>
       </c>
@@ -37280,7 +37283,7 @@
       <c r="R37" s="79"/>
       <c r="T37" s="128"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" s="37">
         <v>37</v>
       </c>
@@ -37329,7 +37332,7 @@
       <c r="R38" s="79"/>
       <c r="T38" s="128"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39" s="37">
         <v>38</v>
       </c>
@@ -37378,7 +37381,7 @@
       <c r="R39" s="79"/>
       <c r="T39" s="128"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" s="37">
         <v>39</v>
       </c>
@@ -37427,7 +37430,7 @@
       <c r="R40" s="79"/>
       <c r="T40" s="128"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41" s="37">
         <v>40</v>
       </c>
@@ -37476,7 +37479,7 @@
       <c r="R41" s="79"/>
       <c r="T41" s="128"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" s="37">
         <v>41</v>
       </c>
@@ -37525,7 +37528,7 @@
       <c r="R42" s="79"/>
       <c r="T42" s="128"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" s="37">
         <v>42</v>
       </c>
@@ -37574,7 +37577,7 @@
       <c r="R43" s="79"/>
       <c r="T43" s="128"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" s="37">
         <v>43</v>
       </c>
@@ -37623,7 +37626,7 @@
       <c r="R44" s="79"/>
       <c r="T44" s="128"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45" s="37">
         <v>44</v>
       </c>
@@ -37672,7 +37675,7 @@
       <c r="R45" s="79"/>
       <c r="T45" s="128"/>
     </row>
-    <row r="46" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" ht="17.25" thickBot="1">
       <c r="A46" s="37">
         <v>45</v>
       </c>
@@ -37721,7 +37724,7 @@
       <c r="R46" s="207"/>
       <c r="T46" s="128"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" s="37">
         <v>46</v>
       </c>
@@ -37775,7 +37778,7 @@
       </c>
       <c r="T47" s="128"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="37">
         <v>47</v>
       </c>
@@ -37826,7 +37829,7 @@
       <c r="R48" s="79"/>
       <c r="T48" s="128"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49" s="37">
         <v>48</v>
       </c>
@@ -37876,7 +37879,7 @@
       </c>
       <c r="R49" s="79"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50" s="37">
         <v>49</v>
       </c>
@@ -37926,7 +37929,7 @@
       </c>
       <c r="R50" s="79"/>
     </row>
-    <row r="51" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="17.25" thickBot="1">
       <c r="A51" s="38">
         <v>50</v>
       </c>

--- a/제품_20170414/전체상품_Update.xlsx
+++ b/제품_20170414/전체상품_Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="360" windowWidth="24165" windowHeight="11535" tabRatio="732" activeTab="4"/>
+    <workbookView xWindow="10950" yWindow="360" windowWidth="24165" windowHeight="11535" tabRatio="732" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5253" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5226" uniqueCount="1374">
   <si>
     <t>110*5*8</t>
   </si>
@@ -4940,51 +4940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5897_상세.jpg</t>
-  </si>
-  <si>
-    <t>5923_상세.jpg</t>
-  </si>
-  <si>
-    <t>5926_상세.jpg</t>
-  </si>
-  <si>
-    <t>5970_상세.jpg</t>
-  </si>
-  <si>
-    <t>6007_상세.jpg</t>
-  </si>
-  <si>
-    <t>6011_상세.jpg</t>
-  </si>
-  <si>
-    <t>6013_상세.jpg</t>
-  </si>
-  <si>
-    <t>6014_상세.jpg</t>
-  </si>
-  <si>
-    <t>6023_상세.jpg</t>
-  </si>
-  <si>
-    <t>6025_상세.jpg</t>
-  </si>
-  <si>
-    <t>6028_상세.jpg</t>
-  </si>
-  <si>
-    <t>6034_상세.jpg</t>
-  </si>
-  <si>
-    <t>6035_상세.jpg</t>
-  </si>
-  <si>
-    <t>6038_상세.jpg</t>
-  </si>
-  <si>
-    <t>6042_상세.jpg</t>
-  </si>
-  <si>
     <t>7893_상세.jpg</t>
   </si>
   <si>
@@ -5022,21 +4977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5925_상세.jpg</t>
-  </si>
-  <si>
-    <t>6008_상세.jpg</t>
-  </si>
-  <si>
-    <t>6021_상세.jpg</t>
-  </si>
-  <si>
-    <t>6036_상세.jpg</t>
-  </si>
-  <si>
-    <t>6040_상세.jpg</t>
-  </si>
-  <si>
     <t>7894_상세.jpg</t>
   </si>
   <si>
@@ -5073,15 +5013,6 @@
     <t>7934_상세.jpg</t>
   </si>
   <si>
-    <t>5924_상세.jpg</t>
-  </si>
-  <si>
-    <t>6009_상세.jpg</t>
-  </si>
-  <si>
-    <t>6017_상세.jpg</t>
-  </si>
-  <si>
     <t>471_상세.jpg</t>
   </si>
   <si>
@@ -5156,18 +5087,6 @@
     <t>9159_상세.jpg</t>
   </si>
   <si>
-    <t>6001_상세.jpg</t>
-  </si>
-  <si>
-    <t>6029_상세.jpg</t>
-  </si>
-  <si>
-    <t>6030_상세.jpg</t>
-  </si>
-  <si>
-    <t>6041_상세.jpg</t>
-  </si>
-  <si>
     <t>5793_상세.jpg</t>
   </si>
   <si>
@@ -5605,6 +5524,18 @@
   <si>
     <t>상품명:옛날 구수한 누룽지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼양식품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼양식품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼양식품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6432,7 +6363,7 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="545">
+  <cellXfs count="547">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7945,6 +7876,90 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7971,84 +7986,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12147,10 +12084,10 @@
       <c r="E24" s="494"/>
       <c r="F24" s="494"/>
       <c r="G24" s="494" t="s">
-        <v>1353</v>
+        <v>1326</v>
       </c>
       <c r="H24" s="494" t="s">
-        <v>1354</v>
+        <v>1327</v>
       </c>
       <c r="I24" s="494">
         <v>1</v>
@@ -12162,7 +12099,7 @@
         <v>7900</v>
       </c>
       <c r="L24" s="496" t="s">
-        <v>1355</v>
+        <v>1328</v>
       </c>
       <c r="M24" s="495">
         <v>2500</v>
@@ -12170,7 +12107,7 @@
       <c r="N24" s="494"/>
       <c r="O24" s="494"/>
       <c r="P24" s="494" t="s">
-        <v>1359</v>
+        <v>1332</v>
       </c>
       <c r="Q24" s="494">
         <v>50004838</v>
@@ -12180,15 +12117,15 @@
         <v>자판기용 종이컵(1000개)[8209/1]</v>
       </c>
       <c r="S24" s="494" t="s">
-        <v>1356</v>
+        <v>1329</v>
       </c>
       <c r="T24" s="494" t="s">
-        <v>1356</v>
+        <v>1329</v>
       </c>
       <c r="U24" s="494"/>
       <c r="V24" s="494"/>
       <c r="W24" s="497" t="s">
-        <v>1357</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -12280,7 +12217,7 @@
   </sheetPr>
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -12438,7 +12375,7 @@
       <c r="U2" s="243"/>
       <c r="V2" s="243"/>
       <c r="W2" s="499" t="s">
-        <v>1360</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -12503,7 +12440,7 @@
       <c r="U3" s="243"/>
       <c r="V3" s="242"/>
       <c r="W3" s="499" t="s">
-        <v>1360</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -12568,7 +12505,7 @@
       <c r="U4" s="243"/>
       <c r="V4" s="242"/>
       <c r="W4" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -12633,7 +12570,7 @@
       <c r="U5" s="243"/>
       <c r="V5" s="242"/>
       <c r="W5" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -12698,7 +12635,7 @@
       <c r="U6" s="243"/>
       <c r="V6" s="242"/>
       <c r="W6" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -12763,7 +12700,7 @@
       <c r="U7" s="243"/>
       <c r="V7" s="242"/>
       <c r="W7" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -12828,7 +12765,7 @@
       <c r="U8" s="243"/>
       <c r="V8" s="242"/>
       <c r="W8" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -12893,7 +12830,7 @@
       <c r="U9" s="243"/>
       <c r="V9" s="242"/>
       <c r="W9" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -12958,7 +12895,7 @@
       <c r="U10" s="243"/>
       <c r="V10" s="242"/>
       <c r="W10" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -13023,7 +12960,7 @@
       <c r="U11" s="243"/>
       <c r="V11" s="242"/>
       <c r="W11" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -13088,7 +13025,7 @@
       <c r="U12" s="243"/>
       <c r="V12" s="242"/>
       <c r="W12" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -13153,7 +13090,7 @@
       <c r="U13" s="243"/>
       <c r="V13" s="242"/>
       <c r="W13" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -13730,7 +13667,7 @@
       <c r="U22" s="243"/>
       <c r="V22" s="242"/>
       <c r="W22" s="499" t="s">
-        <v>1360</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -13795,7 +13732,7 @@
       <c r="U23" s="243"/>
       <c r="V23" s="242"/>
       <c r="W23" s="499" t="s">
-        <v>1360</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -13860,7 +13797,7 @@
       <c r="U24" s="243"/>
       <c r="V24" s="242"/>
       <c r="W24" s="499" t="s">
-        <v>1362</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -13925,7 +13862,7 @@
       <c r="U25" s="243"/>
       <c r="V25" s="242"/>
       <c r="W25" s="499" t="s">
-        <v>1362</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -13990,7 +13927,7 @@
       <c r="U26" s="243"/>
       <c r="V26" s="244"/>
       <c r="W26" s="499" t="s">
-        <v>1363</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -14057,7 +13994,7 @@
         <v>1146</v>
       </c>
       <c r="W27" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -14124,7 +14061,7 @@
         <v>1147</v>
       </c>
       <c r="W28" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -14189,7 +14126,7 @@
       <c r="U29" s="243"/>
       <c r="V29" s="323"/>
       <c r="W29" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -14254,7 +14191,7 @@
       <c r="U30" s="243"/>
       <c r="V30" s="323"/>
       <c r="W30" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -14319,7 +14256,7 @@
       <c r="U31" s="243"/>
       <c r="V31" s="242"/>
       <c r="W31" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -14384,7 +14321,7 @@
       <c r="U32" s="243"/>
       <c r="V32" s="242"/>
       <c r="W32" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -14449,7 +14386,7 @@
       <c r="U33" s="243"/>
       <c r="V33" s="242"/>
       <c r="W33" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -14514,7 +14451,7 @@
       <c r="U34" s="243"/>
       <c r="V34" s="242"/>
       <c r="W34" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -14579,7 +14516,7 @@
       <c r="U35" s="243"/>
       <c r="V35" s="242"/>
       <c r="W35" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -14644,7 +14581,7 @@
       <c r="U36" s="243"/>
       <c r="V36" s="242"/>
       <c r="W36" s="499" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -17530,7 +17467,7 @@
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -21865,7 +21802,7 @@
         <v>1082</v>
       </c>
       <c r="G3" s="321" t="s">
-        <v>1358</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -21888,7 +21825,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="487" t="s">
-        <v>1323</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -21911,11 +21848,11 @@
         <v>73</v>
       </c>
       <c r="H5" s="487" t="s">
-        <v>1324</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="514" t="s">
+      <c r="B6" s="542" t="s">
         <v>891</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -21934,11 +21871,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="487" t="s">
-        <v>1325</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="514"/>
+      <c r="B7" s="542"/>
       <c r="C7" s="83" t="s">
         <v>544</v>
       </c>
@@ -21955,11 +21892,11 @@
         <v>5</v>
       </c>
       <c r="H7" s="487" t="s">
-        <v>1326</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="514"/>
+      <c r="B8" s="542"/>
       <c r="C8" s="83" t="s">
         <v>541</v>
       </c>
@@ -21976,11 +21913,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="487" t="s">
-        <v>1327</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="514"/>
+      <c r="B9" s="542"/>
       <c r="C9" s="83" t="s">
         <v>546</v>
       </c>
@@ -21997,11 +21934,11 @@
         <v>8</v>
       </c>
       <c r="H9" s="487" t="s">
-        <v>1328</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="514"/>
+      <c r="B10" s="542"/>
       <c r="C10" s="83" t="s">
         <v>559</v>
       </c>
@@ -22019,7 +21956,7 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="514"/>
+      <c r="B11" s="542"/>
       <c r="C11" s="83" t="s">
         <v>887</v>
       </c>
@@ -22037,7 +21974,7 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="514" t="s">
+      <c r="B12" s="542" t="s">
         <v>892</v>
       </c>
       <c r="C12" s="83" t="s">
@@ -22056,11 +21993,11 @@
         <v>10</v>
       </c>
       <c r="H12" s="488" t="s">
-        <v>1329</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="514"/>
+      <c r="B13" s="542"/>
       <c r="C13" s="83" t="s">
         <v>562</v>
       </c>
@@ -22077,7 +22014,7 @@
         <v>96</v>
       </c>
       <c r="H13" s="488" t="s">
-        <v>1330</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -22100,11 +22037,11 @@
         <v>35</v>
       </c>
       <c r="H14" s="488" t="s">
-        <v>1331</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="514" t="s">
+      <c r="B15" s="542" t="s">
         <v>894</v>
       </c>
       <c r="C15" s="212" t="s">
@@ -22113,7 +22050,7 @@
       <c r="D15" s="212">
         <v>50002032</v>
       </c>
-      <c r="E15" s="513">
+      <c r="E15" s="541">
         <v>50</v>
       </c>
       <c r="F15" s="242">
@@ -22123,18 +22060,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="488" t="s">
-        <v>1332</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="514"/>
+      <c r="B16" s="542"/>
       <c r="C16" s="212" t="s">
         <v>585</v>
       </c>
       <c r="D16" s="212">
         <v>50002265</v>
       </c>
-      <c r="E16" s="513"/>
+      <c r="E16" s="541"/>
       <c r="F16" s="242">
         <v>15</v>
       </c>
@@ -22142,18 +22079,18 @@
         <v>15</v>
       </c>
       <c r="H16" s="488" t="s">
-        <v>1333</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="514"/>
+      <c r="B17" s="542"/>
       <c r="C17" s="212" t="s">
         <v>595</v>
       </c>
       <c r="D17" s="212">
         <v>50002384</v>
       </c>
-      <c r="E17" s="513"/>
+      <c r="E17" s="541"/>
       <c r="F17" s="242">
         <v>5</v>
       </c>
@@ -22162,14 +22099,14 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="514"/>
+      <c r="B18" s="542"/>
       <c r="C18" s="212" t="s">
         <v>592</v>
       </c>
       <c r="D18" s="212">
         <v>50002267</v>
       </c>
-      <c r="E18" s="513"/>
+      <c r="E18" s="541"/>
       <c r="F18" s="242">
         <v>1</v>
       </c>
@@ -22178,14 +22115,14 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="514"/>
+      <c r="B19" s="542"/>
       <c r="C19" s="212" t="s">
         <v>593</v>
       </c>
       <c r="D19" s="212">
         <v>50002380</v>
       </c>
-      <c r="E19" s="513"/>
+      <c r="E19" s="541"/>
       <c r="F19" s="242">
         <v>2</v>
       </c>
@@ -22194,14 +22131,14 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="514"/>
+      <c r="B20" s="542"/>
       <c r="C20" s="212" t="s">
         <v>591</v>
       </c>
       <c r="D20" s="212">
         <v>50002605</v>
       </c>
-      <c r="E20" s="513"/>
+      <c r="E20" s="541"/>
       <c r="F20" s="242">
         <v>19</v>
       </c>
@@ -22210,7 +22147,7 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="514" t="s">
+      <c r="B21" s="542" t="s">
         <v>1075</v>
       </c>
       <c r="C21" s="83" t="s">
@@ -22219,7 +22156,7 @@
       <c r="D21" s="83">
         <v>50002266</v>
       </c>
-      <c r="E21" s="513">
+      <c r="E21" s="541">
         <v>11</v>
       </c>
       <c r="F21" s="242">
@@ -22230,14 +22167,14 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="514"/>
+      <c r="B22" s="542"/>
       <c r="C22" s="83" t="s">
         <v>597</v>
       </c>
       <c r="D22" s="83">
         <v>50004797</v>
       </c>
-      <c r="E22" s="513"/>
+      <c r="E22" s="541"/>
       <c r="F22" s="323">
         <v>2</v>
       </c>
@@ -22246,7 +22183,7 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="515" t="s">
+      <c r="B23" s="543" t="s">
         <v>1076</v>
       </c>
       <c r="C23" s="213" t="s">
@@ -22255,7 +22192,7 @@
       <c r="D23" s="213">
         <v>50002006</v>
       </c>
-      <c r="E23" s="513">
+      <c r="E23" s="541">
         <v>21</v>
       </c>
       <c r="F23" s="323">
@@ -22266,14 +22203,14 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="516"/>
+      <c r="B24" s="544"/>
       <c r="C24" s="213" t="s">
         <v>595</v>
       </c>
       <c r="D24" s="213">
         <v>50002384</v>
       </c>
-      <c r="E24" s="513"/>
+      <c r="E24" s="541"/>
       <c r="F24" s="323">
         <v>4</v>
       </c>
@@ -22282,14 +22219,14 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="516"/>
+      <c r="B25" s="544"/>
       <c r="C25" s="212" t="s">
         <v>606</v>
       </c>
       <c r="D25" s="212">
         <v>50002595</v>
       </c>
-      <c r="E25" s="513"/>
+      <c r="E25" s="541"/>
       <c r="F25" s="323">
         <v>1</v>
       </c>
@@ -22298,14 +22235,14 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="516"/>
+      <c r="B26" s="544"/>
       <c r="C26" s="212" t="s">
         <v>603</v>
       </c>
       <c r="D26" s="212">
         <v>50002596</v>
       </c>
-      <c r="E26" s="513"/>
+      <c r="E26" s="541"/>
       <c r="F26" s="323">
         <v>1</v>
       </c>
@@ -22314,14 +22251,14 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="516"/>
+      <c r="B27" s="544"/>
       <c r="C27" s="212" t="s">
         <v>600</v>
       </c>
       <c r="D27" s="212">
         <v>50002267</v>
       </c>
-      <c r="E27" s="513"/>
+      <c r="E27" s="541"/>
       <c r="F27" s="323">
         <v>2</v>
       </c>
@@ -22330,14 +22267,14 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="516"/>
+      <c r="B28" s="544"/>
       <c r="C28" s="212" t="s">
         <v>593</v>
       </c>
       <c r="D28" s="212">
         <v>50002380</v>
       </c>
-      <c r="E28" s="513"/>
+      <c r="E28" s="541"/>
       <c r="F28" s="323">
         <v>2</v>
       </c>
@@ -22346,14 +22283,14 @@
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="516"/>
+      <c r="B29" s="544"/>
       <c r="C29" s="212" t="s">
         <v>598</v>
       </c>
       <c r="D29" s="212">
         <v>50002606</v>
       </c>
-      <c r="E29" s="513"/>
+      <c r="E29" s="541"/>
       <c r="F29" s="323">
         <v>9</v>
       </c>
@@ -22362,14 +22299,14 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B30" s="516"/>
+      <c r="B30" s="544"/>
       <c r="C30" s="212" t="s">
         <v>602</v>
       </c>
       <c r="D30" s="212">
         <v>50002607</v>
       </c>
-      <c r="E30" s="513"/>
+      <c r="E30" s="541"/>
       <c r="F30" s="323">
         <v>2</v>
       </c>
@@ -22378,9 +22315,9 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B31" s="517"/>
+      <c r="B31" s="545"/>
       <c r="C31" s="494" t="s">
-        <v>1359</v>
+        <v>1332</v>
       </c>
       <c r="D31" s="494">
         <v>50004838</v>
@@ -22392,7 +22329,7 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="514" t="s">
+      <c r="B32" s="542" t="s">
         <v>1077</v>
       </c>
       <c r="C32" s="212" t="s">
@@ -22401,7 +22338,7 @@
       <c r="D32" s="212">
         <v>50002267</v>
       </c>
-      <c r="E32" s="513">
+      <c r="E32" s="541">
         <v>40</v>
       </c>
       <c r="F32" s="323">
@@ -22412,14 +22349,14 @@
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="514"/>
+      <c r="B33" s="542"/>
       <c r="C33" s="212" t="s">
         <v>598</v>
       </c>
       <c r="D33" s="212">
         <v>50002606</v>
       </c>
-      <c r="E33" s="513"/>
+      <c r="E33" s="541"/>
       <c r="F33" s="323">
         <v>19</v>
       </c>
@@ -22428,14 +22365,14 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="514"/>
+      <c r="B34" s="542"/>
       <c r="C34" s="212" t="s">
         <v>602</v>
       </c>
       <c r="D34" s="212">
         <v>50002607</v>
       </c>
-      <c r="E34" s="513"/>
+      <c r="E34" s="541"/>
       <c r="F34" s="323">
         <v>4</v>
       </c>
@@ -22484,7 +22421,7 @@
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="514" t="s">
+      <c r="B37" s="542" t="s">
         <v>1080</v>
       </c>
       <c r="C37" s="212" t="s">
@@ -22493,7 +22430,7 @@
       <c r="D37" s="212">
         <v>50002384</v>
       </c>
-      <c r="E37" s="513">
+      <c r="E37" s="541">
         <v>67</v>
       </c>
       <c r="F37" s="323">
@@ -22504,14 +22441,14 @@
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="514"/>
+      <c r="B38" s="542"/>
       <c r="C38" s="83" t="s">
         <v>612</v>
       </c>
       <c r="D38" s="83">
         <v>50002268</v>
       </c>
-      <c r="E38" s="513"/>
+      <c r="E38" s="541"/>
       <c r="F38" s="323">
         <v>4</v>
       </c>
@@ -22520,14 +22457,14 @@
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="514"/>
+      <c r="B39" s="542"/>
       <c r="C39" s="213" t="s">
         <v>613</v>
       </c>
       <c r="D39" s="213">
         <v>50002594</v>
       </c>
-      <c r="E39" s="513"/>
+      <c r="E39" s="541"/>
       <c r="F39" s="323">
         <v>3</v>
       </c>
@@ -22536,14 +22473,14 @@
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="514"/>
+      <c r="B40" s="542"/>
       <c r="C40" s="213" t="s">
         <v>616</v>
       </c>
       <c r="D40" s="213">
         <v>50002596</v>
       </c>
-      <c r="E40" s="513"/>
+      <c r="E40" s="541"/>
       <c r="F40" s="323">
         <v>5</v>
       </c>
@@ -22552,14 +22489,14 @@
       </c>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="514"/>
+      <c r="B41" s="542"/>
       <c r="C41" s="212" t="s">
         <v>600</v>
       </c>
       <c r="D41" s="212">
         <v>50002267</v>
       </c>
-      <c r="E41" s="513"/>
+      <c r="E41" s="541"/>
       <c r="F41" s="323">
         <v>1</v>
       </c>
@@ -22568,14 +22505,14 @@
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="514"/>
+      <c r="B42" s="542"/>
       <c r="C42" s="213" t="s">
         <v>615</v>
       </c>
       <c r="D42" s="213">
         <v>50002381</v>
       </c>
-      <c r="E42" s="513"/>
+      <c r="E42" s="541"/>
       <c r="F42" s="323">
         <v>2</v>
       </c>
@@ -22584,14 +22521,14 @@
       </c>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="514"/>
+      <c r="B43" s="542"/>
       <c r="C43" s="213" t="s">
         <v>593</v>
       </c>
       <c r="D43" s="213">
         <v>50002380</v>
       </c>
-      <c r="E43" s="513"/>
+      <c r="E43" s="541"/>
       <c r="F43" s="323">
         <v>4</v>
       </c>
@@ -22600,9 +22537,9 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="17.25" thickBot="1">
-      <c r="B44" s="510"/>
-      <c r="C44" s="511"/>
-      <c r="D44" s="512"/>
+      <c r="B44" s="538"/>
+      <c r="C44" s="539"/>
+      <c r="D44" s="540"/>
       <c r="E44" s="324">
         <f>SUM(E4:E43)</f>
         <v>537</v>
@@ -22646,8 +22583,8 @@
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -22747,7 +22684,7 @@
         <v>806</v>
       </c>
       <c r="Y1" s="65" t="s">
-        <v>1364</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -23516,7 +23453,7 @@
         <v>1153</v>
       </c>
       <c r="I12" s="159" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="J12" s="159" t="s">
         <v>43</v>
@@ -23658,10 +23595,10 @@
         <v>1153</v>
       </c>
       <c r="H14" s="471" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="I14" s="159" t="s">
-        <v>1365</v>
+        <v>1338</v>
       </c>
       <c r="J14" s="159" t="s">
         <v>50</v>
@@ -25141,7 +25078,7 @@
         <v>1153</v>
       </c>
       <c r="H34" s="358" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I34" s="253" t="s">
         <v>83</v>
@@ -25215,7 +25152,7 @@
         <v>1153</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I35" s="159" t="s">
         <v>88</v>
@@ -25289,7 +25226,7 @@
         <v>1153</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I36" s="159" t="s">
         <v>85</v>
@@ -25363,7 +25300,7 @@
         <v>1153</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I37" s="159" t="s">
         <v>87</v>
@@ -25437,7 +25374,7 @@
         <v>1153</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I38" s="159" t="s">
         <v>89</v>
@@ -25511,7 +25448,7 @@
         <v>1153</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I39" s="159" t="s">
         <v>90</v>
@@ -25585,7 +25522,7 @@
         <v>1153</v>
       </c>
       <c r="H40" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I40" s="159" t="s">
         <v>91</v>
@@ -25659,7 +25596,7 @@
         <v>1153</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I41" s="159" t="s">
         <v>515</v>
@@ -25733,7 +25670,7 @@
         <v>1153</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I42" s="159" t="s">
         <v>86</v>
@@ -25807,7 +25744,7 @@
         <v>1153</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I43" s="184" t="s">
         <v>84</v>
@@ -25876,9 +25813,7 @@
         <f t="shared" si="4"/>
         <v>5897_상세.jpg</v>
       </c>
-      <c r="F44" s="171" t="s">
-        <v>1204</v>
-      </c>
+      <c r="F44" s="486"/>
       <c r="G44" s="79" t="s">
         <v>1153</v>
       </c>
@@ -25952,9 +25887,7 @@
         <f t="shared" si="4"/>
         <v>5923_상세.jpg</v>
       </c>
-      <c r="F45" s="171" t="s">
-        <v>1205</v>
-      </c>
+      <c r="F45" s="486"/>
       <c r="G45" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26028,9 +25961,7 @@
         <f t="shared" si="4"/>
         <v>5926_상세.jpg</v>
       </c>
-      <c r="F46" s="171" t="s">
-        <v>1206</v>
-      </c>
+      <c r="F46" s="486"/>
       <c r="G46" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26104,9 +26035,7 @@
         <f t="shared" si="4"/>
         <v>5970_상세.jpg</v>
       </c>
-      <c r="F47" s="171" t="s">
-        <v>1207</v>
-      </c>
+      <c r="F47" s="486"/>
       <c r="G47" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26181,9 +26110,7 @@
         <f t="shared" si="4"/>
         <v>6007_상세.jpg</v>
       </c>
-      <c r="F48" s="171" t="s">
-        <v>1208</v>
-      </c>
+      <c r="F48" s="486"/>
       <c r="G48" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26257,9 +26184,7 @@
         <f t="shared" si="4"/>
         <v>6011_상세.jpg</v>
       </c>
-      <c r="F49" s="171" t="s">
-        <v>1209</v>
-      </c>
+      <c r="F49" s="486"/>
       <c r="G49" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26333,9 +26258,7 @@
         <f t="shared" si="4"/>
         <v>6013_상세.jpg</v>
       </c>
-      <c r="F50" s="171" t="s">
-        <v>1210</v>
-      </c>
+      <c r="F50" s="486"/>
       <c r="G50" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26409,9 +26332,7 @@
         <f t="shared" si="4"/>
         <v>6014_상세.jpg</v>
       </c>
-      <c r="F51" s="171" t="s">
-        <v>1211</v>
-      </c>
+      <c r="F51" s="486"/>
       <c r="G51" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26485,9 +26406,7 @@
         <f t="shared" si="4"/>
         <v>6023_상세.jpg</v>
       </c>
-      <c r="F52" s="171" t="s">
-        <v>1212</v>
-      </c>
+      <c r="F52" s="486"/>
       <c r="G52" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26535,7 +26454,7 @@
         <v>맛있는라면 (멀티팩)[6023/5]</v>
       </c>
       <c r="V52" s="109" t="s">
-        <v>518</v>
+        <v>1371</v>
       </c>
       <c r="W52" s="109" t="s">
         <v>518</v>
@@ -26561,9 +26480,7 @@
         <f t="shared" si="4"/>
         <v>6025_상세.jpg</v>
       </c>
-      <c r="F53" s="171" t="s">
-        <v>1213</v>
-      </c>
+      <c r="F53" s="486"/>
       <c r="G53" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26637,9 +26554,7 @@
         <f t="shared" si="4"/>
         <v>6028_상세.jpg</v>
       </c>
-      <c r="F54" s="171" t="s">
-        <v>1214</v>
-      </c>
+      <c r="F54" s="486"/>
       <c r="G54" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26713,9 +26628,7 @@
         <f t="shared" si="4"/>
         <v>6034_상세.jpg</v>
       </c>
-      <c r="F55" s="171" t="s">
-        <v>1215</v>
-      </c>
+      <c r="F55" s="486"/>
       <c r="G55" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26789,9 +26702,7 @@
         <f t="shared" si="4"/>
         <v>6035_상세.jpg</v>
       </c>
-      <c r="F56" s="171" t="s">
-        <v>1216</v>
-      </c>
+      <c r="F56" s="486"/>
       <c r="G56" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26865,9 +26776,7 @@
         <f t="shared" si="4"/>
         <v>6038_상세.jpg</v>
       </c>
-      <c r="F57" s="171" t="s">
-        <v>1217</v>
-      </c>
+      <c r="F57" s="486"/>
       <c r="G57" s="79" t="s">
         <v>1153</v>
       </c>
@@ -26941,9 +26850,7 @@
         <f t="shared" si="4"/>
         <v>6042_상세.jpg</v>
       </c>
-      <c r="F58" s="171" t="s">
-        <v>1218</v>
-      </c>
+      <c r="F58" s="486"/>
       <c r="G58" s="413" t="s">
         <v>1153</v>
       </c>
@@ -27018,7 +26925,7 @@
         <v>7893_상세.jpg</v>
       </c>
       <c r="F59" s="171" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="G59" s="411" t="s">
         <v>1155</v>
@@ -27094,7 +27001,7 @@
         <v>7896_상세.jpg</v>
       </c>
       <c r="F60" s="171" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="G60" s="79" t="s">
         <v>1153</v>
@@ -27170,7 +27077,7 @@
         <v>7898_상세.jpg</v>
       </c>
       <c r="F61" s="171" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="G61" s="79" t="s">
         <v>1156</v>
@@ -27246,7 +27153,7 @@
         <v>7900_상세.jpg</v>
       </c>
       <c r="F62" s="171" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="G62" s="79" t="s">
         <v>1153</v>
@@ -27322,7 +27229,7 @@
         <v>7916_상세.jpg</v>
       </c>
       <c r="F63" s="171" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="G63" s="79" t="s">
         <v>1156</v>
@@ -27398,7 +27305,7 @@
         <v>7917_상세.jpg</v>
       </c>
       <c r="F64" s="171" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
       <c r="G64" s="79" t="s">
         <v>1153</v>
@@ -27474,7 +27381,7 @@
         <v>7932_상세.jpg</v>
       </c>
       <c r="F65" s="171" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="G65" s="412" t="s">
         <v>1155</v>
@@ -27550,7 +27457,7 @@
         <v>7933_상세.jpg</v>
       </c>
       <c r="F66" s="171" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="G66" s="412" t="s">
         <v>1155</v>
@@ -27626,7 +27533,7 @@
         <v>7936_상세.jpg</v>
       </c>
       <c r="F67" s="171" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
       <c r="G67" s="412" t="s">
         <v>1155</v>
@@ -27702,7 +27609,7 @@
         <v>7939_상세.jpg</v>
       </c>
       <c r="F68" s="171" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="G68" s="412" t="s">
         <v>1155</v>
@@ -27778,7 +27685,7 @@
         <v>7941_상세.jpg</v>
       </c>
       <c r="F69" s="171" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
       <c r="G69" s="415" t="s">
         <v>1155</v>
@@ -27844,13 +27751,13 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:25">
-      <c r="J73" s="518" t="s">
+      <c r="J73" s="546" t="s">
         <v>624</v>
       </c>
-      <c r="K73" s="518"/>
-      <c r="L73" s="518"/>
-      <c r="M73" s="518"/>
-      <c r="N73" s="518"/>
+      <c r="K73" s="546"/>
+      <c r="L73" s="546"/>
+      <c r="M73" s="546"/>
+      <c r="N73" s="546"/>
       <c r="O73" s="18" t="s">
         <v>625</v>
       </c>
@@ -28019,9 +27926,9 @@
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S59" sqref="S59"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -28140,7 +28047,7 @@
         <f t="shared" ref="E2:E33" si="1">CONCATENATE(C2,"_상세.jpg")</f>
         <v>2474_상세.jpg</v>
       </c>
-      <c r="F2" s="527"/>
+      <c r="F2" s="518"/>
       <c r="G2" s="358" t="s">
         <v>1153</v>
       </c>
@@ -30711,7 +30618,7 @@
         <f t="shared" si="5"/>
         <v>3495_상세.jpg</v>
       </c>
-      <c r="F38" s="528"/>
+      <c r="F38" s="519"/>
       <c r="G38" s="364" t="s">
         <v>1153</v>
       </c>
@@ -30782,9 +30689,7 @@
         <f t="shared" si="5"/>
         <v>6008_상세.jpg</v>
       </c>
-      <c r="F39" s="474" t="s">
-        <v>1232</v>
-      </c>
+      <c r="F39" s="536"/>
       <c r="G39" s="476" t="s">
         <v>1153</v>
       </c>
@@ -30855,9 +30760,7 @@
         <f t="shared" si="5"/>
         <v>6009_상세.jpg</v>
       </c>
-      <c r="F40" s="171" t="s">
-        <v>1249</v>
-      </c>
+      <c r="F40" s="486"/>
       <c r="G40" s="79" t="s">
         <v>1153</v>
       </c>
@@ -30928,9 +30831,7 @@
         <f t="shared" si="5"/>
         <v>5925_상세.jpg</v>
       </c>
-      <c r="F41" s="171" t="s">
-        <v>1231</v>
-      </c>
+      <c r="F41" s="486"/>
       <c r="G41" s="79" t="s">
         <v>1153</v>
       </c>
@@ -31003,9 +30904,7 @@
         <f t="shared" si="5"/>
         <v>5924_상세.jpg</v>
       </c>
-      <c r="F42" s="171" t="s">
-        <v>1248</v>
-      </c>
+      <c r="F42" s="486"/>
       <c r="G42" s="79" t="s">
         <v>1153</v>
       </c>
@@ -31076,9 +30975,7 @@
         <f t="shared" si="5"/>
         <v>6021_상세.jpg</v>
       </c>
-      <c r="F43" s="171" t="s">
-        <v>1233</v>
-      </c>
+      <c r="F43" s="486"/>
       <c r="G43" s="79" t="s">
         <v>1153</v>
       </c>
@@ -31123,7 +31020,7 @@
         <v>불닭볶음면 큰컵[6021/1]</v>
       </c>
       <c r="V43" s="175" t="s">
-        <v>518</v>
+        <v>1372</v>
       </c>
       <c r="W43" s="175" t="s">
         <v>518</v>
@@ -31149,9 +31046,7 @@
         <f t="shared" si="5"/>
         <v>6040_상세.jpg</v>
       </c>
-      <c r="F44" s="171" t="s">
-        <v>1235</v>
-      </c>
+      <c r="F44" s="486"/>
       <c r="G44" s="79" t="s">
         <v>1153</v>
       </c>
@@ -31222,9 +31117,7 @@
         <f t="shared" si="5"/>
         <v>6017_상세.jpg</v>
       </c>
-      <c r="F45" s="171" t="s">
-        <v>1250</v>
-      </c>
+      <c r="F45" s="486"/>
       <c r="G45" s="79" t="s">
         <v>1153</v>
       </c>
@@ -31297,9 +31190,7 @@
         <f t="shared" si="5"/>
         <v>6036_상세.jpg</v>
       </c>
-      <c r="F46" s="200" t="s">
-        <v>1234</v>
-      </c>
+      <c r="F46" s="537"/>
       <c r="G46" s="413" t="s">
         <v>1153</v>
       </c>
@@ -31370,15 +31261,15 @@
         <f t="shared" si="5"/>
         <v>5810_상세.jpg</v>
       </c>
-      <c r="F47" s="527"/>
+      <c r="F47" s="518"/>
       <c r="G47" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H47" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I47" s="509" t="s">
-        <v>1395</v>
+        <v>1368</v>
       </c>
       <c r="J47" s="48">
         <v>16</v>
@@ -31422,7 +31313,7 @@
       </c>
       <c r="X47" s="438"/>
       <c r="Y47" s="402" t="s">
-        <v>1397</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -31445,10 +31336,10 @@
       </c>
       <c r="F48" s="486"/>
       <c r="G48" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H48" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I48" s="80" t="s">
         <v>172</v>
@@ -31516,10 +31407,10 @@
       </c>
       <c r="F49" s="486"/>
       <c r="G49" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H49" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I49" s="80" t="s">
         <v>539</v>
@@ -31587,10 +31478,10 @@
       </c>
       <c r="F50" s="486"/>
       <c r="G50" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H50" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I50" s="80" t="s">
         <v>538</v>
@@ -31658,10 +31549,10 @@
       </c>
       <c r="F51" s="486"/>
       <c r="G51" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H51" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I51" s="80" t="s">
         <v>175</v>
@@ -31729,10 +31620,10 @@
       </c>
       <c r="F52" s="486"/>
       <c r="G52" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H52" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I52" s="159" t="s">
         <v>810</v>
@@ -31802,10 +31693,10 @@
       </c>
       <c r="F53" s="486"/>
       <c r="G53" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H53" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I53" s="159" t="s">
         <v>811</v>
@@ -31875,10 +31766,10 @@
       </c>
       <c r="F54" s="486"/>
       <c r="G54" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H54" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I54" s="159" t="s">
         <v>809</v>
@@ -31948,10 +31839,10 @@
       </c>
       <c r="F55" s="486"/>
       <c r="G55" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H55" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I55" s="159" t="s">
         <v>808</v>
@@ -32021,10 +31912,10 @@
       </c>
       <c r="F56" s="486"/>
       <c r="G56" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H56" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I56" s="80" t="s">
         <v>534</v>
@@ -32092,10 +31983,10 @@
       </c>
       <c r="F57" s="486"/>
       <c r="G57" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H57" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I57" s="80" t="s">
         <v>540</v>
@@ -32163,10 +32054,10 @@
       </c>
       <c r="F58" s="486"/>
       <c r="G58" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H58" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I58" s="80" t="s">
         <v>173</v>
@@ -32234,10 +32125,10 @@
       </c>
       <c r="F59" s="486"/>
       <c r="G59" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H59" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I59" s="80" t="s">
         <v>174</v>
@@ -32305,10 +32196,10 @@
       </c>
       <c r="F60" s="486"/>
       <c r="G60" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H60" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I60" s="80" t="s">
         <v>535</v>
@@ -32378,10 +32269,10 @@
       </c>
       <c r="F61" s="486"/>
       <c r="G61" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H61" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I61" s="80" t="s">
         <v>537</v>
@@ -32447,12 +32338,12 @@
         <f t="shared" si="5"/>
         <v>5836_상세.jpg</v>
       </c>
-      <c r="F62" s="528"/>
+      <c r="F62" s="519"/>
       <c r="G62" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="H62" s="79" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="I62" s="140" t="s">
         <v>536</v>
@@ -32519,7 +32410,7 @@
         <v>7922_상세.jpg</v>
       </c>
       <c r="F63" s="474" t="s">
-        <v>1244</v>
+        <v>1224</v>
       </c>
       <c r="G63" s="450" t="s">
         <v>1158</v>
@@ -32592,7 +32483,7 @@
         <v>7894_상세.jpg</v>
       </c>
       <c r="F64" s="171" t="s">
-        <v>1236</v>
+        <v>1216</v>
       </c>
       <c r="G64" s="303" t="s">
         <v>1159</v>
@@ -32665,7 +32556,7 @@
         <v>7919_상세.jpg</v>
       </c>
       <c r="F65" s="171" t="s">
-        <v>1246</v>
+        <v>1226</v>
       </c>
       <c r="G65" s="303" t="s">
         <v>1159</v>
@@ -32738,7 +32629,7 @@
         <v>7925_상세.jpg</v>
       </c>
       <c r="F66" s="171" t="s">
-        <v>1240</v>
+        <v>1220</v>
       </c>
       <c r="G66" s="303" t="s">
         <v>1159</v>
@@ -32811,7 +32702,7 @@
         <v>7934_상세.jpg</v>
       </c>
       <c r="F67" s="171" t="s">
-        <v>1247</v>
+        <v>1227</v>
       </c>
       <c r="G67" s="303" t="s">
         <v>1159</v>
@@ -32884,7 +32775,7 @@
         <v>7937_상세.jpg</v>
       </c>
       <c r="F68" s="171" t="s">
-        <v>1241</v>
+        <v>1221</v>
       </c>
       <c r="G68" s="303" t="s">
         <v>1159</v>
@@ -32957,7 +32848,7 @@
         <v>7938_상세.jpg</v>
       </c>
       <c r="F69" s="171" t="s">
-        <v>1242</v>
+        <v>1222</v>
       </c>
       <c r="G69" s="303" t="s">
         <v>1159</v>
@@ -33030,7 +32921,7 @@
         <v>7921_상세.jpg</v>
       </c>
       <c r="F70" s="171" t="s">
-        <v>1243</v>
+        <v>1223</v>
       </c>
       <c r="G70" s="87" t="s">
         <v>1158</v>
@@ -33103,7 +32994,7 @@
         <v>7923_상세.jpg</v>
       </c>
       <c r="F71" s="171" t="s">
-        <v>1245</v>
+        <v>1225</v>
       </c>
       <c r="G71" s="87" t="s">
         <v>1158</v>
@@ -33176,7 +33067,7 @@
         <v>7901_상세.jpg</v>
       </c>
       <c r="F72" s="171" t="s">
-        <v>1238</v>
+        <v>1218</v>
       </c>
       <c r="G72" s="303" t="s">
         <v>1159</v>
@@ -33249,7 +33140,7 @@
         <v>7895_상세.jpg</v>
       </c>
       <c r="F73" s="171" t="s">
-        <v>1237</v>
+        <v>1217</v>
       </c>
       <c r="G73" s="303" t="s">
         <v>1159</v>
@@ -33322,7 +33213,7 @@
         <v>7924_상세.jpg</v>
       </c>
       <c r="F74" s="171" t="s">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="G74" s="419" t="s">
         <v>1158</v>
@@ -33543,7 +33434,7 @@
         <v>1201</v>
       </c>
       <c r="AA1" s="65" t="s">
-        <v>1364</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -33572,7 +33463,7 @@
         <v>1153</v>
       </c>
       <c r="I2" s="489" t="s">
-        <v>1343</v>
+        <v>1316</v>
       </c>
       <c r="J2" s="359" t="s">
         <v>332</v>
@@ -33620,7 +33511,7 @@
       </c>
       <c r="Y2" s="490"/>
       <c r="Z2" s="375" t="s">
-        <v>1334</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -33649,7 +33540,7 @@
         <v>1153</v>
       </c>
       <c r="I3" s="480" t="s">
-        <v>1344</v>
+        <v>1317</v>
       </c>
       <c r="J3" s="234" t="s">
         <v>332</v>
@@ -33697,7 +33588,7 @@
       </c>
       <c r="Y3" s="138"/>
       <c r="Z3" s="266" t="s">
-        <v>1334</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -33726,7 +33617,7 @@
         <v>1153</v>
       </c>
       <c r="I4" s="480" t="s">
-        <v>1367</v>
+        <v>1340</v>
       </c>
       <c r="J4" s="234" t="s">
         <v>332</v>
@@ -33774,7 +33665,7 @@
       </c>
       <c r="Y4" s="138"/>
       <c r="Z4" s="266" t="s">
-        <v>1334</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -33803,7 +33694,7 @@
         <v>1153</v>
       </c>
       <c r="I5" s="480" t="s">
-        <v>1345</v>
+        <v>1318</v>
       </c>
       <c r="J5" s="234" t="s">
         <v>330</v>
@@ -33851,7 +33742,7 @@
       </c>
       <c r="Y5" s="138"/>
       <c r="Z5" s="266" t="s">
-        <v>1334</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -33880,7 +33771,7 @@
         <v>1153</v>
       </c>
       <c r="I6" s="480" t="s">
-        <v>1346</v>
+        <v>1319</v>
       </c>
       <c r="J6" s="234" t="s">
         <v>331</v>
@@ -33928,7 +33819,7 @@
       </c>
       <c r="Y6" s="138"/>
       <c r="Z6" s="266" t="s">
-        <v>1334</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -33957,7 +33848,7 @@
         <v>1153</v>
       </c>
       <c r="I7" s="480" t="s">
-        <v>1347</v>
+        <v>1320</v>
       </c>
       <c r="J7" s="234" t="s">
         <v>330</v>
@@ -34005,7 +33896,7 @@
       </c>
       <c r="Y7" s="138"/>
       <c r="Z7" s="266" t="s">
-        <v>1334</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -34080,7 +33971,7 @@
       </c>
       <c r="Y8" s="138"/>
       <c r="Z8" s="266" t="s">
-        <v>1335</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -34155,7 +34046,7 @@
       </c>
       <c r="Y9" s="138"/>
       <c r="Z9" s="266" t="s">
-        <v>1336</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -34230,7 +34121,7 @@
       </c>
       <c r="Y10" s="110"/>
       <c r="Z10" s="266" t="s">
-        <v>1336</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -34305,7 +34196,7 @@
       </c>
       <c r="Y11" s="110"/>
       <c r="Z11" s="266" t="s">
-        <v>1336</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -34380,7 +34271,7 @@
       </c>
       <c r="Y12" s="110"/>
       <c r="Z12" s="266" t="s">
-        <v>1336</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -34457,7 +34348,7 @@
       </c>
       <c r="Y13" s="110"/>
       <c r="Z13" s="266" t="s">
-        <v>1337</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -34534,7 +34425,7 @@
       </c>
       <c r="Y14" s="110"/>
       <c r="Z14" s="266" t="s">
-        <v>1337</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -34611,7 +34502,7 @@
       </c>
       <c r="Y15" s="266"/>
       <c r="Z15" s="266" t="s">
-        <v>1337</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -34688,7 +34579,7 @@
       </c>
       <c r="Y16" s="266"/>
       <c r="Z16" s="266" t="s">
-        <v>1338</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -34765,7 +34656,7 @@
       </c>
       <c r="Y17" s="266"/>
       <c r="Z17" s="266" t="s">
-        <v>1339</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -34794,7 +34685,7 @@
         <v>1153</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>1368</v>
+        <v>1341</v>
       </c>
       <c r="J18" s="79" t="s">
         <v>320</v>
@@ -34842,7 +34733,7 @@
       </c>
       <c r="Y18" s="266"/>
       <c r="Z18" s="266" t="s">
-        <v>1340</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -34871,7 +34762,7 @@
         <v>1153</v>
       </c>
       <c r="I19" s="480" t="s">
-        <v>1255</v>
+        <v>1232</v>
       </c>
       <c r="J19" s="79" t="s">
         <v>320</v>
@@ -34919,10 +34810,10 @@
       </c>
       <c r="Y19" s="266"/>
       <c r="Z19" s="266" t="s">
-        <v>1340</v>
-      </c>
-      <c r="AA19" s="525" t="s">
-        <v>1390</v>
+        <v>1313</v>
+      </c>
+      <c r="AA19" s="516" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -34999,7 +34890,7 @@
       </c>
       <c r="Y20" s="266"/>
       <c r="Z20" s="266" t="s">
-        <v>1341</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -35076,7 +34967,7 @@
       </c>
       <c r="Y21" s="266"/>
       <c r="Z21" s="266" t="s">
-        <v>1340</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -35105,7 +34996,7 @@
         <v>1153</v>
       </c>
       <c r="I22" s="480" t="s">
-        <v>1256</v>
+        <v>1233</v>
       </c>
       <c r="J22" s="79" t="s">
         <v>323</v>
@@ -35153,10 +35044,10 @@
       </c>
       <c r="Y22" s="266"/>
       <c r="Z22" s="266" t="s">
-        <v>1341</v>
-      </c>
-      <c r="AA22" s="525" t="s">
-        <v>1391</v>
+        <v>1314</v>
+      </c>
+      <c r="AA22" s="516" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -35233,7 +35124,7 @@
       </c>
       <c r="Y23" s="266"/>
       <c r="Z23" s="266" t="s">
-        <v>1342</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -35312,7 +35203,7 @@
         <v>1161</v>
       </c>
       <c r="Z24" s="266" t="s">
-        <v>1342</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="17.25" thickBot="1">
@@ -35391,7 +35282,7 @@
         <v>1161</v>
       </c>
       <c r="Z25" s="266" t="s">
-        <v>1342</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -35413,7 +35304,7 @@
         <v>471_상세.jpg</v>
       </c>
       <c r="F26" s="171" t="s">
-        <v>1251</v>
+        <v>1228</v>
       </c>
       <c r="G26" s="79" t="s">
         <v>1153</v>
@@ -35470,7 +35361,7 @@
       </c>
       <c r="Y26" s="265"/>
       <c r="Z26" s="266" t="s">
-        <v>1342</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -35492,7 +35383,7 @@
         <v>472_상세.jpg</v>
       </c>
       <c r="F27" s="171" t="s">
-        <v>1252</v>
+        <v>1229</v>
       </c>
       <c r="G27" s="79" t="s">
         <v>1153</v>
@@ -35549,7 +35440,7 @@
       </c>
       <c r="Y27" s="266"/>
       <c r="Z27" s="266" t="s">
-        <v>1342</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -35571,7 +35462,7 @@
         <v>473_상세.jpg</v>
       </c>
       <c r="F28" s="171" t="s">
-        <v>1253</v>
+        <v>1230</v>
       </c>
       <c r="G28" s="79" t="s">
         <v>1153</v>
@@ -35628,7 +35519,7 @@
       </c>
       <c r="Y28" s="266"/>
       <c r="Z28" s="266" t="s">
-        <v>1342</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="17.25" thickBot="1">
@@ -35650,7 +35541,7 @@
         <v>474_상세.jpg</v>
       </c>
       <c r="F29" s="171" t="s">
-        <v>1254</v>
+        <v>1231</v>
       </c>
       <c r="G29" s="79" t="s">
         <v>1153</v>
@@ -35707,7 +35598,7 @@
       </c>
       <c r="Y29" s="266"/>
       <c r="Z29" s="266" t="s">
-        <v>1342</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -35843,9 +35734,9 @@
   </sheetPr>
   <dimension ref="A1:Z155"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35976,10 +35867,10 @@
         <v>1153</v>
       </c>
       <c r="H2" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>1300</v>
+        <v>1273</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>632</v>
@@ -36049,10 +35940,10 @@
         <v>1164</v>
       </c>
       <c r="H3" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I3" s="78" t="s">
-        <v>1301</v>
+        <v>1274</v>
       </c>
       <c r="J3" s="171" t="s">
         <v>634</v>
@@ -36122,10 +36013,10 @@
         <v>1153</v>
       </c>
       <c r="H4" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>1302</v>
+        <v>1275</v>
       </c>
       <c r="J4" s="108" t="s">
         <v>633</v>
@@ -36195,10 +36086,10 @@
         <v>1164</v>
       </c>
       <c r="H5" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>1285</v>
+        <v>1258</v>
       </c>
       <c r="J5" s="171" t="s">
         <v>289</v>
@@ -36268,10 +36159,10 @@
         <v>1164</v>
       </c>
       <c r="H6" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>1298</v>
+        <v>1271</v>
       </c>
       <c r="J6" s="171" t="s">
         <v>289</v>
@@ -36341,10 +36232,10 @@
         <v>1164</v>
       </c>
       <c r="H7" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I7" s="78" t="s">
-        <v>1299</v>
+        <v>1272</v>
       </c>
       <c r="J7" s="171" t="s">
         <v>289</v>
@@ -36690,10 +36581,10 @@
         <v>1153</v>
       </c>
       <c r="H12" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I12" s="172" t="s">
-        <v>1295</v>
+        <v>1268</v>
       </c>
       <c r="J12" s="108" t="s">
         <v>199</v>
@@ -36966,10 +36857,10 @@
         <v>1153</v>
       </c>
       <c r="H16" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I16" s="172" t="s">
-        <v>1290</v>
+        <v>1263</v>
       </c>
       <c r="J16" s="108" t="s">
         <v>215</v>
@@ -37327,10 +37218,10 @@
         <v>1153</v>
       </c>
       <c r="H21" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I21" s="172" t="s">
-        <v>1291</v>
+        <v>1264</v>
       </c>
       <c r="J21" s="108" t="s">
         <v>640</v>
@@ -37396,10 +37287,10 @@
         <v>1153</v>
       </c>
       <c r="H22" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I22" s="172" t="s">
-        <v>1292</v>
+        <v>1265</v>
       </c>
       <c r="J22" s="108" t="s">
         <v>181</v>
@@ -37465,10 +37356,10 @@
         <v>1153</v>
       </c>
       <c r="H23" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I23" s="172" t="s">
-        <v>1293</v>
+        <v>1266</v>
       </c>
       <c r="J23" s="108" t="s">
         <v>189</v>
@@ -37534,10 +37425,10 @@
         <v>1153</v>
       </c>
       <c r="H24" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I24" s="172" t="s">
-        <v>1294</v>
+        <v>1267</v>
       </c>
       <c r="J24" s="108" t="s">
         <v>196</v>
@@ -37669,13 +37560,13 @@
       </c>
       <c r="F26" s="486"/>
       <c r="G26" s="412" t="s">
-        <v>1288</v>
+        <v>1261</v>
       </c>
       <c r="H26" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="I26" s="172" t="s">
-        <v>1296</v>
+        <v>1269</v>
       </c>
       <c r="J26" s="108" t="s">
         <v>214</v>
@@ -38572,7 +38463,7 @@
         <v>1153</v>
       </c>
       <c r="I39" s="172" t="s">
-        <v>1286</v>
+        <v>1259</v>
       </c>
       <c r="J39" s="108" t="s">
         <v>205</v>
@@ -38779,7 +38670,7 @@
         <v>1153</v>
       </c>
       <c r="I42" s="172" t="s">
-        <v>1287</v>
+        <v>1260</v>
       </c>
       <c r="J42" s="108" t="s">
         <v>177</v>
@@ -39193,7 +39084,7 @@
         <v>1153</v>
       </c>
       <c r="I48" s="172" t="s">
-        <v>1289</v>
+        <v>1262</v>
       </c>
       <c r="J48" s="108" t="s">
         <v>201</v>
@@ -39738,7 +39629,7 @@
         <v>201_상세.jpg</v>
       </c>
       <c r="F56" s="171" t="s">
-        <v>1257</v>
+        <v>1234</v>
       </c>
       <c r="G56" s="411" t="s">
         <v>1164</v>
@@ -39813,7 +39704,7 @@
         <v>9035_상세.jpg</v>
       </c>
       <c r="F57" s="171" t="s">
-        <v>1258</v>
+        <v>1235</v>
       </c>
       <c r="G57" s="77" t="s">
         <v>1158</v>
@@ -39888,7 +39779,7 @@
         <v>9040_상세.jpg</v>
       </c>
       <c r="F58" s="171" t="s">
-        <v>1259</v>
+        <v>1236</v>
       </c>
       <c r="G58" s="412" t="s">
         <v>1164</v>
@@ -39961,7 +39852,7 @@
         <v>9079_상세.jpg</v>
       </c>
       <c r="F59" s="171" t="s">
-        <v>1260</v>
+        <v>1237</v>
       </c>
       <c r="G59" s="412" t="s">
         <v>1164</v>
@@ -40034,7 +39925,7 @@
         <v>9080_상세.jpg</v>
       </c>
       <c r="F60" s="171" t="s">
-        <v>1261</v>
+        <v>1238</v>
       </c>
       <c r="G60" s="412" t="s">
         <v>1164</v>
@@ -40107,7 +39998,7 @@
         <v>9095_상세.jpg</v>
       </c>
       <c r="F61" s="171" t="s">
-        <v>1262</v>
+        <v>1239</v>
       </c>
       <c r="G61" s="412" t="s">
         <v>1164</v>
@@ -40180,7 +40071,7 @@
         <v>9102_상세.jpg</v>
       </c>
       <c r="F62" s="171" t="s">
-        <v>1263</v>
+        <v>1240</v>
       </c>
       <c r="G62" s="412" t="s">
         <v>1164</v>
@@ -40253,7 +40144,7 @@
         <v>9112_상세.jpg</v>
       </c>
       <c r="F63" s="171" t="s">
-        <v>1264</v>
+        <v>1241</v>
       </c>
       <c r="G63" s="412" t="s">
         <v>1164</v>
@@ -40326,7 +40217,7 @@
         <v>9113_상세.jpg</v>
       </c>
       <c r="F64" s="171" t="s">
-        <v>1265</v>
+        <v>1242</v>
       </c>
       <c r="G64" s="412" t="s">
         <v>1164</v>
@@ -40403,7 +40294,7 @@
         <v>9119_상세.jpg</v>
       </c>
       <c r="F65" s="171" t="s">
-        <v>1266</v>
+        <v>1243</v>
       </c>
       <c r="G65" s="412" t="s">
         <v>1164</v>
@@ -40476,7 +40367,7 @@
         <v>9121_상세.jpg</v>
       </c>
       <c r="F66" s="171" t="s">
-        <v>1267</v>
+        <v>1244</v>
       </c>
       <c r="G66" s="412" t="s">
         <v>1164</v>
@@ -40549,7 +40440,7 @@
         <v>9125_상세.jpg</v>
       </c>
       <c r="F67" s="171" t="s">
-        <v>1268</v>
+        <v>1245</v>
       </c>
       <c r="G67" s="412" t="s">
         <v>1164</v>
@@ -40622,7 +40513,7 @@
         <v>9127_상세.jpg</v>
       </c>
       <c r="F68" s="171" t="s">
-        <v>1269</v>
+        <v>1246</v>
       </c>
       <c r="G68" s="412" t="s">
         <v>1164</v>
@@ -40695,7 +40586,7 @@
         <v>9129_상세.jpg</v>
       </c>
       <c r="F69" s="171" t="s">
-        <v>1270</v>
+        <v>1247</v>
       </c>
       <c r="G69" s="412" t="s">
         <v>1164</v>
@@ -40768,7 +40659,7 @@
         <v>9139_상세.jpg</v>
       </c>
       <c r="F70" s="171" t="s">
-        <v>1271</v>
+        <v>1248</v>
       </c>
       <c r="G70" s="412" t="s">
         <v>1164</v>
@@ -40841,7 +40732,7 @@
         <v>9157_상세.jpg</v>
       </c>
       <c r="F71" s="171" t="s">
-        <v>1272</v>
+        <v>1249</v>
       </c>
       <c r="G71" s="412" t="s">
         <v>1164</v>
@@ -40914,7 +40805,7 @@
         <v>9158_상세.jpg</v>
       </c>
       <c r="F72" s="171" t="s">
-        <v>1273</v>
+        <v>1250</v>
       </c>
       <c r="G72" s="77" t="s">
         <v>1158</v>
@@ -40987,7 +40878,7 @@
         <v>9159_상세.jpg</v>
       </c>
       <c r="F73" s="171" t="s">
-        <v>1274</v>
+        <v>1251</v>
       </c>
       <c r="G73" s="415" t="s">
         <v>1164</v>
@@ -41059,9 +40950,7 @@
         <f t="shared" si="11"/>
         <v>6001_상세.jpg</v>
       </c>
-      <c r="F74" s="171" t="s">
-        <v>1275</v>
-      </c>
+      <c r="F74" s="486"/>
       <c r="G74" s="79" t="s">
         <v>1153</v>
       </c>
@@ -41130,9 +41019,7 @@
         <f t="shared" si="11"/>
         <v>6029_상세.jpg</v>
       </c>
-      <c r="F75" s="171" t="s">
-        <v>1276</v>
-      </c>
+      <c r="F75" s="486"/>
       <c r="G75" s="79" t="s">
         <v>1153</v>
       </c>
@@ -41173,7 +41060,7 @@
         <v>짱구(115g)[6029/1]</v>
       </c>
       <c r="U75" s="109" t="s">
-        <v>518</v>
+        <v>1373</v>
       </c>
       <c r="V75" s="109" t="s">
         <v>518</v>
@@ -41201,9 +41088,7 @@
         <f t="shared" si="11"/>
         <v>6030_상세.jpg</v>
       </c>
-      <c r="F76" s="171" t="s">
-        <v>1277</v>
-      </c>
+      <c r="F76" s="486"/>
       <c r="G76" s="79" t="s">
         <v>1153</v>
       </c>
@@ -41272,9 +41157,7 @@
         <f t="shared" si="11"/>
         <v>6041_상세.jpg</v>
       </c>
-      <c r="F77" s="171" t="s">
-        <v>1278</v>
-      </c>
+      <c r="F77" s="486"/>
       <c r="G77" s="413" t="s">
         <v>1153</v>
       </c>
@@ -41344,7 +41227,7 @@
         <v>5793_상세.jpg</v>
       </c>
       <c r="F78" s="171" t="s">
-        <v>1279</v>
+        <v>1252</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>1158</v>
@@ -41415,7 +41298,7 @@
         <v>5794_상세.jpg</v>
       </c>
       <c r="F79" s="171" t="s">
-        <v>1280</v>
+        <v>1253</v>
       </c>
       <c r="G79" s="77" t="s">
         <v>1158</v>
@@ -41486,7 +41369,7 @@
         <v>5795_상세.jpg</v>
       </c>
       <c r="F80" s="171" t="s">
-        <v>1281</v>
+        <v>1254</v>
       </c>
       <c r="G80" s="139" t="s">
         <v>1158</v>
@@ -43181,7 +43064,7 @@
         <v>9249_상세.jpg</v>
       </c>
       <c r="F103" s="171" t="s">
-        <v>1282</v>
+        <v>1255</v>
       </c>
       <c r="G103" s="36" t="s">
         <v>1158</v>
@@ -43404,7 +43287,7 @@
         <v>9553_상세.jpg</v>
       </c>
       <c r="F106" s="171" t="s">
-        <v>1283</v>
+        <v>1256</v>
       </c>
       <c r="G106" s="77" t="s">
         <v>1158</v>
@@ -43477,7 +43360,7 @@
         <v>9564_상세.jpg</v>
       </c>
       <c r="F107" s="171" t="s">
-        <v>1284</v>
+        <v>1257</v>
       </c>
       <c r="G107" s="415" t="s">
         <v>1164</v>
@@ -43943,7 +43826,7 @@
         <v>1022</v>
       </c>
       <c r="W1" s="65" t="s">
-        <v>1382</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -43962,7 +43845,7 @@
         <v>906_상세.jpg</v>
       </c>
       <c r="E2" s="171" t="s">
-        <v>1303</v>
+        <v>1276</v>
       </c>
       <c r="F2" s="412" t="s">
         <v>1065</v>
@@ -44030,7 +43913,7 @@
         <v>908_상세.jpg</v>
       </c>
       <c r="E3" s="171" t="s">
-        <v>1304</v>
+        <v>1277</v>
       </c>
       <c r="F3" s="77" t="s">
         <v>935</v>
@@ -44098,7 +43981,7 @@
         <v>912_상세.jpg</v>
       </c>
       <c r="E4" s="171" t="s">
-        <v>1305</v>
+        <v>1278</v>
       </c>
       <c r="F4" s="77" t="s">
         <v>935</v>
@@ -44166,7 +44049,7 @@
         <v>951_상세.jpg</v>
       </c>
       <c r="E5" s="171" t="s">
-        <v>1306</v>
+        <v>1279</v>
       </c>
       <c r="F5" s="77" t="s">
         <v>935</v>
@@ -44234,7 +44117,7 @@
         <v>953_상세.jpg</v>
       </c>
       <c r="E6" s="171" t="s">
-        <v>1307</v>
+        <v>1280</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>1168</v>
@@ -44302,7 +44185,7 @@
         <v>954_상세.jpg</v>
       </c>
       <c r="E7" s="171" t="s">
-        <v>1308</v>
+        <v>1281</v>
       </c>
       <c r="F7" s="87" t="s">
         <v>1168</v>
@@ -44370,7 +44253,7 @@
         <v>955_상세.jpg</v>
       </c>
       <c r="E8" s="171" t="s">
-        <v>1309</v>
+        <v>1282</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>1168</v>
@@ -44438,7 +44321,7 @@
         <v>957_상세.jpg</v>
       </c>
       <c r="E9" s="171" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>935</v>
@@ -44506,7 +44389,7 @@
         <v>959_상세.jpg</v>
       </c>
       <c r="E10" s="171" t="s">
-        <v>1311</v>
+        <v>1284</v>
       </c>
       <c r="F10" s="87" t="s">
         <v>1168</v>
@@ -44574,7 +44457,7 @@
         <v>961_상세.jpg</v>
       </c>
       <c r="E11" s="171" t="s">
-        <v>1312</v>
+        <v>1285</v>
       </c>
       <c r="F11" s="77" t="s">
         <v>935</v>
@@ -44642,7 +44525,7 @@
         <v>962_상세.jpg</v>
       </c>
       <c r="E12" s="171" t="s">
-        <v>1313</v>
+        <v>1286</v>
       </c>
       <c r="F12" s="77" t="s">
         <v>935</v>
@@ -44710,7 +44593,7 @@
         <v>963_상세.jpg</v>
       </c>
       <c r="E13" s="171" t="s">
-        <v>1314</v>
+        <v>1287</v>
       </c>
       <c r="F13" s="77" t="s">
         <v>935</v>
@@ -44778,7 +44661,7 @@
         <v>964_상세.jpg</v>
       </c>
       <c r="E14" s="171" t="s">
-        <v>1315</v>
+        <v>1288</v>
       </c>
       <c r="F14" s="77" t="s">
         <v>935</v>
@@ -44846,7 +44729,7 @@
         <v>968_상세.jpg</v>
       </c>
       <c r="E15" s="171" t="s">
-        <v>1316</v>
+        <v>1289</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>1168</v>
@@ -44914,7 +44797,7 @@
         <v>969_상세.jpg</v>
       </c>
       <c r="E16" s="171" t="s">
-        <v>1317</v>
+        <v>1290</v>
       </c>
       <c r="F16" s="87" t="s">
         <v>1168</v>
@@ -44982,7 +44865,7 @@
         <v>970_상세.jpg</v>
       </c>
       <c r="E17" s="171" t="s">
-        <v>1318</v>
+        <v>1291</v>
       </c>
       <c r="F17" s="412" t="s">
         <v>1065</v>
@@ -45050,7 +44933,7 @@
         <v>971_상세.jpg</v>
       </c>
       <c r="E18" s="171" t="s">
-        <v>1319</v>
+        <v>1292</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>1065</v>
@@ -45118,7 +45001,7 @@
         <v>972_상세.jpg</v>
       </c>
       <c r="E19" s="171" t="s">
-        <v>1320</v>
+        <v>1293</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>1065</v>
@@ -45186,7 +45069,7 @@
         <v>974_상세.jpg</v>
       </c>
       <c r="E20" s="171" t="s">
-        <v>1321</v>
+        <v>1294</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>1168</v>
@@ -45254,7 +45137,7 @@
         <v>977_상세.jpg</v>
       </c>
       <c r="E21" s="171" t="s">
-        <v>1322</v>
+        <v>1295</v>
       </c>
       <c r="F21" s="442" t="s">
         <v>1168</v>
@@ -45365,7 +45248,7 @@
         <v>554</v>
       </c>
       <c r="U22" s="509" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V22" s="193"/>
       <c r="W22" s="193"/>
@@ -45429,7 +45312,7 @@
         <v>554</v>
       </c>
       <c r="U23" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V23" s="195"/>
       <c r="W23" s="195"/>
@@ -45454,10 +45337,10 @@
         <v>1065</v>
       </c>
       <c r="G24" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>1379</v>
+        <v>1352</v>
       </c>
       <c r="I24" s="97" t="s">
         <v>657</v>
@@ -45493,11 +45376,11 @@
         <v>554</v>
       </c>
       <c r="U24" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V24" s="195"/>
       <c r="W24" s="508" t="s">
-        <v>1378</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -45523,7 +45406,7 @@
         <v>1168</v>
       </c>
       <c r="H25" s="89" t="s">
-        <v>1372</v>
+        <v>1345</v>
       </c>
       <c r="I25" s="97" t="s">
         <v>657</v>
@@ -45559,7 +45442,7 @@
         <v>554</v>
       </c>
       <c r="U25" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V25" s="67"/>
       <c r="W25" s="506"/>
@@ -45584,7 +45467,7 @@
         <v>1065</v>
       </c>
       <c r="G26" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H26" s="78" t="s">
         <v>796</v>
@@ -45623,7 +45506,7 @@
         <v>554</v>
       </c>
       <c r="U26" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V26" s="195"/>
       <c r="W26" s="505"/>
@@ -45648,10 +45531,10 @@
         <v>1168</v>
       </c>
       <c r="G27" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H27" s="89" t="s">
-        <v>1369</v>
+        <v>1342</v>
       </c>
       <c r="I27" s="97" t="s">
         <v>657</v>
@@ -45687,7 +45570,7 @@
         <v>554</v>
       </c>
       <c r="U27" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V27" s="67"/>
       <c r="W27" s="506"/>
@@ -45709,13 +45592,13 @@
       </c>
       <c r="E28" s="486"/>
       <c r="F28" s="87" t="s">
-        <v>1376</v>
+        <v>1349</v>
       </c>
       <c r="G28" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>1375</v>
+        <v>1348</v>
       </c>
       <c r="I28" s="97" t="s">
         <v>657</v>
@@ -45751,7 +45634,7 @@
         <v>554</v>
       </c>
       <c r="U28" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V28" s="195"/>
       <c r="W28" s="505"/>
@@ -45776,10 +45659,10 @@
         <v>1168</v>
       </c>
       <c r="G29" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H29" s="89" t="s">
-        <v>1377</v>
+        <v>1350</v>
       </c>
       <c r="I29" s="97" t="s">
         <v>657</v>
@@ -45815,7 +45698,7 @@
         <v>554</v>
       </c>
       <c r="U29" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V29" s="67"/>
       <c r="W29" s="506"/>
@@ -45840,10 +45723,10 @@
         <v>935</v>
       </c>
       <c r="G30" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H30" s="89" t="s">
-        <v>1370</v>
+        <v>1343</v>
       </c>
       <c r="I30" s="97" t="s">
         <v>775</v>
@@ -45879,7 +45762,7 @@
         <v>554</v>
       </c>
       <c r="U30" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V30" s="67"/>
       <c r="W30" s="506"/>
@@ -45904,7 +45787,7 @@
         <v>1065</v>
       </c>
       <c r="G31" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H31" s="89" t="s">
         <v>794</v>
@@ -45943,11 +45826,11 @@
         <v>554</v>
       </c>
       <c r="U31" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V31" s="67"/>
       <c r="W31" s="507" t="s">
-        <v>1374</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -45970,7 +45853,7 @@
         <v>935</v>
       </c>
       <c r="G32" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H32" s="78" t="s">
         <v>309</v>
@@ -46009,11 +45892,11 @@
         <v>554</v>
       </c>
       <c r="U32" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V32" s="195"/>
       <c r="W32" s="508" t="s">
-        <v>1373</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -46075,7 +45958,7 @@
         <v>554</v>
       </c>
       <c r="U33" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V33" s="67"/>
       <c r="W33" s="506"/>
@@ -46139,11 +46022,11 @@
         <v>554</v>
       </c>
       <c r="U34" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V34" s="195"/>
       <c r="W34" s="508" t="s">
-        <v>1373</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -46166,10 +46049,10 @@
         <v>1065</v>
       </c>
       <c r="G35" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>1380</v>
+        <v>1353</v>
       </c>
       <c r="I35" s="196" t="s">
         <v>778</v>
@@ -46205,11 +46088,11 @@
         <v>554</v>
       </c>
       <c r="U35" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V35" s="195"/>
       <c r="W35" s="507" t="s">
-        <v>1381</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="17.25" thickBot="1">
@@ -46232,10 +46115,10 @@
         <v>1065</v>
       </c>
       <c r="G36" s="482" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
       <c r="H36" s="102" t="s">
-        <v>1371</v>
+        <v>1344</v>
       </c>
       <c r="I36" s="103" t="s">
         <v>657</v>
@@ -46271,7 +46154,7 @@
         <v>554</v>
       </c>
       <c r="U36" s="163" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="V36" s="176"/>
       <c r="W36" s="176"/>
@@ -46428,7 +46311,7 @@
         <v>1150</v>
       </c>
       <c r="AA1" s="65" t="s">
-        <v>1389</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -46442,23 +46325,23 @@
         <v>1416</v>
       </c>
       <c r="D2" s="171" t="str">
-        <f t="shared" ref="D2:E51" si="0">CONCATENATE(C2,"_450x450.jpg")</f>
+        <f t="shared" ref="D2:D51" si="0">CONCATENATE(C2,"_450x450.jpg")</f>
         <v>1416_450x450.jpg</v>
       </c>
       <c r="E2" s="171" t="str">
         <f>CONCATENATE(C2,"_상세.jpg")</f>
         <v>1416_상세.jpg</v>
       </c>
-      <c r="F2" s="526"/>
+      <c r="F2" s="517"/>
       <c r="G2" s="87"/>
       <c r="H2" s="87" t="s">
         <v>1168</v>
       </c>
-      <c r="I2" s="519" t="s">
-        <v>1385</v>
+      <c r="I2" s="510" t="s">
+        <v>1358</v>
       </c>
       <c r="J2" s="230" t="s">
-        <v>1384</v>
+        <v>1357</v>
       </c>
       <c r="K2" s="171" t="s">
         <v>349</v>
@@ -46489,7 +46372,7 @@
         <v>50002032</v>
       </c>
       <c r="U2" s="74" t="str">
-        <f>CONCATENATE(J2,"[",C2,"/",L2,"]")</f>
+        <f t="shared" ref="U2:U33" si="1">CONCATENATE(J2,"[",C2,"/",L2,"]")</f>
         <v>파워오투 아이스베리 24개입[1416/24]</v>
       </c>
       <c r="V2" s="163" t="s">
@@ -46525,10 +46408,10 @@
         <v>1418_450x450.jpg</v>
       </c>
       <c r="E3" s="171" t="str">
-        <f t="shared" ref="E3:E51" si="1">CONCATENATE(C3,"_상세.jpg")</f>
+        <f t="shared" ref="E3:E51" si="2">CONCATENATE(C3,"_상세.jpg")</f>
         <v>1418_상세.jpg</v>
       </c>
-      <c r="F3" s="526"/>
+      <c r="F3" s="517"/>
       <c r="G3" s="87"/>
       <c r="H3" s="87" t="s">
         <v>1168</v>
@@ -46568,7 +46451,7 @@
         <v>50002032</v>
       </c>
       <c r="U3" s="74" t="str">
-        <f>CONCATENATE(J3,"[",C3,"/",L3,"]")</f>
+        <f t="shared" si="1"/>
         <v>파워오투 애플키위맛 24개입[1418/24]</v>
       </c>
       <c r="V3" s="163" t="s">
@@ -46601,10 +46484,10 @@
         <v>1419_450x450.jpg</v>
       </c>
       <c r="E4" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1419_상세.jpg</v>
       </c>
-      <c r="F4" s="526"/>
+      <c r="F4" s="517"/>
       <c r="G4" s="87"/>
       <c r="H4" s="87" t="s">
         <v>1168</v>
@@ -46644,7 +46527,7 @@
         <v>50002032</v>
       </c>
       <c r="U4" s="74" t="str">
-        <f>CONCATENATE(J4,"[",C4,"/",L4,"]")</f>
+        <f t="shared" si="1"/>
         <v>파워오투 오렌지레몬맛 24개입[1419/24]</v>
       </c>
       <c r="V4" s="163" t="s">
@@ -46677,10 +46560,10 @@
         <v>1447_450x450.jpg</v>
       </c>
       <c r="E5" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1447_상세.jpg</v>
       </c>
-      <c r="F5" s="526"/>
+      <c r="F5" s="517"/>
       <c r="G5" s="87"/>
       <c r="H5" s="87" t="s">
         <v>1168</v>
@@ -46720,7 +46603,7 @@
         <v>50002032</v>
       </c>
       <c r="U5" s="74" t="str">
-        <f>CONCATENATE(J5,"[",C5,"/",L5,"]")</f>
+        <f t="shared" si="1"/>
         <v>파워오투 스포츠레몬 24개입[1447/24]</v>
       </c>
       <c r="V5" s="163" t="s">
@@ -46753,10 +46636,10 @@
         <v>1594_450x450.jpg</v>
       </c>
       <c r="E6" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1594_상세.jpg</v>
       </c>
-      <c r="F6" s="526"/>
+      <c r="F6" s="517"/>
       <c r="G6" s="77" t="s">
         <v>935</v>
       </c>
@@ -46798,7 +46681,7 @@
         <v>50002032</v>
       </c>
       <c r="U6" s="74" t="str">
-        <f>CONCATENATE(J6,"[",C6,"/",L6,"]")</f>
+        <f t="shared" si="1"/>
         <v>백산수2.0L /6개입[1594/6]</v>
       </c>
       <c r="V6" s="80" t="s">
@@ -46832,10 +46715,10 @@
         <v>1596_450x450.jpg</v>
       </c>
       <c r="E7" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1596_상세.jpg</v>
       </c>
-      <c r="F7" s="526"/>
+      <c r="F7" s="517"/>
       <c r="G7" s="87"/>
       <c r="H7" s="87" t="s">
         <v>1168</v>
@@ -46875,7 +46758,7 @@
         <v>50002032</v>
       </c>
       <c r="U7" s="74" t="str">
-        <f>CONCATENATE(J7,"[",C7,"/",L7,"]")</f>
+        <f t="shared" si="1"/>
         <v>백산수0.5L /20개입[1596/20]</v>
       </c>
       <c r="V7" s="80" t="s">
@@ -46906,10 +46789,10 @@
         <v>1579_450x450.jpg</v>
       </c>
       <c r="E8" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1579_상세.jpg</v>
       </c>
-      <c r="F8" s="526"/>
+      <c r="F8" s="517"/>
       <c r="G8" s="87"/>
       <c r="H8" s="87" t="s">
         <v>1168</v>
@@ -46947,7 +46830,7 @@
         <v>50002265</v>
       </c>
       <c r="U8" s="74" t="str">
-        <f>CONCATENATE(J8,"[",C8,"/",L8,"]")</f>
+        <f t="shared" si="1"/>
         <v>카프리썬 오렌지/10개입[1579/10]</v>
       </c>
       <c r="V8" s="80" t="s">
@@ -46979,10 +46862,10 @@
         <v>1580_450x450.jpg</v>
       </c>
       <c r="E9" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1580_상세.jpg</v>
       </c>
-      <c r="F9" s="526"/>
+      <c r="F9" s="517"/>
       <c r="G9" s="87"/>
       <c r="H9" s="87" t="s">
         <v>1168</v>
@@ -47020,7 +46903,7 @@
         <v>50002265</v>
       </c>
       <c r="U9" s="74" t="str">
-        <f>CONCATENATE(J9,"[",C9,"/",L9,"]")</f>
+        <f t="shared" si="1"/>
         <v>카프리썬 사파리/10개입[1580/10]</v>
       </c>
       <c r="V9" s="80" t="s">
@@ -47049,10 +46932,10 @@
         <v>1581_450x450.jpg</v>
       </c>
       <c r="E10" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1581_상세.jpg</v>
       </c>
-      <c r="F10" s="526"/>
+      <c r="F10" s="517"/>
       <c r="G10" s="87"/>
       <c r="H10" s="87" t="s">
         <v>1168</v>
@@ -47090,7 +46973,7 @@
         <v>50002265</v>
       </c>
       <c r="U10" s="74" t="str">
-        <f>CONCATENATE(J10,"[",C10,"/",L10,"]")</f>
+        <f t="shared" si="1"/>
         <v>카프리썬 알라스카 아이스티/10개입[1581/10]</v>
       </c>
       <c r="V10" s="159" t="s">
@@ -47121,10 +47004,10 @@
         <v>1583_450x450.jpg</v>
       </c>
       <c r="E11" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1583_상세.jpg</v>
       </c>
-      <c r="F11" s="526"/>
+      <c r="F11" s="517"/>
       <c r="G11" s="87"/>
       <c r="H11" s="87" t="s">
         <v>1168</v>
@@ -47162,7 +47045,7 @@
         <v>50002265</v>
       </c>
       <c r="U11" s="74" t="str">
-        <f>CONCATENATE(J11,"[",C11,"/",L11,"]")</f>
+        <f t="shared" si="1"/>
         <v>카프리썬 사과맛/10개입[1583/10]</v>
       </c>
       <c r="V11" s="80" t="s">
@@ -47191,10 +47074,10 @@
         <v>1584_450x450.jpg</v>
       </c>
       <c r="E12" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1584_상세.jpg</v>
       </c>
-      <c r="F12" s="526"/>
+      <c r="F12" s="517"/>
       <c r="G12" s="87"/>
       <c r="H12" s="87" t="s">
         <v>1168</v>
@@ -47232,7 +47115,7 @@
         <v>50002265</v>
       </c>
       <c r="U12" s="74" t="str">
-        <f>CONCATENATE(J12,"[",C12,"/",L12,"]")</f>
+        <f t="shared" si="1"/>
         <v>카프리썬 딸기와키위/10개입[1584/10]</v>
       </c>
       <c r="V12" s="83" t="s">
@@ -47261,10 +47144,10 @@
         <v>1588_450x450.jpg</v>
       </c>
       <c r="E13" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1588_상세.jpg</v>
       </c>
-      <c r="F13" s="526"/>
+      <c r="F13" s="517"/>
       <c r="G13" s="87"/>
       <c r="H13" s="87" t="s">
         <v>1168</v>
@@ -47302,7 +47185,7 @@
         <v>50002265</v>
       </c>
       <c r="U13" s="74" t="str">
-        <f>CONCATENATE(J13,"[",C13,"/",L13,"]")</f>
+        <f t="shared" si="1"/>
         <v>카프리썬 오렌지망고/10개입[1588/10]</v>
       </c>
       <c r="V13" s="83" t="s">
@@ -47331,19 +47214,19 @@
         <v>1589_450x450.jpg</v>
       </c>
       <c r="E14" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1589_상세.jpg</v>
       </c>
-      <c r="F14" s="526"/>
+      <c r="F14" s="517"/>
       <c r="G14" s="87"/>
       <c r="H14" s="412" t="s">
         <v>1065</v>
       </c>
-      <c r="I14" s="519" t="s">
-        <v>1385</v>
+      <c r="I14" s="510" t="s">
+        <v>1358</v>
       </c>
       <c r="J14" s="230" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="K14" s="171" t="s">
         <v>340</v>
@@ -47372,7 +47255,7 @@
         <v>50002265</v>
       </c>
       <c r="U14" s="74" t="str">
-        <f>CONCATENATE(J14,"[",C14,"/",L14,"]")</f>
+        <f t="shared" si="1"/>
         <v>카프리썬 페어리드링크/10개입[1589/10]</v>
       </c>
       <c r="V14" s="83" t="s">
@@ -47401,19 +47284,19 @@
         <v>1640_450x450.jpg</v>
       </c>
       <c r="E15" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1640_상세.jpg</v>
       </c>
-      <c r="F15" s="526"/>
+      <c r="F15" s="517"/>
       <c r="G15" s="87"/>
       <c r="H15" s="87" t="s">
         <v>1168</v>
       </c>
-      <c r="I15" s="519" t="s">
-        <v>1385</v>
+      <c r="I15" s="510" t="s">
+        <v>1358</v>
       </c>
       <c r="J15" s="230" t="s">
-        <v>1387</v>
+        <v>1360</v>
       </c>
       <c r="K15" s="171" t="s">
         <v>346</v>
@@ -47442,7 +47325,7 @@
         <v>50002250</v>
       </c>
       <c r="U15" s="74" t="str">
-        <f>CONCATENATE(J15,"[",C15,"/",L15,"]")</f>
+        <f t="shared" si="1"/>
         <v>웰치소다 포도(250ml)30개입[1640/30]</v>
       </c>
       <c r="V15" s="83" t="s">
@@ -47476,10 +47359,10 @@
         <v>1641_450x450.jpg</v>
       </c>
       <c r="E16" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1641_상세.jpg</v>
       </c>
-      <c r="F16" s="526"/>
+      <c r="F16" s="517"/>
       <c r="G16" s="87"/>
       <c r="H16" s="87" t="s">
         <v>1168</v>
@@ -47517,7 +47400,7 @@
         <v>50002250</v>
       </c>
       <c r="U16" s="74" t="str">
-        <f>CONCATENATE(J16,"[",C16,"/",L16,"]")</f>
+        <f t="shared" si="1"/>
         <v>웰치소다 포도(355ml)/24개입[1641/24]</v>
       </c>
       <c r="V16" s="83" t="s">
@@ -47548,10 +47431,10 @@
         <v>1642_450x450.jpg</v>
       </c>
       <c r="E17" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1642_상세.jpg</v>
       </c>
-      <c r="F17" s="526"/>
+      <c r="F17" s="517"/>
       <c r="G17" s="87"/>
       <c r="H17" s="87" t="s">
         <v>1168</v>
@@ -47589,7 +47472,7 @@
         <v>50002250</v>
       </c>
       <c r="U17" s="74" t="str">
-        <f>CONCATENATE(J17,"[",C17,"/",L17,"]")</f>
+        <f t="shared" si="1"/>
         <v>웰치소다 딸기(355ml)/24개입[1642/24]</v>
       </c>
       <c r="V17" s="83" t="s">
@@ -47620,10 +47503,10 @@
         <v>1653_450x450.jpg</v>
       </c>
       <c r="E18" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1653_상세.jpg</v>
       </c>
-      <c r="F18" s="526"/>
+      <c r="F18" s="517"/>
       <c r="G18" s="87"/>
       <c r="H18" s="87" t="s">
         <v>1168</v>
@@ -47661,7 +47544,7 @@
         <v>50002250</v>
       </c>
       <c r="U18" s="74" t="str">
-        <f>CONCATENATE(J18,"[",C18,"/",L18,"]")</f>
+        <f t="shared" si="1"/>
         <v>웰치소다 청포도(355ml)/24개입[1653/24]</v>
       </c>
       <c r="V18" s="83" t="s">
@@ -47692,19 +47575,19 @@
         <v>1996_450x450.jpg</v>
       </c>
       <c r="E19" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1996_상세.jpg</v>
       </c>
-      <c r="F19" s="526"/>
+      <c r="F19" s="517"/>
       <c r="G19" s="87"/>
       <c r="H19" s="412" t="s">
         <v>1065</v>
       </c>
-      <c r="I19" s="519" t="s">
-        <v>1385</v>
+      <c r="I19" s="510" t="s">
+        <v>1358</v>
       </c>
       <c r="J19" s="230" t="s">
-        <v>1388</v>
+        <v>1361</v>
       </c>
       <c r="K19" s="171" t="s">
         <v>348</v>
@@ -47733,7 +47616,7 @@
         <v>50002250</v>
       </c>
       <c r="U19" s="74" t="str">
-        <f>CONCATENATE(J19,"[",C19,"/",L19,"]")</f>
+        <f t="shared" si="1"/>
         <v>웰치소다 청포도(1.5L)/6입[1996/6]</v>
       </c>
       <c r="V19" s="83" t="s">
@@ -47747,8 +47630,8 @@
         <v>1101</v>
       </c>
       <c r="Z19" s="215"/>
-      <c r="AA19" s="524" t="s">
-        <v>1392</v>
+      <c r="AA19" s="515" t="s">
+        <v>1365</v>
       </c>
       <c r="AB19" s="20" t="s">
         <v>646</v>
@@ -47769,16 +47652,16 @@
         <v>1997_450x450.jpg</v>
       </c>
       <c r="E20" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1997_상세.jpg</v>
       </c>
-      <c r="F20" s="526"/>
+      <c r="F20" s="517"/>
       <c r="G20" s="77"/>
       <c r="H20" s="412" t="s">
         <v>1065</v>
       </c>
-      <c r="I20" s="519" t="s">
-        <v>1385</v>
+      <c r="I20" s="510" t="s">
+        <v>1358</v>
       </c>
       <c r="J20" s="230" t="s">
         <v>1105</v>
@@ -47810,7 +47693,7 @@
         <v>50002250</v>
       </c>
       <c r="U20" s="74" t="str">
-        <f>CONCATENATE(J20,"[",C20,"/",L20,"]")</f>
+        <f t="shared" si="1"/>
         <v>웰치소다 청포도(500ml)/24입[1997/24]</v>
       </c>
       <c r="V20" s="83" t="s">
@@ -47824,8 +47707,8 @@
         <v>1101</v>
       </c>
       <c r="Z20" s="215"/>
-      <c r="AA20" s="524" t="s">
-        <v>1392</v>
+      <c r="AA20" s="515" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -47843,16 +47726,16 @@
         <v>1998_450x450.jpg</v>
       </c>
       <c r="E21" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1998_상세.jpg</v>
       </c>
-      <c r="F21" s="526"/>
+      <c r="F21" s="517"/>
       <c r="G21" s="77"/>
       <c r="H21" s="412" t="s">
         <v>1065</v>
       </c>
-      <c r="I21" s="519" t="s">
-        <v>1385</v>
+      <c r="I21" s="510" t="s">
+        <v>1358</v>
       </c>
       <c r="J21" s="230" t="s">
         <v>1106</v>
@@ -47884,7 +47767,7 @@
         <v>50002250</v>
       </c>
       <c r="U21" s="74" t="str">
-        <f>CONCATENATE(J21,"[",C21,"/",L21,"]")</f>
+        <f t="shared" si="1"/>
         <v>웰치소다 포도(500ml)/24입[1998/24]</v>
       </c>
       <c r="V21" s="83" t="s">
@@ -47914,16 +47797,16 @@
         <v>1999_450x450.jpg</v>
       </c>
       <c r="E22" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1999_상세.jpg</v>
       </c>
-      <c r="F22" s="526"/>
+      <c r="F22" s="517"/>
       <c r="G22" s="142"/>
       <c r="H22" s="414" t="s">
         <v>1065</v>
       </c>
-      <c r="I22" s="519" t="s">
-        <v>1385</v>
+      <c r="I22" s="510" t="s">
+        <v>1358</v>
       </c>
       <c r="J22" s="403" t="s">
         <v>1107</v>
@@ -47955,7 +47838,7 @@
         <v>50002250</v>
       </c>
       <c r="U22" s="119" t="str">
-        <f>CONCATENATE(J22,"[",C22,"/",L22,"]")</f>
+        <f t="shared" si="1"/>
         <v>웰치소다 포도(1.5L)/6입[1999/6]</v>
       </c>
       <c r="V22" s="118" t="s">
@@ -47984,7 +47867,7 @@
         <v>0452_450x450.jpg</v>
       </c>
       <c r="E23" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0452_상세.jpg</v>
       </c>
       <c r="F23" s="36" t="s">
@@ -48027,7 +47910,7 @@
         <v>50002384</v>
       </c>
       <c r="U23" s="25" t="str">
-        <f>CONCATENATE(J23,"[",C23,"/",L23,"]")</f>
+        <f t="shared" si="1"/>
         <v>맑은티엔 둥굴레 410mlx20병[0452/20]</v>
       </c>
       <c r="V23" s="26" t="s">
@@ -48059,7 +47942,7 @@
         <v>0454_450x450.jpg</v>
       </c>
       <c r="E24" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0454_상세.jpg</v>
       </c>
       <c r="F24" s="77" t="s">
@@ -48102,7 +47985,7 @@
         <v>50002384</v>
       </c>
       <c r="U24" s="74" t="str">
-        <f>CONCATENATE(J24,"[",C24,"/",L24,"]")</f>
+        <f t="shared" si="1"/>
         <v>맑은티엔 루이보스 410mlx20병[0454/20]</v>
       </c>
       <c r="V24" s="83" t="s">
@@ -48133,7 +48016,7 @@
         <v>0450_450x450.jpg</v>
       </c>
       <c r="E25" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0450_상세.jpg</v>
       </c>
       <c r="F25" s="77" t="s">
@@ -48176,7 +48059,7 @@
         <v>50002384</v>
       </c>
       <c r="U25" s="74" t="str">
-        <f>CONCATENATE(J25,"[",C25,"/",L25,"]")</f>
+        <f t="shared" si="1"/>
         <v>맑은티엔 보리차  410mlx20병[0450/20]</v>
       </c>
       <c r="V25" s="83" t="s">
@@ -48208,7 +48091,7 @@
         <v>0451_450x450.jpg</v>
       </c>
       <c r="E26" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0451_상세.jpg</v>
       </c>
       <c r="F26" s="77" t="s">
@@ -48251,7 +48134,7 @@
         <v>50002384</v>
       </c>
       <c r="U26" s="74" t="str">
-        <f>CONCATENATE(J26,"[",C26,"/",L26,"]")</f>
+        <f t="shared" si="1"/>
         <v>맑은티엔 옥수수 410mlx20병[0451/20]</v>
       </c>
       <c r="V26" s="83" t="s">
@@ -48282,7 +48165,7 @@
         <v>0453_450x450.jpg</v>
       </c>
       <c r="E27" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0453_상세.jpg</v>
       </c>
       <c r="F27" s="77" t="s">
@@ -48325,7 +48208,7 @@
         <v>50002384</v>
       </c>
       <c r="U27" s="74" t="str">
-        <f>CONCATENATE(J27,"[",C27,"/",L27,"]")</f>
+        <f t="shared" si="1"/>
         <v>맑은티엔 현미 410mlx20병[0453/20]</v>
       </c>
       <c r="V27" s="83" t="s">
@@ -48354,7 +48237,7 @@
         <v>403_450x450.jpg</v>
       </c>
       <c r="E28" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>403_상세.jpg</v>
       </c>
       <c r="F28" s="77" t="s">
@@ -48397,7 +48280,7 @@
         <v>50002267</v>
       </c>
       <c r="U28" s="74" t="str">
-        <f>CONCATENATE(J28,"[",C28,"/",L28,"]")</f>
+        <f t="shared" si="1"/>
         <v>제티 초코렛맛 175mlx30캔[403/30]</v>
       </c>
       <c r="V28" s="83" t="s">
@@ -48431,7 +48314,7 @@
         <v>477_450x450.jpg</v>
       </c>
       <c r="E29" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>477_상세.jpg</v>
       </c>
       <c r="F29" s="77" t="s">
@@ -48470,7 +48353,7 @@
         <v>50002380</v>
       </c>
       <c r="U29" s="74" t="str">
-        <f>CONCATENATE(J29,"[",C29,"/",L29,"]")</f>
+        <f t="shared" si="1"/>
         <v>동서 타라 아쌈밀크티 275mlx20개입[477/20]</v>
       </c>
       <c r="V29" s="83" t="s">
@@ -48503,7 +48386,7 @@
         <v>476_450x450.jpg</v>
       </c>
       <c r="E30" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>476_상세.jpg</v>
       </c>
       <c r="F30" s="77" t="s">
@@ -48542,7 +48425,7 @@
         <v>50002380</v>
       </c>
       <c r="U30" s="74" t="str">
-        <f>CONCATENATE(J30,"[",C30,"/",L30,"]")</f>
+        <f t="shared" si="1"/>
         <v>동서 타라 우바밀크티 275mlx20개입[476/20]</v>
       </c>
       <c r="V30" s="83" t="s">
@@ -48575,7 +48458,7 @@
         <v>655_450x450.jpg</v>
       </c>
       <c r="E31" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>655_상세.jpg</v>
       </c>
       <c r="F31" s="77" t="s">
@@ -48616,7 +48499,7 @@
         <v>50002605</v>
       </c>
       <c r="U31" s="74" t="str">
-        <f>CONCATENATE(J31,"[",C31,"/",L31,"]")</f>
+        <f t="shared" si="1"/>
         <v>T.O.P 더블랙 200mlx30캔[655/30]</v>
       </c>
       <c r="V31" s="83" t="s">
@@ -48647,7 +48530,7 @@
         <v>426_450x450.jpg</v>
       </c>
       <c r="E32" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>426_상세.jpg</v>
       </c>
       <c r="F32" s="77" t="s">
@@ -48686,7 +48569,7 @@
         <v>50002605</v>
       </c>
       <c r="U32" s="74" t="str">
-        <f>CONCATENATE(J32,"[",C32,"/",L32,"]")</f>
+        <f t="shared" si="1"/>
         <v>T.O.P 더블랙 275mlx20캔[426/20]</v>
       </c>
       <c r="V32" s="83" t="s">
@@ -48718,7 +48601,7 @@
         <v>464_450x450.jpg</v>
       </c>
       <c r="E33" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>464_상세.jpg</v>
       </c>
       <c r="F33" s="77" t="s">
@@ -48757,7 +48640,7 @@
         <v>50002605</v>
       </c>
       <c r="U33" s="74" t="str">
-        <f>CONCATENATE(J33,"[",C33,"/",L33,"]")</f>
+        <f t="shared" si="1"/>
         <v>T.O.P 더블랙 380mlx20캔[464/20]</v>
       </c>
       <c r="V33" s="83" t="s">
@@ -48789,7 +48672,7 @@
         <v>651_450x450.jpg</v>
       </c>
       <c r="E34" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>651_상세.jpg</v>
       </c>
       <c r="F34" s="77" t="s">
@@ -48828,7 +48711,7 @@
         <v>50002605</v>
       </c>
       <c r="U34" s="74" t="str">
-        <f>CONCATENATE(J34,"[",C34,"/",L34,"]")</f>
+        <f t="shared" ref="U34:U51" si="3">CONCATENATE(J34,"[",C34,"/",L34,"]")</f>
         <v>T.O.P 마스터라떼 200mlx30캔[651/30]</v>
       </c>
       <c r="V34" s="83" t="s">
@@ -48859,7 +48742,7 @@
         <v>422_450x450.jpg</v>
       </c>
       <c r="E35" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>422_상세.jpg</v>
       </c>
       <c r="F35" s="77" t="s">
@@ -48898,7 +48781,7 @@
         <v>50002605</v>
       </c>
       <c r="U35" s="74" t="str">
-        <f>CONCATENATE(J35,"[",C35,"/",L35,"]")</f>
+        <f t="shared" si="3"/>
         <v>T.O.P 마스터라떼 275mlx20캔[422/20]</v>
       </c>
       <c r="V35" s="83" t="s">
@@ -48930,7 +48813,7 @@
         <v>462_450x450.jpg</v>
       </c>
       <c r="E36" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>462_상세.jpg</v>
       </c>
       <c r="F36" s="77" t="s">
@@ -48969,7 +48852,7 @@
         <v>50002605</v>
       </c>
       <c r="U36" s="74" t="str">
-        <f>CONCATENATE(J36,"[",C36,"/",L36,"]")</f>
+        <f t="shared" si="3"/>
         <v>T.O.P 마스터라떼 380mlx20캔[462/20]</v>
       </c>
       <c r="V36" s="83" t="s">
@@ -49001,7 +48884,7 @@
         <v>653_450x450.jpg</v>
       </c>
       <c r="E37" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>653_상세.jpg</v>
       </c>
       <c r="F37" s="77" t="s">
@@ -49042,7 +48925,7 @@
         <v>50002605</v>
       </c>
       <c r="U37" s="74" t="str">
-        <f>CONCATENATE(J37,"[",C37,"/",L37,"]")</f>
+        <f t="shared" si="3"/>
         <v>T.O.P 스위트아메리카노 200mlx30캔[653/30]</v>
       </c>
       <c r="V37" s="83" t="s">
@@ -49074,7 +48957,7 @@
         <v>424_450x450.jpg</v>
       </c>
       <c r="E38" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>424_상세.jpg</v>
       </c>
       <c r="F38" s="77" t="s">
@@ -49113,7 +48996,7 @@
         <v>50002605</v>
       </c>
       <c r="U38" s="74" t="str">
-        <f>CONCATENATE(J38,"[",C38,"/",L38,"]")</f>
+        <f t="shared" si="3"/>
         <v>T.O.P 스위트아메리카노 275mlx20캔[424/20]</v>
       </c>
       <c r="V38" s="83" t="s">
@@ -49146,7 +49029,7 @@
         <v>463_450x450.jpg</v>
       </c>
       <c r="E39" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>463_상세.jpg</v>
       </c>
       <c r="F39" s="77" t="s">
@@ -49185,7 +49068,7 @@
         <v>50002605</v>
       </c>
       <c r="U39" s="74" t="str">
-        <f>CONCATENATE(J39,"[",C39,"/",L39,"]")</f>
+        <f t="shared" si="3"/>
         <v>T.O.P 스위트아메리카노 380mlx20캔[463/20]</v>
       </c>
       <c r="V39" s="83" t="s">
@@ -49217,7 +49100,7 @@
         <v>0651_450x450.jpg</v>
       </c>
       <c r="E40" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0651_상세.jpg</v>
       </c>
       <c r="F40" s="77" t="s">
@@ -49256,7 +49139,7 @@
         <v>50002605</v>
       </c>
       <c r="U40" s="74" t="str">
-        <f>CONCATENATE(J40,"[",C40,"/",L40,"]")</f>
+        <f t="shared" si="3"/>
         <v>T.O.P 콜드브루 스위트 아메리카노275mlx20개입[0651/20]</v>
       </c>
       <c r="V40" s="83" t="s">
@@ -49288,7 +49171,7 @@
         <v>0649_450x450.jpg</v>
       </c>
       <c r="E41" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0649_상세.jpg</v>
       </c>
       <c r="F41" s="77" t="s">
@@ -49327,7 +49210,7 @@
         <v>50002605</v>
       </c>
       <c r="U41" s="74" t="str">
-        <f>CONCATENATE(J41,"[",C41,"/",L41,"]")</f>
+        <f t="shared" si="3"/>
         <v>T.O.P 콜드브루 아메리카노275mlx20개입[0649/20]</v>
       </c>
       <c r="V41" s="83" t="s">
@@ -49357,7 +49240,7 @@
         <v>0662_450x450.jpg</v>
       </c>
       <c r="E42" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0662_상세.jpg</v>
       </c>
       <c r="F42" s="77" t="s">
@@ -49398,7 +49281,7 @@
         <v>50002605</v>
       </c>
       <c r="U42" s="74" t="str">
-        <f>CONCATENATE(J42,"[",C42,"/",L42,"]")</f>
+        <f t="shared" si="3"/>
         <v>맥스웰 콜롬비아나 스위트 아메리카노 240mlx30캔[0662/30]</v>
       </c>
       <c r="V42" s="83" t="s">
@@ -49427,7 +49310,7 @@
         <v>0663_450x450.jpg</v>
       </c>
       <c r="E43" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0663_상세.jpg</v>
       </c>
       <c r="F43" s="77" t="s">
@@ -49468,7 +49351,7 @@
         <v>50002605</v>
       </c>
       <c r="U43" s="158" t="str">
-        <f>CONCATENATE(J43,"[",C43,"/",L43,"]")</f>
+        <f t="shared" si="3"/>
         <v>맥스웰 콜롬비아나 오리지날 블랙 240mlx30캔[0663/30]</v>
       </c>
       <c r="V43" s="84" t="s">
@@ -49482,7 +49365,7 @@
       </c>
       <c r="Y43" s="376"/>
       <c r="Z43" s="455"/>
-      <c r="AA43" s="520"/>
+      <c r="AA43" s="511"/>
       <c r="AB43" s="62"/>
       <c r="AC43" s="62"/>
     </row>
@@ -49501,7 +49384,7 @@
         <v>0661_450x450.jpg</v>
       </c>
       <c r="E44" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0661_상세.jpg</v>
       </c>
       <c r="F44" s="77" t="s">
@@ -49542,7 +49425,7 @@
         <v>50002605</v>
       </c>
       <c r="U44" s="74" t="str">
-        <f>CONCATENATE(J44,"[",C44,"/",L44,"]")</f>
+        <f t="shared" si="3"/>
         <v>맥스웰 콜롬비아나 카페라떼 240mlx30캔[0661/30]</v>
       </c>
       <c r="V44" s="83" t="s">
@@ -49571,7 +49454,7 @@
         <v>658_450x450.jpg</v>
       </c>
       <c r="E45" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>658_상세.jpg</v>
       </c>
       <c r="F45" s="77" t="s">
@@ -49610,7 +49493,7 @@
         <v>50002605</v>
       </c>
       <c r="U45" s="74" t="str">
-        <f>CONCATENATE(J45,"[",C45,"/",L45,"]")</f>
+        <f t="shared" si="3"/>
         <v>맥스웰하우스 블루엣마일드 200mlx30개입[658/30]</v>
       </c>
       <c r="V45" s="83" t="s">
@@ -49641,7 +49524,7 @@
         <v>659_450x450.jpg</v>
       </c>
       <c r="E46" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659_상세.jpg</v>
       </c>
       <c r="F46" s="77" t="s">
@@ -49680,7 +49563,7 @@
         <v>50002605</v>
       </c>
       <c r="U46" s="74" t="str">
-        <f>CONCATENATE(J46,"[",C46,"/",L46,"]")</f>
+        <f t="shared" si="3"/>
         <v>맥스웰하우스 스위트아메리카노 200mlx30개입[659/30]</v>
       </c>
       <c r="V46" s="83" t="s">
@@ -49711,7 +49594,7 @@
         <v>657_450x450.jpg</v>
       </c>
       <c r="E47" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>657_상세.jpg</v>
       </c>
       <c r="F47" s="77" t="s">
@@ -49750,7 +49633,7 @@
         <v>50002605</v>
       </c>
       <c r="U47" s="74" t="str">
-        <f>CONCATENATE(J47,"[",C47,"/",L47,"]")</f>
+        <f t="shared" si="3"/>
         <v>맥스웰하우스 오리지날 200mlx30개입[657/30]</v>
       </c>
       <c r="V47" s="83" t="s">
@@ -49782,7 +49665,7 @@
         <v>406_450x450.jpg</v>
       </c>
       <c r="E48" s="171" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>406_상세.jpg</v>
       </c>
       <c r="F48" s="77" t="s">
@@ -49823,7 +49706,7 @@
         <v>50002605</v>
       </c>
       <c r="U48" s="74" t="str">
-        <f>CONCATENATE(J48,"[",C48,"/",L48,"]")</f>
+        <f t="shared" si="3"/>
         <v>스타벅스 더블샷 에스프레소&amp;크림200mlx36캔[406/36]</v>
       </c>
       <c r="V48" s="83" t="s">
@@ -49839,7 +49722,7 @@
         <v>1114</v>
       </c>
       <c r="Z48" s="110"/>
-      <c r="AA48" s="521"/>
+      <c r="AA48" s="512"/>
       <c r="AB48" s="229" t="s">
         <v>822</v>
       </c>
@@ -49851,7 +49734,7 @@
       <c r="B49" s="130">
         <v>48</v>
       </c>
-      <c r="C49" s="530">
+      <c r="C49" s="521">
         <v>4096</v>
       </c>
       <c r="D49" s="200" t="str">
@@ -49859,7 +49742,7 @@
         <v>4096_450x450.jpg</v>
       </c>
       <c r="E49" s="200" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4096_상세.jpg</v>
       </c>
       <c r="F49" s="142" t="s">
@@ -49872,7 +49755,7 @@
       <c r="I49" s="442" t="s">
         <v>1168</v>
       </c>
-      <c r="J49" s="531" t="s">
+      <c r="J49" s="522" t="s">
         <v>590</v>
       </c>
       <c r="K49" s="201"/>
@@ -49882,7 +49765,7 @@
       <c r="M49" s="202">
         <v>2</v>
       </c>
-      <c r="N49" s="532">
+      <c r="N49" s="523">
         <v>53600</v>
       </c>
       <c r="O49" s="132" t="s">
@@ -49900,7 +49783,7 @@
         <v>50002605</v>
       </c>
       <c r="U49" s="119" t="str">
-        <f>CONCATENATE(J49,"[",C49,"/",L49,"]")</f>
+        <f t="shared" si="3"/>
         <v>스타벅스 더블샷 에스프레소&amp;크림275mlx24캔[4096/24]</v>
       </c>
       <c r="V49" s="118" t="s">
@@ -49909,19 +49792,19 @@
       <c r="W49" s="118" t="s">
         <v>581</v>
       </c>
-      <c r="X49" s="533" t="s">
+      <c r="X49" s="524" t="s">
         <v>821</v>
       </c>
-      <c r="Y49" s="533"/>
-      <c r="Z49" s="534"/>
-      <c r="AA49" s="522"/>
+      <c r="Y49" s="524"/>
+      <c r="Z49" s="525"/>
+      <c r="AA49" s="513"/>
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="75"/>
       <c r="B50" s="9">
         <v>49</v>
       </c>
-      <c r="C50" s="535">
+      <c r="C50" s="526">
         <v>94543</v>
       </c>
       <c r="D50" s="335" t="str">
@@ -49929,10 +49812,10 @@
         <v>94543_450x450.jpg</v>
       </c>
       <c r="E50" s="335" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94543_상세.jpg</v>
       </c>
-      <c r="F50" s="536"/>
+      <c r="F50" s="527"/>
       <c r="G50" s="36" t="s">
         <v>935</v>
       </c>
@@ -49943,28 +49826,28 @@
         <v>1153</v>
       </c>
       <c r="J50" s="54" t="s">
-        <v>1394</v>
+        <v>1367</v>
       </c>
       <c r="K50" s="335" t="s">
         <v>337</v>
       </c>
-      <c r="L50" s="537">
+      <c r="L50" s="528">
         <v>6</v>
       </c>
       <c r="M50" s="253">
         <v>1</v>
       </c>
-      <c r="N50" s="538">
+      <c r="N50" s="529">
         <v>2300</v>
       </c>
       <c r="O50" s="47" t="s">
         <v>782</v>
       </c>
-      <c r="P50" s="539">
-        <v>2500</v>
-      </c>
-      <c r="Q50" s="537"/>
-      <c r="R50" s="537"/>
+      <c r="P50" s="530">
+        <v>2500</v>
+      </c>
+      <c r="Q50" s="528"/>
+      <c r="R50" s="528"/>
       <c r="S50" s="207" t="s">
         <v>583</v>
       </c>
@@ -49972,28 +49855,28 @@
         <v>50002032</v>
       </c>
       <c r="U50" s="25" t="str">
-        <f>CONCATENATE(J50,"[",C50,"/",L50,"]")</f>
+        <f t="shared" si="3"/>
         <v>크리스탈 생수2.0L /6개입[94543/6]</v>
       </c>
       <c r="V50" s="253" t="s">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="W50" s="253" t="s">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="X50" s="143"/>
       <c r="Y50" s="438"/>
-      <c r="Z50" s="540" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AA50" s="523"/>
+      <c r="Z50" s="531" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AA50" s="514"/>
     </row>
     <row r="51" spans="1:27" ht="17.25" thickBot="1">
       <c r="A51" s="69"/>
       <c r="B51" s="125">
         <v>50</v>
       </c>
-      <c r="C51" s="541">
+      <c r="C51" s="532">
         <v>94541</v>
       </c>
       <c r="D51" s="341" t="str">
@@ -50001,10 +49884,10 @@
         <v>94541_450x450.jpg</v>
       </c>
       <c r="E51" s="341" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94541_상세.jpg</v>
       </c>
-      <c r="F51" s="542"/>
+      <c r="F51" s="533"/>
       <c r="G51" s="139"/>
       <c r="H51" s="419" t="s">
         <v>1153</v>
@@ -50013,28 +49896,28 @@
         <v>1153</v>
       </c>
       <c r="J51" s="146" t="s">
-        <v>1348</v>
+        <v>1321</v>
       </c>
       <c r="K51" s="341" t="s">
         <v>338</v>
       </c>
-      <c r="L51" s="529">
+      <c r="L51" s="520">
         <v>20</v>
       </c>
       <c r="M51" s="184">
         <v>1</v>
       </c>
-      <c r="N51" s="543">
+      <c r="N51" s="534">
         <v>2800</v>
       </c>
       <c r="O51" s="73" t="s">
         <v>782</v>
       </c>
-      <c r="P51" s="544">
-        <v>2500</v>
-      </c>
-      <c r="Q51" s="529"/>
-      <c r="R51" s="529"/>
+      <c r="P51" s="535">
+        <v>2500</v>
+      </c>
+      <c r="Q51" s="520"/>
+      <c r="R51" s="520"/>
       <c r="S51" s="228" t="s">
         <v>583</v>
       </c>
@@ -50042,21 +49925,21 @@
         <v>50002032</v>
       </c>
       <c r="U51" s="70" t="str">
-        <f>CONCATENATE(J51,"[",C51,"/",L51,"]")</f>
+        <f t="shared" si="3"/>
         <v>크리스탈 생수0.5L /20개입[94541/20]</v>
       </c>
       <c r="V51" s="184" t="s">
-        <v>1349</v>
+        <v>1322</v>
       </c>
       <c r="W51" s="184" t="s">
-        <v>1350</v>
+        <v>1323</v>
       </c>
       <c r="X51" s="236"/>
       <c r="Y51" s="236"/>
       <c r="Z51" s="176" t="s">
-        <v>1352</v>
-      </c>
-      <c r="AA51" s="523"/>
+        <v>1325</v>
+      </c>
+      <c r="AA51" s="514"/>
     </row>
   </sheetData>
   <sortState ref="A23:AB49">
